--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>视觉小说,推理,女性主角,动漫,剧情丰富</t>
+          <t>视觉小说,推理,动漫,女性主角,剧情丰富</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1700494253" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1700494253" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1700494253" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
+          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1701074570" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1701074570" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1701074570" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>冒险,心理恐怖,恋爱模拟,多人,惊悚</t>
+          <t>冒险,心理恐怖,恋爱模拟,惊悚,多人</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1604,22 +1604,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1751350</t>
+          <t>1735700</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Don't Die In The West</t>
+          <t>Back to the Dawn</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>牛仔不能死</t>
+          <t>动物迷城</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>制作,生活模拟,西部,探索,沙盒</t>
+          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1627,36 +1627,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2023年11月09日</t>
+          <t>2023年11月03日</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1699540419" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2125090</t>
+          <t>1751350</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tintin Reporter - Cigars of the Pharaoh</t>
+          <t>Don't Die In The West</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>丁丁历险记：法老的雪茄</t>
+          <t>牛仔不能死</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>动作,冒险,自选历险体验,动作冒险,3D</t>
+          <t>制作,生活模拟,西部,探索,沙盒</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1666,34 +1671,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023年11月08日</t>
+          <t>2023年11月09日</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>丁丁和他忠实的伙伴雪莉即将开始一段段非凡冒险……在地中海巡航时遇见萨科法格斯教授后，这位久负盛名的记者开始寻找法老基奥斯克的墓穴。&lt;br&gt;&lt;br&gt;法老的坟墓里究竟暗藏何种邪恶之秘？ &lt;br&gt;&lt;br&gt;始于埃及、迈入印度、穿越阿拉伯，丁丁和雪莉终将查清遍及整个东方的庞大毒品贩运网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;忠实于原著的多彩冒险之旅&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这款游戏涵盖丁丁宇宙的方方面面，故事叙说迂回曲折、精彩纷呈，是埃尔热伟大创意遗产的一部分，带您领略神秘埃及和其他极尽绚丽之地的魅力。《法老的雪茄》是该系列的第4段冒险。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;一款充满冒险生活风情的电子游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;和丁丁一道，开始一段振奋人心、发人深省的冒险，谨慎探索东方、墓穴、沙漠、茂密丛林的深处或其他危机四伏之地，尝试解决一起国际毒品走私案件。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;众多精彩游戏玩法尚待掌握&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏玩法别出新意，集冒险游戏和调查游戏所有精彩元素为一体。本游戏诚邀您扮演一名侦探或记者：通过搜索和潜入，找寻案件线索，继而藉由扣人心弦的视频场景和丰富的调查对话解决难题。&lt;br&gt;&lt;/li&gt;&lt;li&gt;解谜、搜索及潜入场景，飞机与汽车追逐，调查对话……别具一格的玩法体验，让每个玩家都能化身真正的记者开始奇妙冒险之旅！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1699540419" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2399830</t>
+          <t>2125090</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ARK: Survival Ascended</t>
+          <t>Tintin Reporter - Cigars of the Pharaoh</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>方舟：生存飞升</t>
+          <t>丁丁历险记：法老的雪茄</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>抢先体验,生存,开放世界,恐龙,冒险</t>
+          <t>动作,冒险,自选历险体验,动作冒险,3D</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1701,91 +1706,128 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023年10月26日</t>
+          <t>2023年11月08日</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>进入一场全新的恐龙生存体验，这一切将超越您最狂野的幻想……《方舟》采用虚幻引擎 5 重新设计，并融入了下一代电子游戏技术！您会在一个神秘的小岛上醒来，刺眼的阳光和绚丽的色彩将使你目不暇接. 蔚蓝的海水拍打着您赤裸的双脚。迷雾丛林中回荡的低沉吼叫让你猛然惊醒，你站了起来--却不是因为害怕，而是因为好奇。你准备好组建一个部落，驯养和繁殖数百种恐龙和其他原始生物，探索、制作、建造，并一路进发至食物链的顶端了吗？一场新的冒险在等待着你......不要再犹豫了,快来加入这个世界吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;●	《方舟：生存飞升》重新构思了ARK的艺术设计和游戏世界，采用了最新的虚幻引擎5游戏技术，包括高端图形功能技术，例如全局动态照明（Lumen），使光线在物体表面形成逼真的反射效果，以及由数亿个三角形组成的高级网格流技术（Nanite），以呈现出极致的细节。&lt;br&gt;&lt;br&gt;●	游戏还采用了全新的物理系统，例如动态水体，使每个生物在液体中移动时都会产生波浪、涟漪、飞溅和气泡，同时还有完全交互式的物理植被，每片草、灌木和树都会对角色、爆炸、抛射物和物理物体做出反应。你甚至可以砍倒一棵树，看着它撞向其他树木，并在砸向下方草地的途中扰乱所有树叶。你甚至可以通过观察草丛的动向来确定偷偷移动的敌人的位置——因为草丛会随着敌人而移动摇摆。当你拆毁一栋建筑时，可以看到碎片更真实地四分五裂，并在落下时与草地和水体发生交互。&lt;br&gt;&lt;br&gt;●	通过《方舟：生存飞升》可以访问所有方舟世界，包括焦土、畸变、灭绝、创世纪1、ARK 创世纪第二部分等等。孤岛地图现已发布，后续扩展地图将定期免费添加。&lt;br&gt;&lt;br&gt;●	这次的终极生存体验将开启更加精彩的新篇章：自定义你的幸存者，组建一个部落，在一个真实的生态系统中驯化、训练、繁衍和驾驭各种恐龙。你需要时刻关注食物、水源、温度和天气变化。在采集、建造建筑、种植农作物、自定义游戏世界的过程中，慢慢扩张领土，探索并揭开孤岛及其他世界的真面目。&lt;br&gt;&lt;br&gt;●	在游戏体验的各个方面都进行了更彻底的改进：重新设计的用户界面，智能生物寻路的动态导航，野生恐龙宝宝，照片模式，新的相机系统，新的地图系统，追踪系统，全新的建筑、物品和生物等等。&lt;br&gt;&lt;br&gt;●	跨平台模组：您可以直接在游戏中通过专门的模组浏览器 下载并畅玩由其他玩家创造的新内容，包括新地图、生物、物品以及游戏模式！随着社群的创造力和才能首次在各个平台上得到充分释放，您将源源不断地享受到有关方舟新玩法！&lt;br&gt;&lt;br&gt;●	跨平台多人游戏：与不同游戏平台上的其他玩家一起组建在线部落，共同在方舟的世界中生存和发展！&lt;br&gt;&lt;br&gt;●	游戏支持多达70名玩家的公共在线多人游戏，最多可容纳8名玩家的私人游戏，以及2至4名玩家的本地分屏模式。</t>
+          <t>丁丁和他忠实的伙伴雪莉即将开始一段段非凡冒险……在地中海巡航时遇见萨科法格斯教授后，这位久负盛名的记者开始寻找法老基奥斯克的墓穴。&lt;br&gt;&lt;br&gt;法老的坟墓里究竟暗藏何种邪恶之秘？ &lt;br&gt;&lt;br&gt;始于埃及、迈入印度、穿越阿拉伯，丁丁和雪莉终将查清遍及整个东方的庞大毒品贩运网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;忠实于原著的多彩冒险之旅&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这款游戏涵盖丁丁宇宙的方方面面，故事叙说迂回曲折、精彩纷呈，是埃尔热伟大创意遗产的一部分，带您领略神秘埃及和其他极尽绚丽之地的魅力。《法老的雪茄》是该系列的第4段冒险。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;一款充满冒险生活风情的电子游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;和丁丁一道，开始一段振奋人心、发人深省的冒险，谨慎探索东方、墓穴、沙漠、茂密丛林的深处或其他危机四伏之地，尝试解决一起国际毒品走私案件。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;众多精彩游戏玩法尚待掌握&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏玩法别出新意，集冒险游戏和调查游戏所有精彩元素为一体。本游戏诚邀您扮演一名侦探或记者：通过搜索和潜入，找寻案件线索，继而藉由扣人心弦的视频场景和丰富的调查对话解决难题。&lt;br&gt;&lt;/li&gt;&lt;li&gt;解谜、搜索及潜入场景，飞机与汽车追逐，调查对话……别具一格的玩法体验，让每个玩家都能化身真正的记者开始奇妙冒险之旅！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2436842</t>
+          <t>2399830</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RoboCop: Rogue City - Digital Artbook</t>
+          <t>ARK: Survival Ascended</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RoboCop: Rogue City - Digital Artbook</t>
+          <t>方舟：生存飞升</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>动作,冒险</t>
+          <t>抢先体验,生存,开放世界,恐龙,冒险</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023年11月03日</t>
+          <t>2023年10月26日</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>使用数字版原画集应用，深入《RoboCop: Rogue City》诞生幕后的故事。原画集中包含超过 100 页配有游戏开发者解说的美术插图、概念美术及草稿。为所有半人半机械的英雄警察的粉丝们竭诚奉上。</t>
+          <t>进入一场全新的恐龙生存体验，这一切将超越您最狂野的幻想……《方舟》采用虚幻引擎 5 重新设计，并融入了下一代电子游戏技术！您会在一个神秘的小岛上醒来，刺眼的阳光和绚丽的色彩将使你目不暇接. 蔚蓝的海水拍打着您赤裸的双脚。迷雾丛林中回荡的低沉吼叫让你猛然惊醒，你站了起来--却不是因为害怕，而是因为好奇。你准备好组建一个部落，驯养和繁殖数百种恐龙和其他原始生物，探索、制作、建造，并一路进发至食物链的顶端了吗？一场新的冒险在等待着你......不要再犹豫了,快来加入这个世界吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;●	《方舟：生存飞升》重新构思了ARK的艺术设计和游戏世界，采用了最新的虚幻引擎5游戏技术，包括高端图形功能技术，例如全局动态照明（Lumen），使光线在物体表面形成逼真的反射效果，以及由数亿个三角形组成的高级网格流技术（Nanite），以呈现出极致的细节。&lt;br&gt;&lt;br&gt;●	游戏还采用了全新的物理系统，例如动态水体，使每个生物在液体中移动时都会产生波浪、涟漪、飞溅和气泡，同时还有完全交互式的物理植被，每片草、灌木和树都会对角色、爆炸、抛射物和物理物体做出反应。你甚至可以砍倒一棵树，看着它撞向其他树木，并在砸向下方草地的途中扰乱所有树叶。你甚至可以通过观察草丛的动向来确定偷偷移动的敌人的位置——因为草丛会随着敌人而移动摇摆。当你拆毁一栋建筑时，可以看到碎片更真实地四分五裂，并在落下时与草地和水体发生交互。&lt;br&gt;&lt;br&gt;●	通过《方舟：生存飞升》可以访问所有方舟世界，包括焦土、畸变、灭绝、创世纪1、ARK 创世纪第二部分等等。孤岛地图现已发布，后续扩展地图将定期免费添加。&lt;br&gt;&lt;br&gt;●	这次的终极生存体验将开启更加精彩的新篇章：自定义你的幸存者，组建一个部落，在一个真实的生态系统中驯化、训练、繁衍和驾驭各种恐龙。你需要时刻关注食物、水源、温度和天气变化。在采集、建造建筑、种植农作物、自定义游戏世界的过程中，慢慢扩张领土，探索并揭开孤岛及其他世界的真面目。&lt;br&gt;&lt;br&gt;●	在游戏体验的各个方面都进行了更彻底的改进：重新设计的用户界面，智能生物寻路的动态导航，野生恐龙宝宝，照片模式，新的相机系统，新的地图系统，追踪系统，全新的建筑、物品和生物等等。&lt;br&gt;&lt;br&gt;●	跨平台模组：您可以直接在游戏中通过专门的模组浏览器 下载并畅玩由其他玩家创造的新内容，包括新地图、生物、物品以及游戏模式！随着社群的创造力和才能首次在各个平台上得到充分释放，您将源源不断地享受到有关方舟新玩法！&lt;br&gt;&lt;br&gt;●	跨平台多人游戏：与不同游戏平台上的其他玩家一起组建在线部落，共同在方舟的世界中生存和发展！&lt;br&gt;&lt;br&gt;●	游戏支持多达70名玩家的公共在线多人游戏，最多可容纳8名玩家的私人游戏，以及2至4名玩家的本地分屏模式。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>2436842</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City - Digital Artbook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City - Digital Artbook</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>动作,冒险</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>使用数字版原画集应用，深入《RoboCop: Rogue City》诞生幕后的故事。原画集中包含超过 100 页配有游戏开发者解说的美术插图、概念美术及草稿。为所有半人半机械的英雄警察的粉丝们竭诚奉上。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>2593900</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>[Chilla's Art] The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>惊悚,心理恐怖,选择取向,生存恐怖,沉浸式模拟</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2023年11月01日</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>&lt;strong&gt;The Kidnap | 誘拐事件&lt;/strong&gt; is a Japanese horror game about a kidnapping incident.&lt;br&gt;&lt;br&gt;Key Features:&lt;br&gt;&lt;br&gt;Immersive experience: An atmospheric, believable environment intensifies the horror experience.&lt;br&gt;&lt;br&gt;VHS film aesthetic: VHS aesthetic emulates the look and feel of CRT screens, including phosphor screen trail and bleeding, VHS tape noise, interlacing, and jitter in the analog video signal, adding extra immersion to the horror experience.&lt;br&gt;&lt;br&gt;Psychological horror: The game will drive you insane.&lt;br&gt;&lt;br&gt;Japanese Theme: Environment art inspired by Japanese horror films.&lt;br&gt;&lt;br&gt;AutoSave: Autosaves every chapter.</t>
         </is>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,22 +1483,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1334040</t>
+          <t>1274600</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Paper Dolls 2</t>
+          <t>The Last Faith</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>纸人2</t>
+          <t>最后的信仰</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>第一人称射击,恋爱模拟,射击,心理恐怖,动作冒险</t>
+          <t>类银河战士恶魔城,类魂系列,像素图形,黑暗奇幻,哥特</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1508,39 +1508,39 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2020年07月03日</t>
+          <t>2023年11月15日</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/hb_616.jpg?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《纸人贰》延续了《纸人》1代的生存恐怖，冒险解谜的游戏风格。&lt;/strong&gt;&lt;br&gt;这部作品将为大家带来较一代更为丰富的游玩体验和更具有挑战性的Boss战，在关卡设计、场景氛围、故事剧情表现、游戏玩法，动画、音效等各个方面都有所提升。游戏增加了二周目难度，对于初次探索游玩的玩家可能需要10个小时左右的时间……&lt;br&gt;&lt;br&gt;&amp;gt;在续篇中见证前作主角“杨明远”为了寻找女儿上到殷府的二楼，结局到底如何？&lt;br&gt;&amp;gt;经过一段时间的休养，杨明远的身体状况有了些许恢复，体力有所增强……&lt;br&gt;&amp;gt;这座清末时期的幽森古宅为何充满了怨气？曾经声名显赫的殷府到底发生过什么？杨明远与这座百年古宅究竟有何渊源？&lt;br&gt;&amp;gt;让我们相约7.3 ,   与杨明远一起回到100年前的殷家一探究竟&lt;br&gt;&lt;br&gt;欢迎关注《纸人贰》官方微博：北京荔枝游戏_纸人&lt;br&gt;加入纸人②官方群：170580619，了解更多内容&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot12.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;STORY&lt;/h2&gt;&lt;br&gt;再一次从噩梦中惊醒的杨明远，久久无法让情绪从惊恐不安中平复。只要闭上双眼，脑海中就会吱吱呀呀得不停放映着那卷老旧胶片般的画面——枯朽的古宅，阴森的灵堂，缥缈的身影，还有诡异的纸人穿梭其中，循环往复……然而，似乎还有某种声音夹杂其中，如同召唤又似催促的呢喃，却怎么也听不清。&lt;br&gt;&lt;br&gt;杨明远盯着窗外染红天空的夕阳，决定把这一切都归咎于工作的压力和生活的烦恼。&lt;br&gt;“专注于当下……”他对自己这样说道。&lt;br&gt;随后，拿起外套和汽车钥匙，叫女儿收拾好东西，准备出发。&lt;br&gt;是的，今天是女儿该回妈妈家的日子。&lt;br&gt;当杨明远关门的一瞬间，桌子上的药盒让他迟疑了片刻。&lt;br&gt;“那该死的梦一定和这药片有关！我要把它全部扔进垃圾桶，再换个医生！”暗自下定决心后，杨明远砰得一声关上了房门。&lt;br&gt;&lt;br&gt;当高速路上的车灯渐渐变成一条条飞逝的线条，路灯的光线明亮得刺眼晕眩时，杨明远又听到了那个熟悉的声音。&lt;br&gt;女儿好像说了些什么，虽然就在身边，却如同隔着一堵厚厚的墙壁般不真切。&lt;br&gt;“什么……你究竟要我做什么？！把话说清楚！”他的内心歇斯底里的咆哮道。&lt;br&gt;恍惚间，光影闪烁，在一声巨响之后，整个世界都安静了下来……&lt;br&gt;&lt;br&gt;“这里是……”当杨明远醒来的时候，却发现自己置身一座荒弃的古宅。这里的一切既熟悉又陌生，恍若梦中。但女儿微弱的呼喊唤醒了杨明远的理智，他勉强从地上爬起来，循着女儿的声音，向幽暗阴森的黑暗走去。一个个谜团的背后，埋藏着怎样的秘密？真相正在被层层剥开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot10.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;殷府及古代背景&lt;/strong&gt;&lt;br&gt;清朝末年，京城西郊有一座藏于山林之间的锦绣府邸。此宅的主人姓殷，出身世家，少年得志，颇受朝廷重用。曾领兵平乱四方，官至极品。人到中年方娶得一房绝色娇妻，二人门当户对，情投意合。但好景不长，朝廷权力更迭，殷老爷官场失意，郁郁不得志，最终归隐避世。&lt;br&gt;&lt;br&gt;殷老爷择一处山水掩映的宝地，修建宅邸，只带亲信随从侍奉左右，又不惜重金请来两位门客作伴。一位是博古通今的柳先生，一位是精通水墨丹青的赵画师。虽然生活远比以往孤寂清冷，却也平和安然。然而，多年膝下无子的殷老爷，忽闻夫人有喜，却如同平静水面被一颗小石子激起千里涟漪。不堪的流言让宅子里人心动荡，一桩桩怪诞的悲剧接踵而来……&lt;br&gt;&lt;br&gt;然而，一场突降的暴雨，连绵数月。待雨停之后，通往这座隐世宅邸的路却再也无人能寻到。殷府上下和它不为人知的秘密一起消失在人们记忆里……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot9.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;第一人称3D恐怖冒险游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;h2 class="bb_tag"&gt;FEATURE&lt;/h2&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;寻找女儿的路途障碍重重，如影随形的亡魂无处不在，如何躲避他们，甩掉他们，如何战胜他们……随着古宅往事渐渐被揭开，事情的真相呼之欲出。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;冤死的亡魂已化为厉鬼，在厉鬼环绕的宅子里，稍有不慎就会迎接死亡的降临。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;在恐怖压抑的清末古宅中用你的智慧解开所有谜团，根据散落的故事碎片推理，打开那一道道被封印了百年的大门。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot11.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;虚幻引擎打造次时代主机游戏《纸人》系列新作《纸人贰》Paper Dolls 2： 栩栩如生的写实表现方式、精美的画面描绘出一百多年前的殷家府邸，带给你身临其境的沉浸感。&lt;br&gt;&lt;br&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1700511912" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1337520</t>
+          <t>1334040</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Risk of Rain Returns</t>
+          <t>Paper Dolls 2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>雨中冒险: 回归</t>
+          <t>纸人2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>在线合作,多人,动作类 Rogue,玩家对战环境,2D</t>
+          <t>第一人称射击,恋爱模拟,射击,心理恐怖,动作冒险</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1550,39 +1550,39 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2023年11月09日</t>
+          <t>2020年07月03日</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/01_《雨中冒险》回来了！.gif?t=1699995226" /&gt;&lt;br&gt;精心设计、精美重置而且带来了更多全新玩法：《Risk of Rain》 将以前所未有的全新面貌重新归来！深入标志性的探索游戏世界，见证琳琅满目的独特战利品组合， 全新的幸存者、焕然一新的多人游戏模式以及更多内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/02_Before_and_after_revised.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/03_探索全新玩法.gif?t=1699995226" /&gt;&lt;br&gt;磨砺各类技能和能力，发现全新幸存者，迎接愈发困难的挑战！ &amp;quot;探索琼泥V之下沉睡着的远古奥秘。不要放过任何蛛丝马迹， 每一份日志、石板乃至加普都有可能带来全新的内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/04_unlock_notification_popping_up.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/05_CN.gif?t=1699995226" /&gt;&lt;br&gt;虽然您们的飞船遭遇了神秘袭击，幸运的是依旧不乏有多位幸存者的身影。切割粉碎，与 重新回归的厨师一起伸张正义，作为执法官固守阵地并用盾牌守护队友，或者喷吐 剧毒泥浆，化身最受喜爱的紫色怪物：呛鼻毒师！铸就全新的道路，探索15位 独特幸存者，精通每位角色带来的全新能力。&lt;br&gt;&lt;br&gt;另外还请准备好迎接流浪者！这位心灵手巧的斗士能够从打败的敌人身上收集碎片，并创造能够暂时强化队友的物品。除此以外，她还能够使用这股力量释放毁灭性的烈焰，焚烧大片的区域。流浪者将为任何幸存者队伍提供不可或缺的帮助。在支援队伍的同时她也有能力自食其力，这证明流浪者绝非仅是一位偷渡客那么简单。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/06_place_holder_gif.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/07_单人游玩或与好友组队.gif?t=1699995226" /&gt;&lt;br&gt;多样化是毁灭的最佳佐料。选择至多11种神器，为每一轮游戏带来不一样的体验！也许 您想要开局获得每次使用都会变化的随机装备物品，或者想要 每隔10分钟体验一次狂暴魔精们的入侵。尝试不同 神器组合，探索刺激有趣的全新玩法。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/08_Gif_of_survivors_jumping_out_Desolate_Forest_zoomed_in.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/09_威力强劲的战利品.gif?t=1699995226" /&gt;&lt;br&gt;在星球上厮杀时不要忘记搜索各类宝贵货物。这些物品将成为您的 救命法宝，它们能令您跑得更快，造成更多伤害或者跳跃到更高的位置。除了这些以外， 有些物品还会给您带来更不可思议的变化：比如说稀有的尤克里里，这种物品将为您的攻击带来 闪电”般的激荡乐律。如果想要大肆爆炸，记得寻找完美巨兽， 届时再普通不过的攻击也将引发一连串的美妙轰鸣。随心所欲组合， 见证千奇百怪的效果。爆炸性连锁闪电不过是 您的疯狂杰作的第一步！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/10_Potent_Pick_Ups___fireboots_2.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/11_危机四伏的琼泥V.gif?t=1699995226" /&gt;&lt;br&gt;琼泥V之上存在着来源于不同星球上的生物。当 这些怪物在当初的母星上濒临灭绝时，一股神秘力量将它们带到了 琼泥V。这颗星球迅速变成了容纳着全宇宙最为凶狠的怪物的 动物园”，而且最糟糕的是，它们并不喜欢不速之客（也就是“您们”）的到访。 激活遍布星球的古代传送器，穿越全部10种地貌环境。 奋力求生，杀出一条血路并重新回到当初被迫遗弃的飞船。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/12_Diversity_of_Environment.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/13_改天换地的神器.gif?t=1699995226" /&gt;&lt;br&gt;单人或者是与队友一同降落至星球地表！选择能够互相扶持、 互补不足的幸存者小队，或者由着性子来，谁的枪炮最猛就选谁（最佳答案： 装卸工）。享受至多四人的在线与本地合作模式，记住，您并不是一个人。 雨中冒险: 回归 将带来改良后的全新多人游戏服务以确保 您的队伍将能够顺畅自如地挑战琼泥V之上的怪物洪潮。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/14_place_holder_gif_3_possible_artifact.gif?t=1699995226" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/hb_616.jpg?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《纸人贰》延续了《纸人》1代的生存恐怖，冒险解谜的游戏风格。&lt;/strong&gt;&lt;br&gt;这部作品将为大家带来较一代更为丰富的游玩体验和更具有挑战性的Boss战，在关卡设计、场景氛围、故事剧情表现、游戏玩法，动画、音效等各个方面都有所提升。游戏增加了二周目难度，对于初次探索游玩的玩家可能需要10个小时左右的时间……&lt;br&gt;&lt;br&gt;&amp;gt;在续篇中见证前作主角“杨明远”为了寻找女儿上到殷府的二楼，结局到底如何？&lt;br&gt;&amp;gt;经过一段时间的休养，杨明远的身体状况有了些许恢复，体力有所增强……&lt;br&gt;&amp;gt;这座清末时期的幽森古宅为何充满了怨气？曾经声名显赫的殷府到底发生过什么？杨明远与这座百年古宅究竟有何渊源？&lt;br&gt;&amp;gt;让我们相约7.3 ,   与杨明远一起回到100年前的殷家一探究竟&lt;br&gt;&lt;br&gt;欢迎关注《纸人贰》官方微博：北京荔枝游戏_纸人&lt;br&gt;加入纸人②官方群：170580619，了解更多内容&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot12.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;STORY&lt;/h2&gt;&lt;br&gt;再一次从噩梦中惊醒的杨明远，久久无法让情绪从惊恐不安中平复。只要闭上双眼，脑海中就会吱吱呀呀得不停放映着那卷老旧胶片般的画面——枯朽的古宅，阴森的灵堂，缥缈的身影，还有诡异的纸人穿梭其中，循环往复……然而，似乎还有某种声音夹杂其中，如同召唤又似催促的呢喃，却怎么也听不清。&lt;br&gt;&lt;br&gt;杨明远盯着窗外染红天空的夕阳，决定把这一切都归咎于工作的压力和生活的烦恼。&lt;br&gt;“专注于当下……”他对自己这样说道。&lt;br&gt;随后，拿起外套和汽车钥匙，叫女儿收拾好东西，准备出发。&lt;br&gt;是的，今天是女儿该回妈妈家的日子。&lt;br&gt;当杨明远关门的一瞬间，桌子上的药盒让他迟疑了片刻。&lt;br&gt;“那该死的梦一定和这药片有关！我要把它全部扔进垃圾桶，再换个医生！”暗自下定决心后，杨明远砰得一声关上了房门。&lt;br&gt;&lt;br&gt;当高速路上的车灯渐渐变成一条条飞逝的线条，路灯的光线明亮得刺眼晕眩时，杨明远又听到了那个熟悉的声音。&lt;br&gt;女儿好像说了些什么，虽然就在身边，却如同隔着一堵厚厚的墙壁般不真切。&lt;br&gt;“什么……你究竟要我做什么？！把话说清楚！”他的内心歇斯底里的咆哮道。&lt;br&gt;恍惚间，光影闪烁，在一声巨响之后，整个世界都安静了下来……&lt;br&gt;&lt;br&gt;“这里是……”当杨明远醒来的时候，却发现自己置身一座荒弃的古宅。这里的一切既熟悉又陌生，恍若梦中。但女儿微弱的呼喊唤醒了杨明远的理智，他勉强从地上爬起来，循着女儿的声音，向幽暗阴森的黑暗走去。一个个谜团的背后，埋藏着怎样的秘密？真相正在被层层剥开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot10.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;殷府及古代背景&lt;/strong&gt;&lt;br&gt;清朝末年，京城西郊有一座藏于山林之间的锦绣府邸。此宅的主人姓殷，出身世家，少年得志，颇受朝廷重用。曾领兵平乱四方，官至极品。人到中年方娶得一房绝色娇妻，二人门当户对，情投意合。但好景不长，朝廷权力更迭，殷老爷官场失意，郁郁不得志，最终归隐避世。&lt;br&gt;&lt;br&gt;殷老爷择一处山水掩映的宝地，修建宅邸，只带亲信随从侍奉左右，又不惜重金请来两位门客作伴。一位是博古通今的柳先生，一位是精通水墨丹青的赵画师。虽然生活远比以往孤寂清冷，却也平和安然。然而，多年膝下无子的殷老爷，忽闻夫人有喜，却如同平静水面被一颗小石子激起千里涟漪。不堪的流言让宅子里人心动荡，一桩桩怪诞的悲剧接踵而来……&lt;br&gt;&lt;br&gt;然而，一场突降的暴雨，连绵数月。待雨停之后，通往这座隐世宅邸的路却再也无人能寻到。殷府上下和它不为人知的秘密一起消失在人们记忆里……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot9.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;第一人称3D恐怖冒险游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;h2 class="bb_tag"&gt;FEATURE&lt;/h2&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;寻找女儿的路途障碍重重，如影随形的亡魂无处不在，如何躲避他们，甩掉他们，如何战胜他们……随着古宅往事渐渐被揭开，事情的真相呼之欲出。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;冤死的亡魂已化为厉鬼，在厉鬼环绕的宅子里，稍有不慎就会迎接死亡的降临。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;在恐怖压抑的清末古宅中用你的智慧解开所有谜团，根据散落的故事碎片推理，打开那一道道被封印了百年的大门。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot11.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;虚幻引擎打造次时代主机游戏《纸人》系列新作《纸人贰》Paper Dolls 2： 栩栩如生的写实表现方式、精美的画面描绘出一百多年前的殷家府邸，带给你身临其境的沉浸感。&lt;br&gt;&lt;br&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1681430</t>
+          <t>1337520</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RoboCop: Rogue City</t>
+          <t>Risk of Rain Returns</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>机械战警：暴戾都市</t>
+          <t>雨中冒险: 回归</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>第一人称射击,动作,第一人称,单人,射击</t>
+          <t>在线合作,多人,动作类 Rogue,玩家对战环境,2D</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1590,36 +1590,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2023年11月03日</t>
+          <t>2023年11月09日</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1701074570" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1701074570" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1701074570" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/01_《雨中冒险》回来了！.gif?t=1699995226" /&gt;&lt;br&gt;精心设计、精美重置而且带来了更多全新玩法：《Risk of Rain》 将以前所未有的全新面貌重新归来！深入标志性的探索游戏世界，见证琳琅满目的独特战利品组合， 全新的幸存者、焕然一新的多人游戏模式以及更多内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/02_Before_and_after_revised.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/03_探索全新玩法.gif?t=1699995226" /&gt;&lt;br&gt;磨砺各类技能和能力，发现全新幸存者，迎接愈发困难的挑战！ &amp;quot;探索琼泥V之下沉睡着的远古奥秘。不要放过任何蛛丝马迹， 每一份日志、石板乃至加普都有可能带来全新的内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/04_unlock_notification_popping_up.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/05_CN.gif?t=1699995226" /&gt;&lt;br&gt;虽然您们的飞船遭遇了神秘袭击，幸运的是依旧不乏有多位幸存者的身影。切割粉碎，与 重新回归的厨师一起伸张正义，作为执法官固守阵地并用盾牌守护队友，或者喷吐 剧毒泥浆，化身最受喜爱的紫色怪物：呛鼻毒师！铸就全新的道路，探索15位 独特幸存者，精通每位角色带来的全新能力。&lt;br&gt;&lt;br&gt;另外还请准备好迎接流浪者！这位心灵手巧的斗士能够从打败的敌人身上收集碎片，并创造能够暂时强化队友的物品。除此以外，她还能够使用这股力量释放毁灭性的烈焰，焚烧大片的区域。流浪者将为任何幸存者队伍提供不可或缺的帮助。在支援队伍的同时她也有能力自食其力，这证明流浪者绝非仅是一位偷渡客那么简单。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/06_place_holder_gif.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/07_单人游玩或与好友组队.gif?t=1699995226" /&gt;&lt;br&gt;多样化是毁灭的最佳佐料。选择至多11种神器，为每一轮游戏带来不一样的体验！也许 您想要开局获得每次使用都会变化的随机装备物品，或者想要 每隔10分钟体验一次狂暴魔精们的入侵。尝试不同 神器组合，探索刺激有趣的全新玩法。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/08_Gif_of_survivors_jumping_out_Desolate_Forest_zoomed_in.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/09_威力强劲的战利品.gif?t=1699995226" /&gt;&lt;br&gt;在星球上厮杀时不要忘记搜索各类宝贵货物。这些物品将成为您的 救命法宝，它们能令您跑得更快，造成更多伤害或者跳跃到更高的位置。除了这些以外， 有些物品还会给您带来更不可思议的变化：比如说稀有的尤克里里，这种物品将为您的攻击带来 闪电”般的激荡乐律。如果想要大肆爆炸，记得寻找完美巨兽， 届时再普通不过的攻击也将引发一连串的美妙轰鸣。随心所欲组合， 见证千奇百怪的效果。爆炸性连锁闪电不过是 您的疯狂杰作的第一步！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/10_Potent_Pick_Ups___fireboots_2.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/11_危机四伏的琼泥V.gif?t=1699995226" /&gt;&lt;br&gt;琼泥V之上存在着来源于不同星球上的生物。当 这些怪物在当初的母星上濒临灭绝时，一股神秘力量将它们带到了 琼泥V。这颗星球迅速变成了容纳着全宇宙最为凶狠的怪物的 动物园”，而且最糟糕的是，它们并不喜欢不速之客（也就是“您们”）的到访。 激活遍布星球的古代传送器，穿越全部10种地貌环境。 奋力求生，杀出一条血路并重新回到当初被迫遗弃的飞船。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/12_Diversity_of_Environment.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/13_改天换地的神器.gif?t=1699995226" /&gt;&lt;br&gt;单人或者是与队友一同降落至星球地表！选择能够互相扶持、 互补不足的幸存者小队，或者由着性子来，谁的枪炮最猛就选谁（最佳答案： 装卸工）。享受至多四人的在线与本地合作模式，记住，您并不是一个人。 雨中冒险: 回归 将带来改良后的全新多人游戏服务以确保 您的队伍将能够顺畅自如地挑战琼泥V之上的怪物洪潮。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/14_place_holder_gif_3_possible_artifact.gif?t=1699995226" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1735700</t>
+          <t>1627720</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Back to the Dawn</t>
+          <t>Lies of P</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>动物迷城</t>
+          <t>匹诺曹的谎言</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
+          <t>类魂系列,动作,探索,黑暗奇幻,动作角色扮演</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1634,34 +1639,34 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2023年11月03日</t>
+          <t>2023年09月18日</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1627720/extras/steam_ending.gif?t=1666835591" /&gt;&lt;br&gt;你将成为在充满黑暗和疯狂的城市克拉特独自留下的玩偶匹诺曹。&lt;br&gt;从火车站苏醒的你的线索只有一个。&lt;br&gt;&lt;br&gt;“寻找杰斐特老翁吧。”&lt;br&gt;&lt;br&gt;你必须找到杰斐特的灵感，克服所有的威胁。&lt;br&gt;谁也帮不了你，谁也不能相信。&lt;br&gt;&lt;br&gt;你必须选择谎言来做人。&lt;br&gt;&lt;br&gt;Lies Of P是以美丽年代为背景展开的残酷童话动作游戏。&lt;br&gt;美丽的城市变成了凶宅，到了呐喊不止的人性丧失的时代。&lt;br&gt;古典匹诺曹改编成残酷剧的Lies Of P展现了充满魅力的剧本和紧张感十足的魂类动作冒险。&lt;br&gt;你可以体验为了成为人类而踏上旅程的匹诺曹残酷的明天。&lt;h2 class="bb_tag"&gt;残酷动画的重造&lt;/h2&gt;重新改造著名的古典匹诺曹，残酷与众不同的外貌重生。&lt;br&gt;以成为人类的匹诺曹的冒险为主题，陷入绝境危机的克拉特西为背景，描绘了匹诺曹为了成为人类而战的过程。&lt;h2 class="bb_tag"&gt;视觉风格&lt;/h2&gt;以19世纪到20世纪初的贝尔•埃科夫时代为背景，创造了一个面临戏剧性事态和危机的克拉特西的空间，&lt;br&gt;在那里，多种文化绽放、崩塌的繁荣和没落的面貌被表现为优秀的视觉要素。&lt;h2 class="bb_tag"&gt;谎言任务和多结局&lt;/h2&gt;通过相互有机式的程序性任务（Procedural Quest）系统进行谎言的过程中，会延续到多种分期，影响后续的任务，得出各种不同的结局。&lt;h2 class="bb_tag"&gt;武器组合系统&lt;/h2&gt;将游戏内可获得的武器以多种方式组合，找出自己的要素，提供战斗应用的手段，&lt;br&gt;研究新的组合，为了获得更好的武器而进行探索。&lt;h2 class="bb_tag"&gt;通过身体改造的技能系统&lt;/h2&gt;人偶皮诺曹可以改造身体的一部分，通过改造可以获得新技能并用于战斗。&lt;br&gt;通过改造获得的技能不一定只包括战斗技能，还包括各种有用的功能。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1751350</t>
+          <t>1657630</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Don't Die In The West</t>
+          <t>Slime Rancher 2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>牛仔不能死</t>
+          <t>史莱姆牧场2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>制作,生活模拟,西部,探索,沙盒</t>
+          <t>抢先体验,可爱,彩色,开放世界,放松</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1669,36 +1674,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023年11月09日</t>
+          <t>2022年09月23日</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1699540419" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>Slime Rancher是一款荣获盛誉人气爆棚的游戏，在全球拥有超过1千5百万的粉丝。而Slime Rancher 2就是这款游戏的续篇。碧翠丝·乐步的冒险并未停歇，这次她来到了彩虹岛。这座神秘的岛屿充满了古老的科技、未知的自然资源，还有铺天盖地的弹嘟嘟史莱姆，是一个尚未被探索的全新世界。&lt;br&gt;为了解开岛屿的谜团，探求它的真实面貌，碧翠丝需要在一座美丽的温室里搭建设施、经营牧场以及务农。透过温室闪亮的玻璃墙壁，可以欣赏到这座炫目天堂的全貌——也是碧翠丝的新家园。&lt;br&gt;&lt;br&gt;亮点&lt;h2 class="bb_tag"&gt;探索全新的多彩世界&lt;/h2&gt;碧翠丝·乐步的牧场冒险揭开新篇章，这次她来到了一个神秘的虹彩斑斓的岛屿。&lt;h2 class="bb_tag"&gt;探索全新的弹嘟嘟史莱姆&lt;/h2&gt;跳棉史莱姆还有垂钓史莱姆，把这些在致远牧场见不到的史莱姆收集起来吧。&lt;h2 class="bb_tag"&gt;在彩虹岛上建造一个温室&lt;/h2&gt;用史莱姆结晶赚取新币，再加上收集来的彩虹岛资源，这样就能升级你的真空枪，建造新装置以及扩张温室了。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2125090</t>
+          <t>1681430</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tintin Reporter - Cigars of the Pharaoh</t>
+          <t>RoboCop: Rogue City</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>丁丁历险记：法老的雪茄</t>
+          <t>机械战警：暴戾都市</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>动作,冒险,自选历险体验,动作冒险,3D</t>
+          <t>第一人称射击,动作,第一人称,单人,射击</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1708,34 +1718,34 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023年11月08日</t>
+          <t>2023年11月03日</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>丁丁和他忠实的伙伴雪莉即将开始一段段非凡冒险……在地中海巡航时遇见萨科法格斯教授后，这位久负盛名的记者开始寻找法老基奥斯克的墓穴。&lt;br&gt;&lt;br&gt;法老的坟墓里究竟暗藏何种邪恶之秘？ &lt;br&gt;&lt;br&gt;始于埃及、迈入印度、穿越阿拉伯，丁丁和雪莉终将查清遍及整个东方的庞大毒品贩运网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;忠实于原著的多彩冒险之旅&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这款游戏涵盖丁丁宇宙的方方面面，故事叙说迂回曲折、精彩纷呈，是埃尔热伟大创意遗产的一部分，带您领略神秘埃及和其他极尽绚丽之地的魅力。《法老的雪茄》是该系列的第4段冒险。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;一款充满冒险生活风情的电子游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;和丁丁一道，开始一段振奋人心、发人深省的冒险，谨慎探索东方、墓穴、沙漠、茂密丛林的深处或其他危机四伏之地，尝试解决一起国际毒品走私案件。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;众多精彩游戏玩法尚待掌握&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏玩法别出新意，集冒险游戏和调查游戏所有精彩元素为一体。本游戏诚邀您扮演一名侦探或记者：通过搜索和潜入，找寻案件线索，继而藉由扣人心弦的视频场景和丰富的调查对话解决难题。&lt;br&gt;&lt;/li&gt;&lt;li&gt;解谜、搜索及潜入场景，飞机与汽车追逐，调查对话……别具一格的玩法体验，让每个玩家都能化身真正的记者开始奇妙冒险之旅！&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1701074570" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1701074570" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1701074570" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2399830</t>
+          <t>1687950</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ARK: Survival Ascended</t>
+          <t>Persona 5 Royal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>方舟：生存飞升</t>
+          <t>女神异闻录5皇家版</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>抢先体验,生存,开放世界,恐龙,冒险</t>
+          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1745,44 +1755,49 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023年10月26日</t>
+          <t>2022年10月21日</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>进入一场全新的恐龙生存体验，这一切将超越您最狂野的幻想……《方舟》采用虚幻引擎 5 重新设计，并融入了下一代电子游戏技术！您会在一个神秘的小岛上醒来，刺眼的阳光和绚丽的色彩将使你目不暇接. 蔚蓝的海水拍打着您赤裸的双脚。迷雾丛林中回荡的低沉吼叫让你猛然惊醒，你站了起来--却不是因为害怕，而是因为好奇。你准备好组建一个部落，驯养和繁殖数百种恐龙和其他原始生物，探索、制作、建造，并一路进发至食物链的顶端了吗？一场新的冒险在等待着你......不要再犹豫了,快来加入这个世界吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;●	《方舟：生存飞升》重新构思了ARK的艺术设计和游戏世界，采用了最新的虚幻引擎5游戏技术，包括高端图形功能技术，例如全局动态照明（Lumen），使光线在物体表面形成逼真的反射效果，以及由数亿个三角形组成的高级网格流技术（Nanite），以呈现出极致的细节。&lt;br&gt;&lt;br&gt;●	游戏还采用了全新的物理系统，例如动态水体，使每个生物在液体中移动时都会产生波浪、涟漪、飞溅和气泡，同时还有完全交互式的物理植被，每片草、灌木和树都会对角色、爆炸、抛射物和物理物体做出反应。你甚至可以砍倒一棵树，看着它撞向其他树木，并在砸向下方草地的途中扰乱所有树叶。你甚至可以通过观察草丛的动向来确定偷偷移动的敌人的位置——因为草丛会随着敌人而移动摇摆。当你拆毁一栋建筑时，可以看到碎片更真实地四分五裂，并在落下时与草地和水体发生交互。&lt;br&gt;&lt;br&gt;●	通过《方舟：生存飞升》可以访问所有方舟世界，包括焦土、畸变、灭绝、创世纪1、ARK 创世纪第二部分等等。孤岛地图现已发布，后续扩展地图将定期免费添加。&lt;br&gt;&lt;br&gt;●	这次的终极生存体验将开启更加精彩的新篇章：自定义你的幸存者，组建一个部落，在一个真实的生态系统中驯化、训练、繁衍和驾驭各种恐龙。你需要时刻关注食物、水源、温度和天气变化。在采集、建造建筑、种植农作物、自定义游戏世界的过程中，慢慢扩张领土，探索并揭开孤岛及其他世界的真面目。&lt;br&gt;&lt;br&gt;●	在游戏体验的各个方面都进行了更彻底的改进：重新设计的用户界面，智能生物寻路的动态导航，野生恐龙宝宝，照片模式，新的相机系统，新的地图系统，追踪系统，全新的建筑、物品和生物等等。&lt;br&gt;&lt;br&gt;●	跨平台模组：您可以直接在游戏中通过专门的模组浏览器 下载并畅玩由其他玩家创造的新内容，包括新地图、生物、物品以及游戏模式！随着社群的创造力和才能首次在各个平台上得到充分释放，您将源源不断地享受到有关方舟新玩法！&lt;br&gt;&lt;br&gt;●	跨平台多人游戏：与不同游戏平台上的其他玩家一起组建在线部落，共同在方舟的世界中生存和发展！&lt;br&gt;&lt;br&gt;●	游戏支持多达70名玩家的公共在线多人游戏，最多可容纳8名玩家的私人游戏，以及2至4名玩家的本地分屏模式。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/1_Cutscene.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;由ATLUS倾情奉上，青春RPG系列游戏最新作《P5R》再度登场。主角是因为某些原因转学至“东京”的高中的少年。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/2_Summons.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;白天是普通的高中生。放学后则化身为盗取堕落大人们扭曲欲望的怪盗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/4_Tokyo_Walking.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;个性丰富的同伴们渴望的“改变社会”会迎来怎样的结局…？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/5_Showtime.gif?t=1664278874"&gt;</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2436842</t>
+          <t>1735700</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RoboCop: Rogue City - Digital Artbook</t>
+          <t>Back to the Dawn</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RoboCop: Rogue City - Digital Artbook</t>
+          <t>动物迷城</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>动作,冒险</t>
+          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1792,42 +1807,330 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>使用数字版原画集应用，深入《RoboCop: Rogue City》诞生幕后的故事。原画集中包含超过 100 页配有游戏开发者解说的美术插图、概念美术及草稿。为所有半人半机械的英雄警察的粉丝们竭诚奉上。</t>
+          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>1751350</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Don't Die In The West</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>牛仔不能死</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>制作,生活模拟,西部,探索,沙盒</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023年11月09日</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1699540419" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1868140</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DAVE THE DIVER</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>潜水员戴夫</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>像素图形,休闲,冒险,管理,角色扮演</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023年06月28日</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1692149536" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1692149536" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1692149536" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1888160</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>装甲核心6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>机甲,角色自定义,动作,第三人称,机器人</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023年08月25日</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>数字豪华版将收录以下内容；&lt;br /&gt;
+·游戏本体&lt;br /&gt;
+·限定数字美术书&amp;amp;原声带&lt;br /&gt;
+可阅览概念艺术以及收听游戏本篇中收录的音乐。&lt;br /&gt;
+&lt;br /&gt;
+《机战佣兵VI 境界天火》将以FromSoftware多年的机甲游戏技术为基础，结合坚实的游戏性提供给玩家FromSoftware近年动作游戏般的突破性游戏体验。&lt;br /&gt;
+&lt;br /&gt;
+动态的全方位战斗&lt;br /&gt;
+玩家将操作机体，在广大的场地进行全方位展开充满速度感的战斗，并运用机体在路上与空中的机动力，迈向胜利。&lt;br /&gt;
+&lt;br /&gt;
+可因应个别战斗型态的组装模式&lt;br /&gt;
+玩家可藉由组装AC进行各式各样的游玩方式。根据零件选择，除了攻击方式外，动作以及战斗方式也将会带来变化。玩家可规划不同的独特机体战略来挑战不同任务。&lt;br /&gt;
+&lt;br /&gt;
+与强敌来场紧张刺激的战斗&lt;br /&gt;
+展开近距离到远距离，多采多姿的攻防战。打倒强大的敌方头目吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2125090</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tintin Reporter - Cigars of the Pharaoh</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>丁丁历险记：法老的雪茄</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>动作,冒险,自选历险体验,动作冒险,3D</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023年11月08日</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>丁丁和他忠实的伙伴雪莉即将开始一段段非凡冒险……在地中海巡航时遇见萨科法格斯教授后，这位久负盛名的记者开始寻找法老基奥斯克的墓穴。&lt;br&gt;&lt;br&gt;法老的坟墓里究竟暗藏何种邪恶之秘？ &lt;br&gt;&lt;br&gt;始于埃及、迈入印度、穿越阿拉伯，丁丁和雪莉终将查清遍及整个东方的庞大毒品贩运网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;忠实于原著的多彩冒险之旅&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这款游戏涵盖丁丁宇宙的方方面面，故事叙说迂回曲折、精彩纷呈，是埃尔热伟大创意遗产的一部分，带您领略神秘埃及和其他极尽绚丽之地的魅力。《法老的雪茄》是该系列的第4段冒险。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;一款充满冒险生活风情的电子游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;和丁丁一道，开始一段振奋人心、发人深省的冒险，谨慎探索东方、墓穴、沙漠、茂密丛林的深处或其他危机四伏之地，尝试解决一起国际毒品走私案件。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;众多精彩游戏玩法尚待掌握&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏玩法别出新意，集冒险游戏和调查游戏所有精彩元素为一体。本游戏诚邀您扮演一名侦探或记者：通过搜索和潜入，找寻案件线索，继而藉由扣人心弦的视频场景和丰富的调查对话解决难题。&lt;br&gt;&lt;/li&gt;&lt;li&gt;解谜、搜索及潜入场景，飞机与汽车追逐，调查对话……别具一格的玩法体验，让每个玩家都能化身真正的记者开始奇妙冒险之旅！&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2136740</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>七度荒域</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>七度荒域：双生树</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>角色扮演,动作,动作冒险,动作类 Rogue,像素图形</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023年11月16日</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;ACT之名打造极致2D像素类战斗体验!&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;这世界提供多样化武器与技能的搭配，每种搭配都可以带来不同的策略和战斗体验。&lt;br&gt;同时也结合了横版动作游戏的特性，来为这世界创造秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;Rogue类刷宝收集是猎人的最爱&lt;br&gt;这世界提供繁多的装备词缀，可以组装成各种不同的属性战术方式。&lt;br&gt;用这样的机制取代来致敬剑与魔法时代的追求。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;这个世界拥有等级，也拥有重复死亡，这样的前进方式，需要你我的追寻。&lt;br&gt;在致敬也是在前进。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;在这个世界探索与挑战，塔罗牌式收集填满你的战利品&lt;/strong&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2399830</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ARK: Survival Ascended</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方舟：生存飞升</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>抢先体验,生存,开放世界,恐龙,冒险</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023年10月26日</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>进入一场全新的恐龙生存体验，这一切将超越您最狂野的幻想……《方舟》采用虚幻引擎 5 重新设计，并融入了下一代电子游戏技术！您会在一个神秘的小岛上醒来，刺眼的阳光和绚丽的色彩将使你目不暇接. 蔚蓝的海水拍打着您赤裸的双脚。迷雾丛林中回荡的低沉吼叫让你猛然惊醒，你站了起来--却不是因为害怕，而是因为好奇。你准备好组建一个部落，驯养和繁殖数百种恐龙和其他原始生物，探索、制作、建造，并一路进发至食物链的顶端了吗？一场新的冒险在等待着你......不要再犹豫了,快来加入这个世界吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;●	《方舟：生存飞升》重新构思了ARK的艺术设计和游戏世界，采用了最新的虚幻引擎5游戏技术，包括高端图形功能技术，例如全局动态照明（Lumen），使光线在物体表面形成逼真的反射效果，以及由数亿个三角形组成的高级网格流技术（Nanite），以呈现出极致的细节。&lt;br&gt;&lt;br&gt;●	游戏还采用了全新的物理系统，例如动态水体，使每个生物在液体中移动时都会产生波浪、涟漪、飞溅和气泡，同时还有完全交互式的物理植被，每片草、灌木和树都会对角色、爆炸、抛射物和物理物体做出反应。你甚至可以砍倒一棵树，看着它撞向其他树木，并在砸向下方草地的途中扰乱所有树叶。你甚至可以通过观察草丛的动向来确定偷偷移动的敌人的位置——因为草丛会随着敌人而移动摇摆。当你拆毁一栋建筑时，可以看到碎片更真实地四分五裂，并在落下时与草地和水体发生交互。&lt;br&gt;&lt;br&gt;●	通过《方舟：生存飞升》可以访问所有方舟世界，包括焦土、畸变、灭绝、创世纪1、ARK 创世纪第二部分等等。孤岛地图现已发布，后续扩展地图将定期免费添加。&lt;br&gt;&lt;br&gt;●	这次的终极生存体验将开启更加精彩的新篇章：自定义你的幸存者，组建一个部落，在一个真实的生态系统中驯化、训练、繁衍和驾驭各种恐龙。你需要时刻关注食物、水源、温度和天气变化。在采集、建造建筑、种植农作物、自定义游戏世界的过程中，慢慢扩张领土，探索并揭开孤岛及其他世界的真面目。&lt;br&gt;&lt;br&gt;●	在游戏体验的各个方面都进行了更彻底的改进：重新设计的用户界面，智能生物寻路的动态导航，野生恐龙宝宝，照片模式，新的相机系统，新的地图系统，追踪系统，全新的建筑、物品和生物等等。&lt;br&gt;&lt;br&gt;●	跨平台模组：您可以直接在游戏中通过专门的模组浏览器 下载并畅玩由其他玩家创造的新内容，包括新地图、生物、物品以及游戏模式！随着社群的创造力和才能首次在各个平台上得到充分释放，您将源源不断地享受到有关方舟新玩法！&lt;br&gt;&lt;br&gt;●	跨平台多人游戏：与不同游戏平台上的其他玩家一起组建在线部落，共同在方舟的世界中生存和发展！&lt;br&gt;&lt;br&gt;●	游戏支持多达70名玩家的公共在线多人游戏，最多可容纳8名玩家的私人游戏，以及2至4名玩家的本地分屏模式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2436842</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City - Digital Artbook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City - Digital Artbook</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>动作,冒险</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>使用数字版原画集应用，深入《RoboCop: Rogue City》诞生幕后的故事。原画集中包含超过 100 页配有游戏开发者解说的美术插图、概念美术及草稿。为所有半人半机械的英雄警察的粉丝们竭诚奉上。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>2593900</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>[Chilla's Art] The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>惊悚,心理恐怖,选择取向,生存恐怖,沉浸式模拟</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2023年11月01日</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>&lt;strong&gt;The Kidnap | 誘拐事件&lt;/strong&gt; is a Japanese horror game about a kidnapping incident.&lt;br&gt;&lt;br&gt;Key Features:&lt;br&gt;&lt;br&gt;Immersive experience: An atmospheric, believable environment intensifies the horror experience.&lt;br&gt;&lt;br&gt;VHS film aesthetic: VHS aesthetic emulates the look and feel of CRT screens, including phosphor screen trail and bleeding, VHS tape noise, interlacing, and jitter in the analog video signal, adding extra immersion to the horror experience.&lt;br&gt;&lt;br&gt;Psychological horror: The game will drive you insane.&lt;br&gt;&lt;br&gt;Japanese Theme: Environment art inspired by Japanese horror films.&lt;br&gt;&lt;br&gt;AutoSave: Autosaves every chapter.</t>
         </is>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_02.gif?t=1646956219" /&gt;&lt;br&gt;&lt;br&gt;“由最强剑豪奏曲，光与暗的起点”&lt;br&gt;SOULCALIBUR20周年的最新作品隆重登场！&lt;br&gt;亲自体会武器格斗动作游戏巅峰的绚丽画质呈现的全新刀剑交锋故事！&lt;br&gt;&lt;br&gt;■全新刀剑交锋对战！&lt;br&gt;看穿对手的攻击并展开反击！操作攻守一体的动作「反攻刃击」、&lt;br&gt;有可能在一定时间内，提升威力一举逆转战局的「集魂」、&lt;br&gt;以及可预期连段造成巨大伤害的「致命一击」等等招式，击败强敌！&lt;br&gt;&lt;br&gt;■满载丰富要素的单人模式！&lt;br&gt;搭载从初代「SOULCALIBUR」的故事、交织新角色＆全新解读的「STORY: Soul Chronicle」模式、&lt;br&gt;以及自己化身为主角畅享对战和收集要素的「MISSION: Libra of Soul」模式！&lt;br&gt;&lt;br&gt;■亦搭载其他多样化的模式！&lt;br&gt;能够和世界玩家一较高下的「在线」模式！&lt;br&gt;亦搭载能够量身打造自己中意角色的「创造模式」！&lt;br&gt;&lt;br&gt;■全新客串角色&lt;br&gt;CD PROJEKT RED旗下「巫师」系列作品的主角「杰洛特」参战！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_01.gif?t=1646956219" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_02.gif?t=1701327288" /&gt;&lt;br&gt;&lt;br&gt;“由最强剑豪奏曲，光与暗的起点”&lt;br&gt;SOULCALIBUR20周年的最新作品隆重登场！&lt;br&gt;亲自体会武器格斗动作游戏巅峰的绚丽画质呈现的全新刀剑交锋故事！&lt;br&gt;&lt;br&gt;■全新刀剑交锋对战！&lt;br&gt;看穿对手的攻击并展开反击！操作攻守一体的动作「反攻刃击」、&lt;br&gt;有可能在一定时间内，提升威力一举逆转战局的「集魂」、&lt;br&gt;以及可预期连段造成巨大伤害的「致命一击」等等招式，击败强敌！&lt;br&gt;&lt;br&gt;■满载丰富要素的单人模式！&lt;br&gt;搭载从初代「SOULCALIBUR」的故事、交织新角色＆全新解读的「STORY: Soul Chronicle」模式、&lt;br&gt;以及自己化身为主角畅享对战和收集要素的「MISSION: Libra of Soul」模式！&lt;br&gt;&lt;br&gt;■亦搭载其他多样化的模式！&lt;br&gt;能够和世界玩家一较高下的「在线」模式！&lt;br&gt;亦搭载能够量身打造自己中意角色的「创造模式」！&lt;br&gt;&lt;br&gt;■全新客串角色&lt;br&gt;CD PROJEKT RED旗下「巫师」系列作品的主角「杰洛特」参战！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_01.gif?t=1701327288" /&gt;</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1700511912" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1700511912" /&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1701261553" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1012,7 +1012,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>抢先体验,可爱,彩色,开放世界,放松</t>
+          <t>抢先体验,可爱,彩色,放松,开放世界</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>冒险,心理恐怖,恋爱模拟,惊悚,多人</t>
+          <t>冒险,恋爱模拟,心理恐怖,惊悚,多人</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
+          <t>日系角色扮演,剧情丰富,回合制战斗,动漫,好评原声音轨</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2048,7 +2048,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1886,7 +1886,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1692149536" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1692149536" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1692149536" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1701939742" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1701939742" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1701939742" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1508,7 +1508,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>冒险,恋爱模拟,心理恐怖,惊悚,多人</t>
+          <t>冒险,恋爱模拟,心理恐怖,多人,惊悚</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>在线合作,多人,动作类 Rogue,玩家对战环境,2D</t>
+          <t>在线合作,动作类 Rogue,多人,玩家对战环境,2D</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>日系角色扮演,剧情丰富,回合制战斗,动漫,好评原声音轨</t>
+          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1634,7 +1634,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2048,7 +2048,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>app id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>游戏名</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>中文名</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>标签</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>类型</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>评分</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>发行日期</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>简介</t>
         </is>
@@ -466,250 +471,675 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>218620</t>
+          <t>maaartiinn1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PAYDAY 2</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>收获日2</t>
+          <t>Plants vs. Zombies: Game of the Year</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>合作,动作,第一人称射击,劫掠,多人</t>
+          <t>植物大战僵尸</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>塔防,僵尸,策略,单人,休闲</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2013年8月13日</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PAYDAY 2进制是一款动作类四人合作射击游戏，各位玩家将再次扮演初代PAYDAY帮成员——达拉斯、霍斯顿、沃尔夫以及钱恩斯——并前往华盛顿特区展开一系列惊险刺激的劫案。&lt;br&gt;&lt;br&gt;CRIMENET网络提供了大量动态合约，玩家们可以自由选择打劫小型便利店或绑架人质，又或是执行大规模的网络犯罪或洗劫大型银行金库，掠取巨额收益。另外既然身处首都，何不在当地打好关系，顺便参与一些政治事务呢？&lt;br&gt;&lt;br&gt;每场劫案共有四名玩家可同时进行，并且随着玩家自身的不断成长，劫案难度与奖励也会不断提升。除了赚取一笔大钱成为传奇罪犯之外，还有目不暇接的角色自定义与制作系统，包括各项人物成长以及枪械和装备改造等着你来探索。&lt;h2 class="bb_tag"&gt;游戏亮点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;抢银行，赚大钱 - 玩家需要仔细选择全队搭配，一旦劫案中情况有变，便需要各自本事与良好协作来迎接挑战。&lt;br&gt;&lt;/li&gt;&lt;li&gt;CRIMENET - 动态合约库使各位玩家可以联系各位合约人挑选心仪的劫案，这几位合约人包括乌克兰人弗拉德、油滑的政客“大象”、南美毒贩赫克特等等，他们各有自己的组织，并且经手的生意范畴也有所区别。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新升级的PAYDAY枪战机制 - 武器开火与捆绑人质的体验是你从未有过的全新感受。&lt;br&gt;&lt;/li&gt;&lt;li&gt;动态场景变化 - 一千位玩家能玩出一千种不同的劫案。每次场景中都有着些许变化或是稀有事件出现。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择你的技能 - 玩家在游戏过程中可以从以下五条技能树中累积能力：黑手、暴徒、技师、幽灵与逃犯。每条技能树均有着独特的定制化技能与装备获取，通过有效搭配便能使玩家成长为终极劫匪。&lt;br&gt;&lt;/li&gt;&lt;li&gt;面具数量再创新高 - PAYDAY 2加入了全新的面具系统，玩家现在可以选用自己喜爱的花纹与配色制作专属于自己的独特面具，从而创造出千变万化的不同组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;武器与改装 - 劫匪们将拥有自己的庞大军火库，从着重于远距离的狙击步枪与突击步枪到强调近身作战的手枪与冲锋枪等等。在你选定自己心仪的武器后，你还可以为其添加一系列包括瞄镜、消音器、前握把、准星、枪管、枪身以及枪托在内等方面俱到的模组改装，使你的武器达到最佳性能。此外还有完全基于审美意义上的改进内容——给你的爱枪换上胡桃木握把，让自己变成刀尖舔血的大毒枭范儿吧！&lt;br&gt;&lt;/li&gt;&lt;li&gt;游戏方式由你选择 - 每场劫案都有多种方式完成。你可以选择神不知鬼不觉地潜入目标地点完成任务，或是抄起家伙正面发动攻势。每种选择都会给你带来截然不同的体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;海量额外内容 - 自从游戏发布后已有70余项更新，其中包括新劫案、角色、武器以及其他游戏特性例如驾驶汽车和叉车等等。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>2009年05月05日</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>来自曾开发过宝石迷阵和幻幻球的宝开公司的全新动作策略游戏！&lt;br&gt;     可怕的僵尸即将入侵你的家，唯一的防御方式就是你栽种的植物！武装你的植物，切换他们不同的功能，诸如强悍的豌豆射手或樱桃炸弹，更加快速有效的将僵尸阻挡在入侵的道路上。不同的敌人，不同的玩法构成五种不同的游戏模式，加之夕阳、浓雾以及泳池之类的障碍增加了其挑战性，奇特的游戏乐趣永无止境！&lt;br&gt;     &lt;ul class="bb_ul"&gt;&lt;li&gt;独特的五种游戏模式：冒险，迷你，益智，生存，再加上毫无压力的禅境花园&lt;br&gt;     &lt;/li&gt;&lt;li&gt;多达 50 个的冒险模式关卡设定，从白天到夜晚再到浓雾，从房顶到游泳池，场景变化多样&lt;br&gt;     &lt;/li&gt;&lt;li&gt;游戏共有 26 种不同的僵尸敌人，包括撑杆僵尸，潜水僵尸和开着车子的雪橇车僵尸等，使游戏更具挑战性&lt;br&gt;     &lt;/li&gt;&lt;li&gt;49 种功能强大，互不相同的植物，并可收集硬币购买宠物蜗牛，升级道具等多种道具！&lt;br&gt;     &lt;/li&gt;&lt;li&gt;打开图鉴，可以看到植物与僵尸的详细介绍，再加上有趣的“事实”和引用&lt;br&gt;     &lt;/li&gt;&lt;li&gt;通过“疯狂戴夫店”购买特殊植物和工具，以你能想象得到的方式干掉僵尸&lt;br&gt;     &lt;/li&gt;&lt;li&gt;精致的游戏画面与声音，同时还更新有奖励型的音乐与视频&lt;br&gt;     &lt;/li&gt;&lt;li&gt;无限次重玩：不会经历两次同样的事件！&lt;br&gt;     &lt;/li&gt;&lt;li&gt;解锁全部的 Steam 成就&lt;br&gt;     &lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>238320</t>
+          <t>vAbuDy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Outlast</t>
+          <t>10180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>逃生</t>
+          <t>Call of Duty: Modern Warfare 2 (2009)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>第一人称,生存恐怖,氛围,心理恐怖,生存</t>
+          <t>使命召唤6：现代战争2(2009)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>动作,第一人称射击,多人,射击,第一人称</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2013年9月5日</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hell is an experiment you can't survive in Outlast, a first-person survival horror game developed by veterans of some of the biggest game franchises in history. As investigative journalist Miles Upshur, explore Mount Massive Asylum and try to survive long enough to discover its terrible secret... if you dare.&amp;nbsp;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;Synopsis:&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;In the remote mountains of Colorado, horrors wait inside Mount Massive Asylum. A long-abandoned home for the mentally ill, recently re-opened by the “research and charity” branch of the transnational Murkoff Corporation, the asylum has been operating in strict secrecy… until now.&lt;br&gt;&lt;br&gt;Acting on a tip from an anonymous source, independent journalist Miles Upshur breaks into the facility, and what he discovers walks a terrifying line between science and religion, nature and something else entirely. Once inside, his only hope of escape lies with the terrible truth at the heart of Mount Massive.&lt;br&gt;&lt;br&gt;Outlast is a true survival horror experience which aims to show that the most terrifying monsters of all come from the human mind. &lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;Features:&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;True Survival Horror Experience: You are no fighter - if you want to survive the horrors of the asylum, your only chance is to run... or hide&lt;br&gt;&lt;/li&gt;&lt;li&gt;Immersive Graphics: AAA-quality graphics give players a detailed, terrifying world to explore&lt;br&gt;&lt;/li&gt;&lt;li&gt;Hide and Sneak: Stealth-based gameplay, with parkour-inspired platforming elements&lt;br&gt;&lt;/li&gt;&lt;li&gt;Unpredictable Enemies: Players cannot know when - and from where - one of the asylum’s terrifying inhabitants will finally catch up to them&lt;br&gt;&lt;/li&gt;&lt;li&gt;Real Horror: Outlast’s setting and characters are inspired by real asylums and cases of criminal insanity&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;Warning:&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;Outlast contains intense violence, gore, graphic sexual content, and strong language. Please enjoy.&lt;br&gt;&lt;br&gt;</t>
+          <t>2009年11月12日</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>The most-anticipated game of the year and the sequel to the best-selling first-person action game of all time, Modern Warfare 2 continues the gripping and heart-racing action as players face off against a new threat dedicated to bringing the world to the brink of collapse. &lt;br&gt;					Call of Duty®: Modern Warfare 2 features for the first time in video games, the musical soundtrack of legendary Academy Award®, Golden Globe® Award, Grammy® Award and Tony winning composer Hans Zimmer.  The title picks up immediately following the historic events of Call of Duty® 4: Modern Warfare®, the blockbuster title that earned worldwide critical acclaim, including:&lt;br&gt;					&lt;ul class="bb_ul"&gt;&lt;li&gt;&amp;quot;Most Played Online Video Game&amp;quot; in history, 2009 Guinness World Records&lt;br&gt;					&lt;/li&gt;&lt;li&gt;More than 50 Game of the Year awards, including the Console Game of the Year and Overall Game of the Year, 2007, from the Academy of Interactive Arts &amp;amp; Sciences®&lt;br&gt;					&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;SPECIAL OPS CO-OPERATIVE&lt;/h2&gt;					An entirely new gameplay mode which supports 2-player co-operative play online that is unique from the single player story campaign.  &lt;br&gt;					&lt;ul class="bb_ul"&gt;&lt;li&gt;Special Ops pits players into a gauntlet of time-trial and objective-based missions.&lt;br&gt;					&lt;/li&gt;&lt;li&gt;Rank-up as players unlock new Special Ops missions, each more difficult.&lt;br&gt;					&lt;/li&gt;&lt;li&gt;Missions include highlights from the single player campaign, fan favorites from Call of Duty 4: Modern Warfare and all new, exclusive missions.&lt;br&gt;					&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;MULTIPLAYER REINVENTED&lt;/h2&gt;					Setting a new bar for online multiplayer, Modern Warfare 2 multiplayer delivers new capabilities, customization, gamestates and modes, including:&lt;br&gt;					Create-a-Class Evolved&lt;br&gt;					&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Secondary Weapons&lt;/strong&gt; - Machine Pistols, Shotguns, Handguns, Launchers&lt;br&gt;					&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Riot Shields&lt;/strong&gt;&lt;br&gt;					&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Equipment&lt;/strong&gt; - Throwing Knives, Blast Shield, Tactical Insertion&lt;br&gt;					&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Perk Upgrades&lt;/strong&gt;&lt;br&gt;					&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Bling (Dual Attachments)&lt;/strong&gt;&lt;br&gt;					&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Customizable Killstreaks&lt;/strong&gt; - AC130, Sentry Gun, Predator Missile, Counter-UAV, Care Package&lt;br&gt;					&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Accolades (Post match reports)&lt;/strong&gt;&lt;br&gt;					&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>250900</t>
+          <t>vAbuDy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Binding of Isaac: Rebirth</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>以撒的结合：重生</t>
+          <t>Call of Duty: Modern Warfare 2 (2009) - Multiplayer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>动作类 Rogue,类 Rogue,独立,重玩价值,困难</t>
+          <t>使命召唤6：现代战争2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>动作</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2014年11月05日</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>When Isaac’s mother starts hearing the voice of God demanding a sacrifice be made to prove her faith, Isaac escapes into the basement facing droves of deranged enemies, lost brothers and sisters, his fears, and eventually his mother. &lt;br&gt;&lt;br&gt;&lt;strong&gt;Gameplay&lt;/strong&gt;&lt;br&gt;The Binding of Isaac is a randomly generated action RPG shooter with heavy Rogue-like elements. Following Isaac on his journey players will find bizarre treasures that change Isaac’s form giving him super human abilities and enabling him to fight off droves of mysterious creatures, discover secrets and fight his way to safety.&lt;br&gt;&lt;br&gt;&lt;strong&gt;About the Binding Of Isaac: Rebirth&lt;/strong&gt;&lt;br&gt;The Binding of Isaac: Rebirth is the ultimate of remakes with an all-new highly efficient game engine (expect 60fps on most PCs), all-new hand-drawn pixel style artwork, highly polished visual effects, all-new soundtrack and audio by the the sexy Ridiculon duo Matthias Bossi + Jon Evans. Oh yeah, and hundreds upon hundreds of designs, redesigns and re-tuned enhancements by series creator, Edmund McMillen. Did we mention the poop?&lt;h2 class="bb_tag"&gt;Key Features:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Over 500 hours of gameplay&lt;br&gt;&lt;/li&gt;&lt;li&gt;4 BILLION Seeded runs!&lt;br&gt;&lt;/li&gt;&lt;li&gt;20 Challenge runs&lt;br&gt;&lt;/li&gt;&lt;li&gt;450+ items, including 160 new unlockables&lt;br&gt;&lt;/li&gt;&lt;li&gt;Integrated controller support for popular control pads!&lt;br&gt;&lt;/li&gt;&lt;li&gt;Analog directional movement and speed&lt;br&gt;&lt;/li&gt;&lt;li&gt;Tons of feature film quality animated endings&lt;br&gt;&lt;/li&gt;&lt;li&gt;Over 100 specialized seeds&lt;br&gt;&lt;/li&gt;&lt;li&gt;2-Player local co-op&lt;br&gt;&lt;/li&gt;&lt;li&gt;Over 100 co-op characters&lt;br&gt;&lt;/li&gt;&lt;li&gt;Dynamic lighting, visual effects and art direction&lt;br&gt;&lt;/li&gt;&lt;li&gt;All-new game engine @60FPS 24/7&lt;br&gt;&lt;/li&gt;&lt;li&gt;All-new soundtrack and sound design&lt;br&gt;&lt;/li&gt;&lt;li&gt;Multiple Save slots&lt;br&gt;&lt;/li&gt;&lt;li&gt;Poop physics!&lt;br&gt;&lt;/li&gt;&lt;li&gt;The ultimate roguelike&lt;br&gt;&lt;/li&gt;&lt;li&gt;A bunch of achievements&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;Uber secrets including: &lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;10 Playable Characters&lt;br&gt;&lt;/li&gt;&lt;li&gt;100+ enemies, with new designs&lt;br&gt;&lt;/li&gt;&lt;li&gt;Over 50 bosses, including tons of new and rare bosses&lt;br&gt;&lt;/li&gt;&lt;li&gt;Rooms FULL OF POOP!&lt;br&gt;&lt;/li&gt;&lt;li&gt;Mystic Runes&lt;br&gt;&lt;/li&gt;&lt;li&gt;Upgradeable shops&lt;/li&gt;&lt;/ul&gt;</t>
-        </is>
-      </c>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>261570</t>
+          <t>maaartiinn1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ori and the Blind Forest</t>
+          <t>12200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>精灵与黑暗森林</t>
+          <t>Bully: Scholarship Edition</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>好评原声音轨,氛围,平台游戏,冒险,类银河战士恶魔城</t>
+          <t>恶霸鲁尼：奖学金版</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>开放世界,动作,冒险,第三人称,喜剧</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2015年03月11日</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>尼布爾山的森林正凋零著。一場龐大暴風雨所促成的連鎖事件，迫使一位不尋常的英雄踏上尋求內心勇氣並面對黑暗宿敵的旅程，以試圖拯救自己的家園。「Ori and the Blind Forest」是 Moon Studios 為個人電腦量身訂做的動作平台遊戲。在這個充滿美麗視覺效果的遊戲中，訴說著一位勇敢小孤兒的冒險故事。遊戲充滿手繪的美術畫作、細緻生動的角色動畫表現，以及由交響樂團實際演奏的背景配樂。在「Ori and the Blind Forest」感情洋溢的故事內容中，將會探索愛與犧牲，以及人們內心那股永不消逝的希望。</t>
+          <t>2008年10月22日</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Bully: Scholarship Edition 发生在虚构的新英格兰寄宿学校布尔沃斯学园，讲述调皮的 15 岁少年吉米·霍普金斯（Jimmy Hopkins）经历青春期的欢笑与尴尬的故事。在躲避球中击败运动员、对预科生恶作剧、拯救书呆子、亲吻女生，并在最糟糕的学校中跨越社会等级制度。 &lt;br&gt;&lt;br&gt;&amp;quot;包括完整原声音轨，包含 26 首原创曲目。&lt;br&gt;购买并下载后，您可以在此处的 Steam 文件夹中找到原声音轨：&lt;br&gt;[Steam\steamapps\common\bully scholarship edition\Bully Original Soundtrack]。&lt;br&gt;Steam 文件夹通常位于 C:\Program Files\Steam 下&amp;quot;</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>324800</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shadow Warrior 2</t>
+          <t>218620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>影子武士2</t>
+          <t>PAYDAY 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>动作,刷宝射击游戏,第一人称射击,合作,多人</t>
+          <t>收获日2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>合作,动作,第一人称射击,劫掠,多人</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2016年10月13日</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>影子武士2是Flying wild Hog不落俗套的第一人称射击游戏的惊人进化，故事承接前将军Lo Wang的不幸遭遇。现在，作为苟活在堕落世界边缘的隐居雇佣兵，这位令人敬畏的战士必须再一次动用枪支、剑戟、魔法和智慧，去推翻横行世界、势不可挡的恶魔军团。与四名玩家一起组成联盟共同作战，或是独自一人在程序生成的壮丽风景中完成大胆的任务，收集强大的新武器，盔甲，和神秘的传奇遗物。&lt;h2 class="bb_tag"&gt;故事&lt;/h2&gt;距离Lo Wang撕毁他谎话连篇的前老板和影子联盟古神间的盟约已经过去五年了。尽管有着崇高的意图，Lo Wang消灭黑暗腐化世界的努力却促成了一种人类与恶魔并存，奇怪而野蛮的新秩序。这位曾让人惧怕的战士现在生活在远离敌人和奇拉控制下的霓虹闪烁大都市的荒野地带，仅仅是当地Yakuza氏族一个不起眼的雇佣兵。在一项简单的任务出错时，Lo Wang被卷入了天才青年科学家、他的宿敌Orochi Zilla和已经在世间极不稳定的恶魔力量之间的剧烈冲突中。毒舌的英雄必须重拾致命的刀剑、惊人的火力和古老的魔法来净化世间的邪恶。&lt;h2 class="bb_tag"&gt;特点&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;刀剑和子弹：&lt;/strong&gt;Lo Wang使用超过70种致命刀剑和爆炸火器，以及他残忍窒息的风格来对抗恶魔一方。化身钢与血的旋风，用剃刀般锋利的武士刀、短剑、新月弯刀、以及手爪，或者释放一场地狱般华丽的火器交响乐来摧毁你的敌人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;四人合作模式：&lt;/strong&gt; 独自拼下众多战役，或是在在线战役模式中组成台风般毁天灭地的四人小队。解决挑战性的主线任务或惊悚的支线任务，同时使用定制盔甲，物品，以及获胜后贵重的战利品来保持你自己的忍者风格。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自动生成的环境：&lt;/strong&gt; 人类与恶魔领域的冲突创生了多维次元联结，使得影子武士2的世界不断变化。自动生成的风景和路径会给曾经熟悉的地形和日常任务赋予新颖的变化。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;残酷伤害系统：&lt;/strong&gt; 根据眼前情况选择手边的武器，使用更先进的血液系统摧毁一切挡路者。用精准的刀法切下头和四肢，或者切换到重型法术在巨兽身上挖开大洞。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义升级系统：&lt;/strong&gt; 升级你军火库中的武器，一次最多可以使用三块石头来提升性能或是赋予它们毁灭性的元素效应。收集业力，护身符和盔甲来增强Lo Wang的力量，将他的处死艺术转变为虐杀。&lt;h2 class="bb_tag"&gt;影子武士系列&lt;/h2&gt;&lt;br&gt;影子武士系列上个世纪90年代就已经出现，影子武士经典版重制后在Steam平台上由Devolver Digital和3D Realms发行为影子武士经典重制版。到了2013年，Flying wild Hog和Devolver Digital发行了Lo Wang现代经典影子武士传奇的大胆重现。&lt;br&gt;&lt;br&gt;&lt;a href="http://store.steampowered.com/app/233130/" target="_blank" rel=""  id="dynamiclink_3" &gt;http://store.steampowered.com/app/233130/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://store.steampowered.com/app/225160/" target="_blank" rel=""  id="dynamiclink_4" &gt;http://store.steampowered.com/app/225160/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://store.steampowered.com/app/238070/" target="_blank" rel=""  id="dynamiclink_5" &gt;http://store.steampowered.com/app/238070/&lt;/a&gt;</t>
+          <t>2013年8月13日</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PAYDAY 2进制是一款动作类四人合作射击游戏，各位玩家将再次扮演初代PAYDAY帮成员——达拉斯、霍斯顿、沃尔夫以及钱恩斯——并前往华盛顿特区展开一系列惊险刺激的劫案。&lt;br&gt;&lt;br&gt;CRIMENET网络提供了大量动态合约，玩家们可以自由选择打劫小型便利店或绑架人质，又或是执行大规模的网络犯罪或洗劫大型银行金库，掠取巨额收益。另外既然身处首都，何不在当地打好关系，顺便参与一些政治事务呢？&lt;br&gt;&lt;br&gt;每场劫案共有四名玩家可同时进行，并且随着玩家自身的不断成长，劫案难度与奖励也会不断提升。除了赚取一笔大钱成为传奇罪犯之外，还有目不暇接的角色自定义与制作系统，包括各项人物成长以及枪械和装备改造等着你来探索。&lt;h2 class="bb_tag"&gt;游戏亮点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;抢银行，赚大钱 - 玩家需要仔细选择全队搭配，一旦劫案中情况有变，便需要各自本事与良好协作来迎接挑战。&lt;br&gt;&lt;/li&gt;&lt;li&gt;CRIMENET - 动态合约库使各位玩家可以联系各位合约人挑选心仪的劫案，这几位合约人包括乌克兰人弗拉德、油滑的政客“大象”、南美毒贩赫克特等等，他们各有自己的组织，并且经手的生意范畴也有所区别。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新升级的PAYDAY枪战机制 - 武器开火与捆绑人质的体验是你从未有过的全新感受。&lt;br&gt;&lt;/li&gt;&lt;li&gt;动态场景变化 - 一千位玩家能玩出一千种不同的劫案。每次场景中都有着些许变化或是稀有事件出现。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择你的技能 - 玩家在游戏过程中可以从以下五条技能树中累积能力：黑手、暴徒、技师、幽灵与逃犯。每条技能树均有着独特的定制化技能与装备获取，通过有效搭配便能使玩家成长为终极劫匪。&lt;br&gt;&lt;/li&gt;&lt;li&gt;面具数量再创新高 - PAYDAY 2加入了全新的面具系统，玩家现在可以选用自己喜爱的花纹与配色制作专属于自己的独特面具，从而创造出千变万化的不同组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;武器与改装 - 劫匪们将拥有自己的庞大军火库，从着重于远距离的狙击步枪与突击步枪到强调近身作战的手枪与冲锋枪等等。在你选定自己心仪的武器后，你还可以为其添加一系列包括瞄镜、消音器、前握把、准星、枪管、枪身以及枪托在内等方面俱到的模组改装，使你的武器达到最佳性能。此外还有完全基于审美意义上的改进内容——给你的爱枪换上胡桃木握把，让自己变成刀尖舔血的大毒枭范儿吧！&lt;br&gt;&lt;/li&gt;&lt;li&gt;游戏方式由你选择 - 每场劫案都有多种方式完成。你可以选择神不知鬼不觉地潜入目标地点完成任务，或是抄起家伙正面发动攻势。每种选择都会给你带来截然不同的体验。&lt;br&gt;&lt;/li&gt;&lt;li&gt;海量额外内容 - 自从游戏发布后已有70余项更新，其中包括新劫案、角色、武器以及其他游戏特性例如驾驶汽车和叉车等等。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>bejdw17580</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>220240</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Far Cry® 3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>孤岛惊魂3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>开放世界,第一人称射击,动作,冒险,多人</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2012年11月29日</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>﻿Far Cry 3 是一款拥有开放世界的第一人称射击游戏，设定在一座与众不同的岛屿。一个军阀运输奴隶，用来让外面的人用钱赎回他们，拥有重型武装的地方。你走上了一段艰难的旅程去拯救你的朋友，你会意识到，要逃离这个地狱的唯一办法...就是去拥抱它&lt;h2 class="bb_tag"&gt;主要特点：&lt;/h2&gt;&lt;strong&gt;一个开放世界的第一人称射击游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;创造您自己的FPS冒险。自定义您的武器，技能和方法来完成每一个任务，您可以倾向于激烈的&amp;quot;跑&amp;quot;和&amp;quot;射&amp;quot;动作，或者安静的近距离击杀，还可以进行远距离狙击。&lt;br&gt;&lt;br&gt;&lt;strong&gt;一个可探索的危险岛屿&lt;/strong&gt;&lt;br&gt;&lt;br&gt;探索多样化的岛屿乐园，从山脉到沼泽草地到白色沙滩。发现遗迹，狩猎有异国情调的动物，玩小游戏以及通过海、陆、空来快速旅行。用您的方式通过岛上的城镇、寺庙、内河港口等！&lt;br&gt;&lt;br&gt;&lt;strong&gt;揭露一个令人难忘的故事，一个令人疯狂的角色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;遇见有吸引力和令人不安的角色，从坚韧不拔的旅程到人性的黑暗面，这些都由一个作家协会奖得主所创作&lt;br&gt;&lt;br&gt;&lt;strong&gt;和朋友一起玩完整的合作战役&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在一个4人战役中在线组队，挑战您的极限，共同努力才能取得胜利。通过一个固执的船员的眼睛体验这个岛屿，在生死线上生存。&lt;br&gt;&lt;br&gt;&lt;strong&gt;不同类型的多人游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;创新的多人游戏奖励技能和团队合作。为了升级，玩家必须通过战斗激励、救助队友、呼叫支援武器来互相支持。每场比赛结束后，玩家可以通过有趣和扭曲的方式来惩罚或怜悯他们的敌人，拥有精心设计的可互动的过场动画。&lt;br&gt;&lt;br&gt;&lt;strong&gt;使用地图编辑器来创建和访问新内容&lt;/strong&gt;&lt;br&gt;&lt;br&gt;功能强大并且易于使用的 Far Cry® 地图编辑器带着新功能和改进又回来了。一个地图制作者社区可以确保让整个世界享受源源不断的新内容。使用附带的工具，你也可以做出惊人的地图，高效且容易。&lt;br&gt;&lt;br&gt;&lt;strong&gt;最先进的图形和游戏性&lt;/strong&gt;&lt;br&gt;&lt;br&gt;Far Cry® 3由那些带给你广受好评的游戏如 Assassin’s Creed® 2，Assassin’s Creed® Brotherhood，以及 World in Conflict® 的世界顶级游戏设计师开发。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>banmagame6427</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>238320</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Outlast</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>逃生</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>第一人称,生存恐怖,氛围,心理恐怖,生存</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2013年9月5日</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Hell is an experiment you can't survive in Outlast, a first-person survival horror game developed by veterans of some of the biggest game franchises in history. As investigative journalist Miles Upshur, explore Mount Massive Asylum and try to survive long enough to discover its terrible secret... if you dare.&amp;nbsp;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;Synopsis:&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;In the remote mountains of Colorado, horrors wait inside Mount Massive Asylum. A long-abandoned home for the mentally ill, recently re-opened by the “research and charity” branch of the transnational Murkoff Corporation, the asylum has been operating in strict secrecy… until now.&lt;br&gt;&lt;br&gt;Acting on a tip from an anonymous source, independent journalist Miles Upshur breaks into the facility, and what he discovers walks a terrifying line between science and religion, nature and something else entirely. Once inside, his only hope of escape lies with the terrible truth at the heart of Mount Massive.&lt;br&gt;&lt;br&gt;Outlast is a true survival horror experience which aims to show that the most terrifying monsters of all come from the human mind. &lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;Features:&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;True Survival Horror Experience: You are no fighter - if you want to survive the horrors of the asylum, your only chance is to run... or hide&lt;br&gt;&lt;/li&gt;&lt;li&gt;Immersive Graphics: AAA-quality graphics give players a detailed, terrifying world to explore&lt;br&gt;&lt;/li&gt;&lt;li&gt;Hide and Sneak: Stealth-based gameplay, with parkour-inspired platforming elements&lt;br&gt;&lt;/li&gt;&lt;li&gt;Unpredictable Enemies: Players cannot know when - and from where - one of the asylum’s terrifying inhabitants will finally catch up to them&lt;br&gt;&lt;/li&gt;&lt;li&gt;Real Horror: Outlast’s setting and characters are inspired by real asylums and cases of criminal insanity&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;Warning:&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;Outlast contains intense violence, gore, graphic sexual content, and strong language. Please enjoy.&lt;br&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>244210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Assetto Corsa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>神力科莎</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>竞速,汽车模拟,模拟,驾驶,多人</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2014年12月19日</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>次世代赛车竞速模拟器&lt;br&gt;《神力科莎 Assetto Corsa》 使用先进的 DirectX 11 图形引擎，可重现沉浸式环境、动态光照以及逼真的车辆材质。这种先进的物理引擎旨在提供非常逼真的驾驶体验，包括真实汽车的各方面特性，在任何其他竞速赛车模拟上都还没有实现这样的功能，例如轮胎漏气点、包括纹理和起泡在内的热循环以及非常先进的空气动力学模拟，具有通过遥测输入通道、带有动能回收系统（KERS）和能量回收模拟的混合系统实时控制的主动可移动的空气动力学部件。非常详尽的单人和多人模式选项。由于获得了赛车制造商的官方合作，拥有独家授权的赛车，以高水准的精确细节呈现于游戏中。&lt;br&gt;《神力科莎 ASSETTO CORSA》 是由位于瓦莱伦加赛道国际赛车场内的 KUNOS Simulazioni 研发办公室开发的，游戏开发团队能够与现实世界的赛车手和赛车队合作开发游戏。&lt;br&gt;&lt;br&gt;传奇赛道&lt;br&gt;得益于激光扫描技术，每个官方赛道都被最大限度地精确还原：所有的限制和细节都完美地符合现实中的赛道，尽可能地忠于真实体验。&lt;br&gt;蒙扎、银石、伊莫拉、穆杰洛、斯帕、布兰兹哈奇等众多赛道，包括蒙扎的历史再现，让传奇的 Sopraelevata 弯道重现生机—这条高速椭圆弯道一直延续到 1961 年才停止使用。&lt;br&gt;&lt;br&gt;独家专享赛车&lt;br&gt;《神力科莎 Assetto Corsa》 物理引擎是全新的，运用从与赛车运动精英密切合作中获得的实战知识，旨在设计出尽可能高的物理精度和触感。&lt;br&gt;像这样的物理引擎当然要与官方授权的内容一起使用：阿巴斯、奥迪、宝马、经典莲花车队、法拉利、KTM、兰博基尼、路特斯赛车、迈凯伦、梅赛德斯、Scuderia Glickenhaus、帕加尼、保时捷、Tatuus以及更多名车！&lt;br&gt;&lt;br&gt;硬件兼容性&lt;br&gt;使用任意类型的游戏设备畅玩《神力科莎 Assetto Corsa》：键盘、游戏手柄、摇杆、方向盘，包括任何类型的专业设备和最常见的动作控制系统。&lt;br&gt;《神力科莎 Assetto Corsa》也兼容并已可以使用 Oculus 和 OpenVR/VIVE、三屏视图、Track IR 和 3D VISION。&lt;br&gt;&lt;br&gt;游戏设置与特色&lt;br&gt;《神力科莎 Assetto Corsa》  拥有生涯模式，还有一系列特别活动和独特的挑战，以及可完全自定义的单人和多人模式，包括快速比赛、自定义锦标赛和周末赛，周末赛中包括自由练习赛、排位赛和正式赛。还有飙车赛、漂移挑战等更多精彩内容！有四种驾驶辅助驾驶来辅助游戏玩家、赛车手、专业人士，以及一个可完全自定义的配置文件，让任何类型的玩家都能根据自己的水平享受赛车模拟。&lt;br&gt;用于数据分析的高级设置选项和遥测；取决于赛车圈数的轮胎橡胶沉积在赛道上的动态模拟；可调整的时间模式，具有根据赛道的地理坐标和根据时间和日期的太阳曲线实时光线追踪，以获得与真实赛道相同的光照条件！&lt;br&gt;&lt;br&gt;模组与自定义&lt;br&gt;《神力科莎 Assetto Corsa》 能够允许大量的自定义和修改，以满足专业模拟赛车手和更喜欢渐进式驾驶体验的游戏玩家的期望，以及满足那些喜欢使用由游戏开发者开发和使用的同一编辑工具来重现和分享他们的赛车和赛道的爱好者的期望。&lt;h2 class="bb_tag"&gt;可用内容：&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;赛车&lt;/strong&gt;&lt;br&gt;&lt;br&gt;量产级&lt;br&gt;- 阿巴斯 595 EsseEsse （3种）&lt;br&gt;- 阿巴斯 500 EsseEsse （2种）&lt;br&gt;- 阿尔法·罗密欧 33 Stradale&lt;br&gt;- 阿尔法·罗密欧 Giulia Quadrifoglio&lt;br&gt;- 阿尔法·罗密欧 Giulia QV&lt;br&gt;- 阿尔法·罗密欧 Giulia QV 发布版&lt;br&gt;- 阿尔法·罗密欧 MiTo QV&lt;br&gt;- 奥迪 Sport Quattro （2种）&lt;br&gt;- 奥迪S1&lt;br&gt;- 宝马1M （2种）&lt;br&gt;- 兰博基尼 Miura S.V.&lt;br&gt;- 路特斯 Elise SC （3种）&lt;br&gt;- 玛莎拉蒂 Alfieri&lt;br&gt;- 玛莎拉蒂 Quattroporte GTS&lt;br&gt;- 玛莎拉蒂 Levante S&lt;br&gt;- 马自达 MX-5 NA&lt;br&gt;- 保时捷 Panamera G2&lt;br&gt;- 保时捷 Cayenne Turbo S&lt;br&gt;- 保时捷 Macan Turbo&lt;br&gt;- 谢尔比 Cobra&lt;br&gt;- RUF CTR Yellowbird&lt;br&gt;- 丰田 GT-86&lt;br&gt;- 福特 Mustang 2015&lt;br&gt;- 雪佛兰 Corvette C7 Stingray&lt;br&gt;&lt;br&gt;GT&lt;br&gt;- 宝马 M3 E30 （3种）&lt;br&gt;- 宝马 M3 E30 Group A&lt;br&gt;- 宝马 M3 E30 DTM&lt;br&gt;- 宝马 M3 E92 （3种）&lt;br&gt;- 宝马 Z4 E89 （3种）&lt;br&gt;- 路特斯 Evora GTC&lt;br&gt;- 路特斯 Evora GX&lt;br&gt;&lt;br&gt;GTR&lt;br&gt;- 迈凯伦 MP4-12c GT3&lt;br&gt;- 宝马 Z4 GT3&lt;br&gt;- 宝马 M3 GT2&lt;br&gt;- 法拉利 458 GT2&lt;br&gt;- P4/5 Competizione&lt;br&gt;- 梅赛德斯 SLS GT3&lt;br&gt;&lt;br&gt;经典GP&lt;br&gt;- 经典莲花车队 Type 49&lt;br&gt;- 经典莲花车队 98T&lt;br&gt;- 法拉利 312T&lt;br&gt;&lt;br&gt;拉力&lt;br&gt;- 奥迪 Sport Quattro S1 E2&lt;br&gt;&lt;br&gt;耐力&lt;br&gt;- 马自达 787B&lt;br&gt;&lt;br&gt;超跑&lt;br&gt;- 奥迪 R8 Plus&lt;br&gt;- 法拉利 LaFerrari&lt;br&gt;- 法拉利 458 Italia （2种）&lt;br&gt;- 法拉利 F40 （2种）&lt;br&gt;- 法拉利 599xx&lt;br&gt;- 兰博基尼 Huracán Performante&lt;br&gt;- 兰博基尼 Sesto Elemento&lt;br&gt;- 迈凯伦 Mp4 12c &lt;br&gt;- 梅赛德斯 SLS AMG&lt;br&gt;- 尼桑 GTR NISMO&lt;br&gt;- 帕加尼 Zonda R&lt;br&gt;- 帕加尼 Huayra&lt;br&gt;- 帕加尼 Huayra BC&lt;br&gt;- 路特斯 Evora S （2种）&lt;br&gt;- 路特斯 Exige S Roadster &lt;br&gt;- 路特斯 Exige Scura&lt;br&gt;- 路特斯 2 Eleven GT4&lt;br&gt;&lt;br&gt;赛道日&lt;br&gt;- KTM X-Bow R&lt;br&gt;- 路特斯 2 Eleven&lt;br&gt;- 路特斯 Evora GTE&lt;br&gt;- 路特斯 Evora GTE Carbon&lt;br&gt;- 路特斯 Exige 240R （2种）&lt;br&gt;- 路特斯 Exige V6 Cup&lt;br&gt;&lt;br&gt;开轮式&lt;br&gt;- Tatuus FA-01&lt;br&gt;- 路特斯 Exos T125（2种）&lt;br&gt;&lt;br&gt;&lt;strong&gt;赛道&lt;/strong&gt;&lt;br&gt;- 拉古纳塞卡赛道&lt;br&gt;- 马焦内 - “翁布里亚赛车场”&lt;br&gt;- 伊莫拉 - “安佐与迪诺·法拉利赛车场”&lt;br&gt;- 穆杰洛 - “穆杰洛国际赛车场”&lt;br&gt;- 银石 - GP&lt;br&gt;- 银石 - 国际&lt;br&gt;- 银石 - 国家&lt;br&gt;- 银石 1967&lt;br&gt;- 蒙扎 - “蒙扎赛车场”&lt;br&gt;- 蒙扎 - “60年代经典赛道”（3种）&lt;br&gt;- 纽博格林 - GP&lt;br&gt;- 纽博格林 - Sprint&lt;br&gt;- 斯帕-弗朗科尔尚&lt;br&gt;- 瓦莱伦加 - “皮耶罗·塔鲁菲赛车场”&lt;br&gt;- 瓦莱伦加 - 俱乐部赛道&lt;br&gt;- 赞德沃特&lt;br&gt;- 特伦托-邦多内爬坡赛道&lt;br&gt;- 漂移赛道&lt;br&gt;- 双车短程赛车道&lt;br&gt;- 黑猫郡（幻想赛道）&lt;br&gt;- 高原（幻想赛道）&lt;br&gt;&lt;br&gt;&lt;strong&gt;展厅&lt;/strong&gt;&lt;br&gt;- 标准展厅&lt;br&gt;- 海滩&lt;br&gt;- 飞机库&lt;br&gt;- 工业&lt;br&gt;- 日落&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏模式&lt;/strong&gt;&lt;br&gt;- 自由练习赛&lt;br&gt;- AI对抗赛&lt;br&gt;- 生涯模式&lt;br&gt;- 自定义冠军赛&lt;br&gt;- 在线多人模式&lt;br&gt;- HotLap &lt;br&gt;- 计时赛&lt;br&gt;- 特殊赛事&lt;br&gt;- 漂移&lt;br&gt;- 短程加速赛&lt;br&gt;&lt;br&gt;&lt;strong&gt;特色&lt;/strong&gt;&lt;br&gt;- 游戏内遥测和应用程序&lt;br&gt;- 高级赛车配置管理&lt;br&gt;- 旗帜 &lt;br&gt;- 处罚&lt;br&gt;&lt;br&gt;&lt;strong&gt;应用列表&lt;/strong&gt;&lt;br&gt;- 基本信息&lt;br&gt;- 聊天app&lt;br&gt;- 轮胎app&lt;br&gt;- 真实时间app&lt;br&gt;- 帮助&lt;br&gt;- 圈速&lt;br&gt;- 停站预设&lt;br&gt;- 好友排行榜 &lt;br&gt;- 车载摄像头自定义&lt;br&gt;- 当日时间显示&lt;br&gt;- 输入显示器&lt;br&gt;- 时间表现指示器&lt;br&gt;- 档位/转速指示器&lt;br&gt;- 赛道地图&lt;br&gt;- 排名&lt;br&gt;- 加速计&lt;br&gt;&lt;br&gt;…………………………………………………………………………………………………………………………………………………&lt;br&gt;简短说明 &lt;br&gt;&lt;br&gt;Assetto Corsa 1.16版推出全新的“拉古纳塞卡”激光扫描赛道，7款新车，包括众望所归的阿尔法·罗密欧Giulia Quadrifoglio！更多信息请查看更新日志！&lt;br&gt;………………………………………………………………………………………………………………………………………………………&lt;br&gt;所获奖项 &lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;“Assetto Corsa 是虚拟赛车运动的闪亮杰作，是未来驾驶模拟器的新标准。”&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;95/100 - IGN 意大利&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;“Assetto Corsa 就是电子游戏领域的斯特拉迪瓦里（意大利弦乐器制造大师）、意大利千层面和法拉利 250 GTO：纯粹如水晶般的意大利卓越品质。驾驶模拟器的新里程碑。”&lt;/i&gt;&lt;/strong&gt;&lt;br&gt; 93/100 - Multiplayer.it&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;“Assetto Corsa 对驾驶体验的高度关注创造了奇迹——在重现这种简单而精彩的乐趣方面，目前没有任何其他游戏能超越它。”&lt;/i&gt;&lt;/strong&gt; &lt;br&gt;90-100 Eurogamer&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;“Assetto Corsa 是一款出色的赛车竞速模拟器。”&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;90/100 - EUROGAMER意大利&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;“在接下来的几年里，我们都会发现自己仍超前于PC端驾驶模拟和模组的基准。”&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;90/100 - SPAZIOGAMES.IT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>250900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The Binding of Isaac: Rebirth</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>以撒的结合：重生</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>动作类 Rogue,类 Rogue,独立,重玩价值,困难</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2014年11月05日</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>When Isaac’s mother starts hearing the voice of God demanding a sacrifice be made to prove her faith, Isaac escapes into the basement facing droves of deranged enemies, lost brothers and sisters, his fears, and eventually his mother. &lt;br&gt;&lt;br&gt;&lt;strong&gt;Gameplay&lt;/strong&gt;&lt;br&gt;The Binding of Isaac is a randomly generated action RPG shooter with heavy Rogue-like elements. Following Isaac on his journey players will find bizarre treasures that change Isaac’s form giving him super human abilities and enabling him to fight off droves of mysterious creatures, discover secrets and fight his way to safety.&lt;br&gt;&lt;br&gt;&lt;strong&gt;About the Binding Of Isaac: Rebirth&lt;/strong&gt;&lt;br&gt;The Binding of Isaac: Rebirth is the ultimate of remakes with an all-new highly efficient game engine (expect 60fps on most PCs), all-new hand-drawn pixel style artwork, highly polished visual effects, all-new soundtrack and audio by the the sexy Ridiculon duo Matthias Bossi + Jon Evans. Oh yeah, and hundreds upon hundreds of designs, redesigns and re-tuned enhancements by series creator, Edmund McMillen. Did we mention the poop?&lt;h2 class="bb_tag"&gt;Key Features:&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Over 500 hours of gameplay&lt;br&gt;&lt;/li&gt;&lt;li&gt;4 BILLION Seeded runs!&lt;br&gt;&lt;/li&gt;&lt;li&gt;20 Challenge runs&lt;br&gt;&lt;/li&gt;&lt;li&gt;450+ items, including 160 new unlockables&lt;br&gt;&lt;/li&gt;&lt;li&gt;Integrated controller support for popular control pads!&lt;br&gt;&lt;/li&gt;&lt;li&gt;Analog directional movement and speed&lt;br&gt;&lt;/li&gt;&lt;li&gt;Tons of feature film quality animated endings&lt;br&gt;&lt;/li&gt;&lt;li&gt;Over 100 specialized seeds&lt;br&gt;&lt;/li&gt;&lt;li&gt;2-Player local co-op&lt;br&gt;&lt;/li&gt;&lt;li&gt;Over 100 co-op characters&lt;br&gt;&lt;/li&gt;&lt;li&gt;Dynamic lighting, visual effects and art direction&lt;br&gt;&lt;/li&gt;&lt;li&gt;All-new game engine @60FPS 24/7&lt;br&gt;&lt;/li&gt;&lt;li&gt;All-new soundtrack and sound design&lt;br&gt;&lt;/li&gt;&lt;li&gt;Multiple Save slots&lt;br&gt;&lt;/li&gt;&lt;li&gt;Poop physics!&lt;br&gt;&lt;/li&gt;&lt;li&gt;The ultimate roguelike&lt;br&gt;&lt;/li&gt;&lt;li&gt;A bunch of achievements&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;Uber secrets including: &lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;10 Playable Characters&lt;br&gt;&lt;/li&gt;&lt;li&gt;100+ enemies, with new designs&lt;br&gt;&lt;/li&gt;&lt;li&gt;Over 50 bosses, including tons of new and rare bosses&lt;br&gt;&lt;/li&gt;&lt;li&gt;Rooms FULL OF POOP!&lt;br&gt;&lt;/li&gt;&lt;li&gt;Mystic Runes&lt;br&gt;&lt;/li&gt;&lt;li&gt;Upgradeable shops&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>banmagame0046</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>261570</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ori and the Blind Forest</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>精灵与黑暗森林</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>好评原声音轨,氛围,平台游戏,冒险,类银河战士恶魔城</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>9.6</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2015年03月11日</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>尼布爾山的森林正凋零著。一場龐大暴風雨所促成的連鎖事件，迫使一位不尋常的英雄踏上尋求內心勇氣並面對黑暗宿敵的旅程，以試圖拯救自己的家園。「Ori and the Blind Forest」是 Moon Studios 為個人電腦量身訂做的動作平台遊戲。在這個充滿美麗視覺效果的遊戲中，訴說著一位勇敢小孤兒的冒險故事。遊戲充滿手繪的美術畫作、細緻生動的角色動畫表現，以及由交響樂團實際演奏的背景配樂。在「Ori and the Blind Forest」感情洋溢的故事內容中，將會探索愛與犧牲，以及人們內心那股永不消逝的希望。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>275850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No Man's Sky</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>无人深空</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>开放世界,开放世界生存制作,太空,探索,科幻</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2016年8月13日</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>‘无人之地’从经典科幻小说中汲取灵感，囊括了大众喜爱的冒险和天马行空等元素。呈现给玩家一个充满独特行星和生命形式的星系。游戏中危机重重，无尽的探索等着你。&lt;br&gt;&lt;br&gt;在‘无人之地’中，每颗星星都散发着遥远太阳的光辉，每个太阳都有充满生命的行星绕其运转，你可以选择其中任何一个前往。从太空深处飞往行星地表，一路畅通无阻，毫无限制。在这个按程序生成的无限宇宙中，你会发现大家从未见过的领域和生物——而且再无机会遇见。&lt;h2 class="bb_tag"&gt;开始一段史诗般的航行。&lt;/h2&gt;在星系的中心，冥冥中有一个不可抗拒的吸引力，引领你去探索宇宙的真正奥义。但是，当面对攻击性的生物和凶猛的海盗，你将明白死亡亦有代价；而生死存亡的关键往往取决于你如何升级飞船、武器和装备。&lt;h2 class="bb_tag"&gt;找到命运真谛&lt;/h2&gt;在‘无人之地’中，你的航行由你做主。你会成为一名战士，以侵略弱者为生，掠夺他们的财富，或掠夺海盗的战利品？掌握主动权，占据优势，升级飞船的速度和武器。&lt;br&gt;&lt;br&gt;还是会成为一名商人? 在这个被遗忘的世界里找到丰富的资源，利用它们获取高额利润。以此投资更多的货仓空间，你将获得巨额回报。&lt;br&gt;&lt;br&gt;亦或者成为一个探险家？超越已知领域，去发掘那些从来无人见过的地方和事物。升级你的引擎，带你飞得更远；增强宇宙服性能，在有毒环境中得以生存，而大意者只能走向灭亡。&lt;h2 class="bb_tag"&gt;分享你的旅程&lt;/h2&gt;这个星系是一个有血有肉，生生不息的世界。贸易航队在星际间穿梭，各派争夺地盘，海盗乘火打劫，星际战警也一直虎视眈眈。其他玩家都生活在同一个星系中，你可以选择在已知太空的地图上与他们分享你的发现。这样你不仅能看到自己的内容，也许也能看到对方操作行动的结果……</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>301760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cars 2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>汽车总动员2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>工作场所不宜,二战,光明会,恋爱模拟,成人</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2014年10月06日</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Inspired by the Disney•Pixar animated film, Cars 2: The Video Game lets players jump into the Cars 2 universe with some of their favorite Cars personalities in exotic locations around the globe. &lt;br /&gt;
+Continuing the storyline from the upcoming film, players can choose to play as Mater and Lightning McQueen, as well as some brand new characters, as they train in the international training center - CHROME (Command Headquarters for Recon Operations and Motorized Espionage) to become world-class spies. They’ll take on dangerous missions, compete to become the fastest racecar in the world, or use their spy skills in exciting, action-packed combat racing and battle arenas. Players can race against friends and family in either single or multiplayer modes with up to four players to unlock challenging new tracks, characters, events and thrilling spy missions. The DS version will also include exclusive global locations not seen in the film.       &lt;br /&gt;
+Game Features:&lt;br /&gt;
+&lt;br /&gt;
+Cars 2: The Video Game introduces the international training center - CHROME (Command Headquarters for Recon Operations and Motorized Espionage) that expands upon the film storyline  &lt;br /&gt;
+&lt;br /&gt;
+Choose from more than 20 different characters, such as Mater, Lightning McQueen and the newly introduced Finn McMissile and Holley Shiftwell, and train to become world class spies&lt;br /&gt;
+Participate in simulated hazardous missions using high-tech gadgets to evade and impede adversaries&lt;br /&gt;
+&lt;br /&gt;
+Perform maneuvers only Cars characters can do, such as backwards driving, air tricks, sidestepping to avoid obstacles, two wheel driving and more&lt;br /&gt;
+       &lt;br /&gt;
+Connect with World of Cars Online, a free-to-play browser-based virtual world based on the Cars universe, to gain rewards in the video game and then use them to unlock new items  in the virtual world</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>324800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Shadow Warrior 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>影子武士2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>动作,刷宝射击游戏,第一人称射击,合作,多人</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2016年10月13日</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>影子武士2是Flying wild Hog不落俗套的第一人称射击游戏的惊人进化，故事承接前将军Lo Wang的不幸遭遇。现在，作为苟活在堕落世界边缘的隐居雇佣兵，这位令人敬畏的战士必须再一次动用枪支、剑戟、魔法和智慧，去推翻横行世界、势不可挡的恶魔军团。与四名玩家一起组成联盟共同作战，或是独自一人在程序生成的壮丽风景中完成大胆的任务，收集强大的新武器，盔甲，和神秘的传奇遗物。&lt;h2 class="bb_tag"&gt;故事&lt;/h2&gt;距离Lo Wang撕毁他谎话连篇的前老板和影子联盟古神间的盟约已经过去五年了。尽管有着崇高的意图，Lo Wang消灭黑暗腐化世界的努力却促成了一种人类与恶魔并存，奇怪而野蛮的新秩序。这位曾让人惧怕的战士现在生活在远离敌人和奇拉控制下的霓虹闪烁大都市的荒野地带，仅仅是当地Yakuza氏族一个不起眼的雇佣兵。在一项简单的任务出错时，Lo Wang被卷入了天才青年科学家、他的宿敌Orochi Zilla和已经在世间极不稳定的恶魔力量之间的剧烈冲突中。毒舌的英雄必须重拾致命的刀剑、惊人的火力和古老的魔法来净化世间的邪恶。&lt;h2 class="bb_tag"&gt;特点&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;刀剑和子弹：&lt;/strong&gt;Lo Wang使用超过70种致命刀剑和爆炸火器，以及他残忍窒息的风格来对抗恶魔一方。化身钢与血的旋风，用剃刀般锋利的武士刀、短剑、新月弯刀、以及手爪，或者释放一场地狱般华丽的火器交响乐来摧毁你的敌人。&lt;br&gt;&lt;br&gt;&lt;strong&gt;四人合作模式：&lt;/strong&gt; 独自拼下众多战役，或是在在线战役模式中组成台风般毁天灭地的四人小队。解决挑战性的主线任务或惊悚的支线任务，同时使用定制盔甲，物品，以及获胜后贵重的战利品来保持你自己的忍者风格。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自动生成的环境：&lt;/strong&gt; 人类与恶魔领域的冲突创生了多维次元联结，使得影子武士2的世界不断变化。自动生成的风景和路径会给曾经熟悉的地形和日常任务赋予新颖的变化。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;残酷伤害系统：&lt;/strong&gt; 根据眼前情况选择手边的武器，使用更先进的血液系统摧毁一切挡路者。用精准的刀法切下头和四肢，或者切换到重型法术在巨兽身上挖开大洞。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义升级系统：&lt;/strong&gt; 升级你军火库中的武器，一次最多可以使用三块石头来提升性能或是赋予它们毁灭性的元素效应。收集业力，护身符和盔甲来增强Lo Wang的力量，将他的处死艺术转变为虐杀。&lt;h2 class="bb_tag"&gt;影子武士系列&lt;/h2&gt;&lt;br&gt;影子武士系列上个世纪90年代就已经出现，影子武士经典版重制后在Steam平台上由Devolver Digital和3D Realms发行为影子武士经典重制版。到了2013年，Flying wild Hog和Devolver Digital发行了Lo Wang现代经典影子武士传奇的大胆重现。&lt;br&gt;&lt;br&gt;&lt;a href="http://store.steampowered.com/app/233130/" target="_blank" rel=""  id="dynamiclink_3" &gt;http://store.steampowered.com/app/233130/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://store.steampowered.com/app/225160/" target="_blank" rel=""  id="dynamiclink_4" &gt;http://store.steampowered.com/app/225160/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;a href="http://store.steampowered.com/app/238070/" target="_blank" rel=""  id="dynamiclink_5" &gt;http://store.steampowered.com/app/238070/&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>331160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cars</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>汽车总动员</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>竞速,光明会,网络梗,LGBTQ+,剧情丰富</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2015年02月24日</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>In this video game adaptation of Disney•Pixar's Cars, you begin as Lightning McQueen, a rookie racecar looking to win fame and fortune at the Piston Cup Championship. A racing adventure game with ten playable characters from the film, Cars offers more than 30 races and mini-games through open environments. The game includes voice talent from the movie, so listen for moral lessons from Larry the Cable Guy and comic relief from Cheech Marin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>banmagame0046</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>387290</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Ori and the Blind Forest: Definitive Edition</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>精灵与黑暗森林-终极版</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>氛围,好评原声音轨,类银河战士恶魔城,平台游戏,冒险</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>2016年04月27日</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>NEW IN THE DEFINITIVE EDITION&lt;br /&gt;
 • Packed with new and additional content: New areas, new secrets, new abilities, more story sequences, multiple difficulty modes, full backtracking support and much more!&lt;br /&gt;
@@ -721,127 +1151,138 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mqdrw47547</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>413410</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Danganronpa: Trigger Happy Havoc</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>弹丸论破：希望的学园和绝望的高中生</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>动漫,视觉小说,悬疑,推理,剧情丰富</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>2016年02月19日</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Hope's Peak Academy is home to Japan's best and brightest high school students—the beacons of hope for the future. But that hope suddenly dies when Makoto Naegi and his classmates find themselves imprisoned in the school, cut off from the outside world and subject to the whims of a strange, murderous little bear named Monokuma. He pits the students against each other, promising freedom to anyone who can murder a fellow classmate and get away with it.&lt;br&gt;It's up to you to find out who Monokuma really is, and why you've been taken from the world you once knew. But be careful what you wish for—sometimes there’s nothing more deadly than the truth...&lt;br&gt;&lt;br&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Daily Life, Deadly Life:&lt;/strong&gt; Trapped in a school-turned-prison, students are murdering each other one by one. You’ll have to investigate each incident, search for clues, and talk to your classmates to try and get to the bottom of each brutal case! &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Mock Trial:&lt;/strong&gt; The nefarious Monokuma serves as judge, jury, and executioner as you engage in deadly wordplay, going back and forth with suspects, dissecting their statements and firing their words back at them to expose their lies! &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Popularity Contest:&lt;/strong&gt; Sway classmates to your side in each investigation, squeezing information from them to figure out who did it. And when you do, turn up the heat in a variety of timing and reflex-based game systems to uncover the truth and save your skin!&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Steam Features:&lt;/strong&gt; Supports Steam Achievements, Steam Cloud and Steam Trading Cards.&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mqdrw47547</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>413420</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Danganronpa 2: Goodbye Despair</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>超级弹丸论破2：再见了绝望学园</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>动漫,推理,视觉小说,悬疑,剧情丰富</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>2016年04月19日</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Jabberwock Island – once a popular tourist destination, this now uninhabited island remains oddly pristine. You and your classmates at the elite Hope's Peak Academy have been brought to this island by your super-cute teacher for a “lovey-dovey, heart-throbbing school trip.” Everyone seems to be having fun in the sun...until Monokuma returns to restart his murderous game! Trapped on this island of mutual killing, your only hope of escape rests in solving the island’s mysteries. But be warned—sometimes the truth can be its own despair...&lt;br&gt;&lt;br&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Deadly Island Vibes:&lt;/strong&gt; Murder is the only means of escape when you’re trapped on this island paradise. As your fellow classmates start dropping like coconuts, you’ll need to delve into each murderous incident, forage for clues, and interview your classmates to reveal the opportunity, motive, and means behind each killer case! &lt;br&gt;&lt;br&gt;&lt;strong&gt;Tribal Council:&lt;/strong&gt; You’ll go head-to-head in all new minigames with the other students during the Class Trial, shooting down their false truths and using your evidence to uncover what really happened. But watch out! If a student is unconvinced, they'll challenge you to a one-on-one Rebuttal Showdown and force you to defend your argument! &lt;br&gt;&lt;br&gt;&lt;strong&gt;Survival of the Keenest: &lt;/strong&gt;Match up your evidence with your fellow classmates’ arguments and determine who’s really telling the truth. Once you’ve got a suspect in your sights, turn up that tropical heat in a variety of timing and reflex-based game systems to reveal the ultimate truth and escape with your life!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Steam Features: &lt;/strong&gt;Supports Steam Achievements and Steam Cloud with plans to add Steam Trading Cards&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
         <is>
           <t>414700</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Outlast 2</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>逃生2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>心理恐怖,生存恐怖,第一人称,单人,黑暗</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>2017年04月25日</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Outlast 2 is the sequel to the acclaimed survival horror game Outlast.  Set in the same universe as the first game, but with different characters and a different setting, Outlast 2 is a twisted new journey into the depths of the human mind and its dark secrets.  &lt;br /&gt;
 &lt;br /&gt;
@@ -854,85 +1295,228 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>maaartiinn1,vAbuDy</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>431960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine：壁纸引擎</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>成人,实用工具,软件,动漫,设计与插画</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2018年11月日</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ha1hn0ub8rc6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>433340</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Slime Rancher</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>史莱姆牧场</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>可爱,探索,冒险,单人,开放世界</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>2017年08月02日</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/header_copy_600.png?t=1692314094" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;欢迎来到致远牧星&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;这是一款令人不忍释手的，第一人称视角沙盘类游戏。在游戏中你将化身为年轻又有闯劲的牧场主碧翠丝·乐步，在距离地球一千光年的致远牧星上开始新的探索。&lt;br&gt;&lt;br&gt;在你致力于经营牧场的期间，每天都会有新的挑战和机遇出现。收集五颜六色的史莱姆、培育作物、采集素材，然后就是用好你手中那把万能的真空枪，来探索这片广袤狂野的土地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/happy-slimes2-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;继往开来&lt;/strong&gt;&lt;/u&gt;&lt;br&gt;&lt;br&gt;传奇牧场主霍布森·推格斯将他的牧场传给你。接下来你需要让这片牧场重现昔日繁荣；揭开这颗神秘星球上的重重谜团；当然还要叱咤一把结晶市场。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;种植作物、养殖鸡群，好填饱宝贝史莱姆们的肚肚&lt;br&gt;&lt;/li&gt;&lt;li&gt;完成其他牧场主给你的日常任务，获得丰厚奖赏&lt;br&gt;&lt;/li&gt;&lt;li&gt;赚钱升级装备、建造牧栏，或是扩建你的牧场&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用史莱姆科技寻找稀有素材、创作装饰品，以及制造在探险时能派上用场的各种装置&lt;br&gt;&lt;/li&gt;&lt;li&gt;这颗星球上隐藏着无数秘密和宝藏，尽情去探险吧&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/sucking-sm.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/slime-exchange-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/science-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/key-apng.png?t=1692314094" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;丰富多彩的功能特色：&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;3种游戏模式供选择：冒险、休闲、快攻&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过杂交培育，史莱姆的种类可达150种以上&lt;br&gt;&lt;/li&gt;&lt;li&gt;如果你觉得键盘更适合拿来搞音乐而不是玩游戏，我们还提供全方位的手柄支持&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/bean_composite_blue_png.png?t=1692314094" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>460930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tom Clancy's Ghost Recon® Wildlands</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>幽灵行动：荒野</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>开放世界,射击,合作,多人,潜行</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2017年03月07日</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>与最多 3 位好友组队加入《Tom Clancy’s Ghost Recon® Wildlands》，在这个大规模、危险及响应式开放世界中，体验终极军事射击游戏的快感。玩家还可以在 4 对 4 战术战斗《Ghost War》中，畅玩玩家对战模式。&lt;br&gt;&lt;br&gt;&lt;strong&gt;摧毁毒品集团&lt;/strong&gt;&lt;br&gt;几年前，玻利维亚成为全球最大的可卡因生产国。圣塔布兰卡毒品集团将整个国家搅得乌烟瘴气。作为一名 Ghost，你必须不惜一切手段，阻止集团。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;成为 Ghost&lt;/strong&gt;&lt;br&gt;创建并个性化你的 Ghost、武器和工具。享受绝对自由的游戏风格。 单人进行或联合最多三人一起带领你的团队，摧毁毒品集团。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;探索玻利维亚&lt;/strong&gt;&lt;br&gt;在 Ubisoft 最大的动作冒险开放世界中开启旅程。使用 60 多种载具，在公路、野外和海陆空三界探索 Wildlands 各种各样令人叫绝的地形景色。&lt;br&gt;&lt;br&gt;在Tobii眼动追踪技术的帮助下，除去圣布兰卡黑帮的游戏体验变得更为丰富。视野扩展，实现瞄准和聊天轮盘功能可以让您在不改变传统控制方式的情况下，通过自然地眼球移动完成与环境的交互。通过眼动追踪，团队交流变得更为紧密，交火变得更为激烈，对新环境探索的浸入式体验也大大提升。&lt;br&gt;兼容全部Tobii眼动追踪游戏设备&lt;br&gt;----&lt;br&gt;补充信息: &lt;br&gt;眼动追踪特性可由Tobii眼动追踪技术实现</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>475550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Beholder</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>旁观者</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>反乌托邦,选择取向,政治模拟,策略,模拟</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2016年11月10日</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>欢迎来到一个严酷的反乌托邦的未来社会。&lt;br&gt;极权政府控制了个人和公共生活的每一个方面。&lt;br&gt;法律是压制性的。监视就是全部。隐私已死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/ButFreedomlives_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992423_bomb1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;你是政府安插在公寓楼里的经理。你的日常工作是让公寓楼成为来来去去租户的甜蜜窝。但，那只是隐藏你真实使命的简单外表...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/SPYINGonYourRenters_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;你的主要任务是偷偷摸摸监视你的组合并偷听他们的对话。你必须在他们不在的时候对他们的公寓走手脚，搜索所有会威胁到政府权威的个人物品，并向你的上级汇报。你必须还要向当局报告每个会违法或密谋颠覆政府的任何人。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992464_spy1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/youmustbutwillyou_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;你是极权机器中的一个齿轮！&lt;br&gt;但你仍然可以选择坚持你的人性并与其他人产生共鸣。&lt;br&gt;&lt;br&gt;你会举报一位有可疑活动的父亲并让他的孩子成为孤儿吗？或者你会保留关于他的非法活动的细节并给他一次改正的机会吗？你也可以选择敲诈他来获得你的家庭极度需要的钱吗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992369_arrest1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/whatabout_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;当你玩游戏时，你会与很多角色互动并完成大量的探索。你将还会做出影响故事发展的决定。这将会导向很多故事结局中的一个 - 你所争取的结局！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470990996_heroes1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/JustRemember_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/YourChoiceHasConsequences_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/Free.jpg?t=1702625775" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
         <is>
           <t>501590</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Bulletstorm: Full Clip Edition</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>子弹风暴：完全版</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>动作,第一人称射击,冒险,第一人称,射击</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>2017年04月08日</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Step into the boots of Grayson Hunt after a crash landing on an abandoned resort planet forces him to make a hard choice: survival or revenge. An exiled member of the elite assassin group Dead Echo, Grayson’s blind desire for vengeance finds his crew stranded on Stygia where he can finally confront the commander behind his betrayal—or get his team off the planet alive.&lt;br /&gt;
 &lt;br /&gt;
@@ -942,169 +1526,220 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
         <is>
           <t>544750</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>SOULCALIBUR VI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>灵魂能力6</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>格斗,动作,角色自定义,多人,奇幻</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>2018年10月19日</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_02.gif?t=1701327288" /&gt;&lt;br&gt;&lt;br&gt;“由最强剑豪奏曲，光与暗的起点”&lt;br&gt;SOULCALIBUR20周年的最新作品隆重登场！&lt;br&gt;亲自体会武器格斗动作游戏巅峰的绚丽画质呈现的全新刀剑交锋故事！&lt;br&gt;&lt;br&gt;■全新刀剑交锋对战！&lt;br&gt;看穿对手的攻击并展开反击！操作攻守一体的动作「反攻刃击」、&lt;br&gt;有可能在一定时间内，提升威力一举逆转战局的「集魂」、&lt;br&gt;以及可预期连段造成巨大伤害的「致命一击」等等招式，击败强敌！&lt;br&gt;&lt;br&gt;■满载丰富要素的单人模式！&lt;br&gt;搭载从初代「SOULCALIBUR」的故事、交织新角色＆全新解读的「STORY: Soul Chronicle」模式、&lt;br&gt;以及自己化身为主角畅享对战和收集要素的「MISSION: Libra of Soul」模式！&lt;br&gt;&lt;br&gt;■亦搭载其他多样化的模式！&lt;br&gt;能够和世界玩家一较高下的「在线」模式！&lt;br&gt;亦搭载能够量身打造自己中意角色的「创造模式」！&lt;br&gt;&lt;br&gt;■全新客串角色&lt;br&gt;CD PROJEKT RED旗下「巫师」系列作品的主角「杰洛特」参战！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_01.gif?t=1701327288" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>553670</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Beholder - Original Soundtrack</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Beholder - Original Soundtrack</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>冒险,独立,策略,剧情丰富,欲罢不能</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2016年11月10日</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>从Beholder的官方配乐，从Warm Lamp Games 的反乌托邦冒险。&lt;br /&gt;
+&lt;br /&gt;
+音频设计和音乐 - Principle Sound Design&lt;br /&gt;
+米哈伊尔·科托夫&lt;br /&gt;
+安东·瓦西里耶夫&lt;br /&gt;
+谢尔盖·蔡</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mqdrw47547</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>567640</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Danganronpa V3: Killing Harmony</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>新弹丸论破v3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>视觉小说,推理,动漫,女性主角,剧情丰富</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>7.7</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>2017年09月26日</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>高速推理动作游戏——《枪弹辩驳》系列的最新作品，在班级审判中驳倒对方的矛盾发言，找出杀人事件的罪魁祸首吧。&lt;br&gt;与以往作品相比，本作从故事背景到登场人物，全部焕然一新。&lt;br&gt;游戏借由“Psycho cool”为主题，以更加强化的视觉效果和剧情编排，将新学园中发生的全新故事推向高潮。&lt;br&gt;&lt;br&gt;&lt;strong&gt;故事情节&lt;/strong&gt;&lt;br&gt;在游戏世界中，有着一群拥有“超高中级”称号的学生，他们在政府所实行的特别奖励制度“资优制度”下被授予了各类特权，肩负着人类的未来。“超高中级的钢琴家”赤松 枫便是其中一人。&lt;br&gt;拥有超高中级才能的学生原本散布在全国各地，通常也不会有机会齐聚一堂。可是某天，包括枫在内的16名超高中级的学生被一并监禁在了“才囚学园”内。&lt;br&gt;自称是校长的神秘玩偶“黑白熊”以及它的孩子们“黑白熊仔”支配着才囚学园。&lt;br&gt;黑白熊将这所学园称为“让才华横溢的高中生们通过自相残杀，竞争谁是第一的地方”。&lt;br&gt;黑白熊又声称学园中有一个疯狂的规定。在发生杀人事件后，将会召开班级审判，讨论“谁是杀人凶手”。如果找出真凶，仅会有凶手受罚；如果发生错判，则只有凶手可以幸存，所有剩余的清白的学生都会受到惩罚。&lt;br&gt;学园被巨大的壁垒包围，想要逃离那里几乎不可能。脱身的唯一办法，就是按照黑白熊所说，与其他学生自相残杀——&lt;br&gt;为了结束厮杀、为了守护重要的人，以“谎言”揭穿“真相”的班级审判就此开幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;世界观&lt;/strong&gt;&lt;br&gt;&lt;br&gt;本作的舞台。&lt;br&gt;“专为参加厮杀游戏的16名‘超高中级学生’而建造的”这所学园，有着一应俱全的设施和严格的校规。&lt;br&gt;&lt;br&gt;&lt;br&gt;政府正在实行的特别奖励制度——“资优制度”是为培养国家级天才而设立的制度。一旦潜力获得认可，学生会被授予奖学金等各种特权。&lt;br&gt;被此制度选中的学生会得到“超高中级”的称号。&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏系统&lt;/strong&gt;&lt;br&gt;本作以章节为单位来进行游戏。各章可以分为（非）日常篇（日常部分）、非日常篇（搜查部分）、班级审判这3大部分。&lt;br&gt;&lt;br&gt;&lt;br&gt;讲述学生们在学园内生活情况的部分。&lt;br&gt;在此部分将发生各类事件，比如学生们会筹谋逃出学园的计划；黑白熊为了推动厮杀游戏，会为学生们制造“杀人动机”等等，故事情节将从这里开始发生重大转折。&lt;br&gt;&lt;br&gt;&lt;br&gt;一旦发生杀人事件，并发现尸体后，将进入非日常篇（搜查部分）。&lt;br&gt;在此部分可以调查案发现场、向其他学生打听案件线索等，为解决事件收集必要的证据。&lt;br&gt;&lt;br&gt;&lt;br&gt;根据收集的证据，找出杀人事件的犯人（凶手），这称作“班级审判”。&lt;br&gt;在这里，拥有超高中级才能的学生们会从各种角度对案件进行讨论。&lt;br&gt;班级审判的目的是指出其他学生话语中的矛盾，并最后找出真凶。&lt;br&gt;在搜查环节收集的证据会成为“言弹（ＫＯＴＯＤＡＭＡ）”，用以反驳参加者的矛盾发言。&lt;br&gt;通过用言弹射击在画面上流动的发言矛盾点，可以将讨论推往下一阶段。&lt;br&gt;本作加入了“谎言”、“混乱讨论”以及“讨论争辩”等全新的游戏元素。“谎言”需要在不间断讨论时故意撒谎，它甚至可以用来驳倒并无矛盾的发言；“混乱讨论”则需要在多名角色同时辩论的时候发现其中的矛盾；“讨论争辩”则是在《枪弹辩驳》系列中初次亮相的团体论战。</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
         <is>
           <t>586140</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>BlazBlue Centralfiction</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>苍翼默示录：神观之梦</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>格斗,动漫,2D 格斗,动作,好评原声音轨</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>2017年04月26日</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>采用最新的滚动式网络匹配技术，享受亚克系统的标志美丽的视觉与时尚的高层战斗系统！老玩家还是新玩家都再回到苍的世界里吧！可以操作使用各种新系统的 35位漫画风格的独特角色。命运之轮再次旋转!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/586140/extras/astralterumi.gif?t=1653281343" /&gt;&lt;br&gt;&lt;br&gt;最高峰的快节奏2D格斗对战与重量级视觉小说结合在此,苍翼系列的完结篇来临！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/586140/extras/punchfinal_op.gif?t=1653281343" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
         <is>
           <t>644560</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Mirror</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>魔镜</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>动漫色情,成人,动漫,工作场所不宜,三消</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>2018年04月19日</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>It is said that there is a magic mirror, which is closely related to the destiny of numerous beautiful girls&lt;br /&gt;
 If you obtain it, you will be able to walk into the world of the beauties and experience a magnificent journey&lt;br /&gt;
@@ -1120,38 +1755,43 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>gunhead01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>704000</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>GUNHEAD</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>GUNHEAD</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>动作,独立,第一人称射击,类 Rogue,轻度 Rogue</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>2023年11月09日</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>&amp;quot;《Gunhead》是一款革新性Rouge-Lite第一人称射击游戏，继承并超越了Alientrap的前作《Cryptark》的精髓。游戏中，玩家将化身为机械战甲战士，自由驰骋于外太空，挑战一艘又一艘由AI精心设计的外星飞船。在这些日渐腐朽、危机四伏的外星方舟中，玩家不仅要面对改造怪物、机械化军团、自动防御系统的铁血阻击，还要智破重重陷阱，最终摧毁系统核心，一举赢得胜利。&lt;br /&gt;
 &lt;br /&gt;
@@ -1170,38 +1810,86 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>704850</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Thief Simulator</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>小偷模拟器</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>模拟,潜行,单人,冒险,第一人称</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2018年11月10日</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/&lt;/a&gt;&lt;br&gt;&lt;br&gt;做个真正的贼。你可以自由地在沙盒街区闲逛偷东西。观察你的目标，收集能帮你行窃的信息。接受挑战，扫荡最安全的房子。买高科技盗贼装备，学新的手法。把货卖给当铺。做所有真贼能做的事！&lt;br&gt;&lt;br&gt;收集情报&lt;br&gt;&lt;br&gt;厉害的贼会观察他的目标。屋里有什么？住了谁？目标的每日行程怎么进行？弄清楚房子什么时候没人，周围的邻居爱不爱管闲事。从众多的可行方案中准备最佳的下手方式。小偷模拟器中还有许多现代设备，可以帮助你便利地收集目标和周围街区的情报。&lt;br&gt;&lt;br&gt;动作快&lt;br&gt;&lt;br&gt;越快越好。在短时间内搜索并拿走值钱物品。记住，四次元口袋并不存在。时候到了，你必须保持冷静。每个房子里你都会找到无数没用的东西，它们会拖累你，如果你不确定东西能不能卖个好价钱，那不如把东西留下，给更值钱的东西腾出空间。如果你的包里都是不值钱的东西，那你可能还得浪费时间抛弃东西，给其他东西腾出空间。一定要小心，因为有些东西可能会招来警察！&lt;br&gt;&lt;br&gt;电筒&lt;br&gt;&lt;br&gt;一个真正有经验的贼能够找准地方，在匆忙中也能带走值钱的东西。在晚上使用电筒，看清楚视线范围内的所有值钱物品和它们可能出现的地方。&lt;br&gt;&lt;br&gt;处理战利品&lt;br&gt;&lt;br&gt;处理偷来的手机和电脑。拆解偷来的车，把零件放到网上卖掉。把手机和平板的安全系统解除，卖给当铺。&lt;br&gt;&lt;br&gt;有用的物品&lt;br&gt;&lt;br&gt;四处看看找找有用的物品，它们可以帮你在撬锁和黑进电脑时省些时间。窗户边的钥匙和垃圾桶里的购物小票，这些东西都可以让一个有抱负的小偷工作轻松，行窃时间减半。当然，还有很多东西是没用的垃圾……或许还是会有用的？&lt;br&gt;&lt;br&gt;小心谨慎&lt;br&gt;				&lt;br&gt;一定要小心！你可能在一些人家里遇到意料之外的客人。如果他们撞见你就会报警。这种情况下，先躲起来，等到他们不找你了再出来，或者把偷的东西留下，溜之大吉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
         <is>
           <t>769030</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Twine3D</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Twine3D</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>休闲</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>2017年12月26日</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Twine3D is a third person view control path craft game.&lt;br /&gt;
 Control:&lt;br /&gt;
@@ -1223,253 +1911,482 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
         <is>
           <t>788100</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Neon Abyss</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>霓虹深渊</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>类 Rogue,刷宝,平台游戏,程序生成,单人</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>2020年07月14日</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>&lt;strong&gt;霓虹深渊是一款注重道具叠加效果的横版动作地牢游戏，你还可以根据喜好自由选择地牢的进化路线。&lt;/strong&gt;身为神秘组织的一员，你将在霓虹闪耀的地下世界中探险，收集千奇百怪的道具，击败恶魔与众神，寻找地牢最深处的宝藏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/788100/extras/Gif_loop_4.gif?t=1676903259" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/788100/extras/feature_item_cn.png?t=1676903259" /&gt;&lt;br&gt;&lt;br&gt;你会从道具中获得千奇百怪的能力！道具之间的功能将会相互影响和叠加，并且没有数量上的限制。数百种被动道具，数十种武器和主动技能——在这无穷无尽的组合当中，你将会创造出什么流派（Build）呢？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/788100/extras/feature_tree_cn.png?t=1676903259" /&gt;&lt;br&gt;&lt;br&gt;这是一个独特的可拓展的地下世界，你可以选择个性化的升级路线来塑造你的地牢，解锁全新的房间、首领、道具、规则和结局。你的每一次冒险都会丰富地牢的内容，你的每一次选择都会影响游戏的规则。&lt;br&gt;&lt;br&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -&lt;h2 class="bb_tag"&gt;海量内容&lt;/h2&gt;动态生成的地图，超过400种道具，数十种武器，几十种风格迥异的怪物，数不尽的彩蛋和秘密，让每一次冒险都充满了新鲜感。&lt;h2 class="bb_tag"&gt;宠物孵化&lt;/h2&gt;在游戏中你将获得宠物蛋，可以孵化出随机的精灵。每一只精灵都有着独特的能力，并可以多次进化。&lt;h2 class="bb_tag"&gt;迷你游戏&lt;/h2&gt;游戏中有很多特别的房间，每一个都有全新的规则和玩法。钢琴演奏，斗舞比赛，月球漫步，湖边垂钓，应有尽有。&lt;h2 class="bb_tag"&gt;霓虹神话&lt;/h2&gt;药物之神，比特币之神，短视频之神。当今最流行的事物都化身为新的统治者，而你就是那个打破枷锁的人！</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>banmagame1103</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>921570</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>OCTOPATH TRAVELER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>岐路旅人</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>角色扮演,日系角色扮演,像素图形,回合制,剧情丰富</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>2019年06月08日</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>&lt;a href="https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/921570/extras/FRIGATE_Steam_gif.gif?t=1694485198" /&gt;&lt;br&gt;屡获殊荣的RPG游戏推出PC版！&lt;br&gt;&lt;br&gt;八位旅行者的八次冒险之旅。化身为八个角色之一，踏上史诗般的旅程，穿越广阔而神奇的奥鲁斯特拉大陆，探索八位旅行者各自迷人的故事。&lt;br&gt;&lt;br&gt;- 可扮演八个不同的角色，每一个角色都有各自的故事和要完成的支线任务&lt;br&gt;- 探索迷人但危险的奥鲁斯特拉大陆，跨越8片广阔的区域，并随着旅程的展开，揭开每个角色的完整故事&lt;br&gt;- 使用每个角色的独特能力（地图指令）、技能和属性展开疯狂的战斗&lt;br&gt;- 享受易上手但深度的回合式对战系统，并可通过识别和瞄准敌人的弱点来突破他们的防线&lt;br&gt;- 可采取不同方式完成支线任务和故事场景，并做出将塑造角色人生道路的决定&lt;br&gt;- 体验受启于复古2D RPG游戏的视觉效果，欣赏美不胜收的写实元素打造出来的 3D 世界</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vAbuDy</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>953880</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>First Class Trouble</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>头等舱故障</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>社交推理,欢乐,生存,困难,多人</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2021年11月02日</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>First Class Trouble 已在抢先体验游戏里，并且正积极的地方化翻译中。有时更新游戏时，新的区域的地方化会迟了些，并显示出英文。 如果察觉到你的语言有缺少部分时，请告知我们，我们将会尽快的更新游戏。&lt;br&gt;&lt;br&gt;First Class Trouble是个玩家们爲了生存得互相合作，同时也得对付其他人的团体合作游戏。它的目的是关闭一艘奢侈宇宙游轮内的杀手人工智能。有些玩家是间谍，利用看起来像人类的杀手仿生人准备背叛其他玩家。&lt;br&gt;&lt;br&gt;玩家们将在这款Invisible Walls开发的多人社会欺骗游戏担任ISS Alithea的乘客角色。这游轮的人工智能系统中心，C.A.I.N.发生了异常并开始将船内的氧气全吸光了。乘客们得使用近距离聊天室来合作才能达成目标和抵达C.A.I.N.赢得游戏。&lt;br&gt;&lt;br&gt;同时有著混在乘客之间看起来像人类的仿生僕人们正准备献上他们的报复。仿生人们得欺骗乘客们，消灭他们，或继续隐瞒到最后才能赢得游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Freezer.gif?t=1672648456" /&gt;&lt;br&gt;&lt;br&gt;爲了生存，你得骗过你的朋友们，或将被欺骗……&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;爲了前进到船中的不同空间来关闭异常的人工智能，玩家们得互相交流和团结做任务。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/CAIN_3_short.gif?t=1672648456" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;作爲乘客的一员，你得爲了揭发仿生人的身份而小心寻找綫索，并利用你所有的一切除掉他们。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Tree.jpg?t=1672648456" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;在不同区域之间，玩家们得投票把仿生人扔出密封舱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Airlock.jpg?t=1672648456" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;作爲仿生人，你得爲了混入乘客间而撒谎，计划和隐瞒你的身份。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Scheme.jpg?t=1672648456" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vAbuDy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>967050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pacify</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>安抚</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>多人,合作,生存恐怖,在线合作,心理恐怖</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2019年02月23日</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>你刚刚与 PAH 公司，即超自然活动帮手公司，签约。这名字听起来很烂俗，但是薪酬很高。 他们说你不会遇到任何真正的危险，而且他们现在有大量的工作需要找人来做。 你的第一份任务位于某个闹鬼的老房子。 有个房产中介想卖掉这所房子，但是全镇所有人都在散布房子里闹鬼的传言，所以他需要找到证据证明房子很安全。 实际上，他自己看起来也吓得不行。 不论如何，他聘请了 PAH 公司来调查那个地方。 如果你想单独调查，请自便。不过要是我，我会带上至少 3 个朋友。 去把那个地方查清楚，如果有灵异现象出现，找到证据带回 PAH 公司。&lt;br /&gt;
+&lt;br /&gt;
+选择单人模式独自完成游戏，或选择多人模式与最多三个朋友一起完成游戏。 在多人模式中，你可以选择与朋友组队或与朋友对战。 阅读笔记，寻找关于如何抚慰女孩的线索。 寻找并使用钥匙、娃娃、木头和火柴来帮助你闯关。 女孩可以听到你说话，也可以看见你。 注意别被看到，尽量保持安静。 尝试使用不同的取胜策略。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>83013169</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>976310</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mortal Kombat 11</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>真人快打11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>格斗,多人,鲜血,动作,2D 格斗</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2019年04月24日</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>《真人快打》经典系列隆重回归，现在就来一睹这叹为观止的新作吧。&lt;br /&gt;
+&lt;br /&gt;
+《真人快打11》标准版内含：&lt;br /&gt;
+• 主游戏&lt;br /&gt;
+&lt;br /&gt;
+全新“自定义角色模板”功能可让你以史无前例的方式自定义战士，打造完全属于你的角色。全新图形引擎将细腻呈现每个碎颅爆眼的精彩时刻，让你如同身历其境般地体验每个细节。伴随着一直以来脍炙人口的电影剧情模式，再加上一众全新以及重磅回归的经典战士，在推出25周年之际，《真人快打》这部史诗系列将迎来其新的高峰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>banmagame8733</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>1051310</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Paper Dolls Original</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>纸人：第一章</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>冒险,惊悚,动作,独立,解谜</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>2019年04月19日</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1051310/extras/STEAMTitle01.jpg?t=1667556779" /&gt;&lt;br&gt;&lt;strong&gt;加入纸人 Paper Dolls Original 官方玩家群：593774263，了解更多！&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;欢迎关注官方微博：北京荔枝游戏_纸人、GameraGame&lt;/strong&gt;&lt;br&gt;&lt;br&gt;对于初次游戏的玩家来说，在游戏中探索解谜直至通关，可能需要5个小时乃至更长的时间。当然，实际游戏时长将取决于玩家的解谜能力，以及操作能力。如果你十分擅长恐怖游戏，并且拥有出色的解谜能力，通关的时间也将随之缩减。对于这部分喜欢挑战的玩家，我们在游戏中准备了，简单、普通、噩梦，三个难度，届时，你可以反复尝试噩梦难度来获得最高S级的评价。&lt;br&gt;&lt;br&gt;&lt;strong&gt;背景故事：&lt;/strong&gt;&lt;br&gt;又被噩梦惊醒的杨明远着实不安，只要闭上眼睛就浮现出面目狰狞的纸人迎面扑来，迷惑与恐惧交织。近日连续失眠，日夜颠倒，耳边还不断产生幻听……已是黄昏，杨明远还是决定送女儿去她妈妈家。每次开车在这段路上都会令明远感到神伤，“如果不是这该死的抑郁症缠身，使得我的情绪不能自控，我们的感情怎么会走到如此地步！生活到底还有何意义”越想越令明远不能自已，连女儿的声音都快听不见了，耳边的幻听愈发强烈，恍惚之间，一声巨响……&lt;br&gt;&lt;br&gt;“这里是哪？”当杨明远醒来的时候，却发现自己置身一座荒废的中国古宅，这里的一切既熟悉又陌生，是梦？还是自己真的死了？明远真的恍惚了……似乎听到女儿微弱的呼救唤醒了他，勉强从地上爬起来，循着女儿的声音，向幽暗阴森的古宅内部走去。一个个谜团的背后，埋藏了百年的故事真相正在被揭开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1051310/extras/STEAMTitle02.jpg?t=1667556779" /&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;通过对古宅中各种机关的破解及故事剧情的层层推理，打开一道道被锁住的门。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;神秘而邪恶的纸人如影随形，如何躲避他们，甩掉他们，随着剧情层层推进封印他们，让那些可怕的身影无处可藏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1051310/extras/STEAMTitle03.jpg?t=1667556779" /&gt;&lt;br&gt;第一人称3D恐怖冒险解谜游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;br&gt;&lt;br&gt;&lt;strong&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;带着你的勇气来吧，殷家欢迎你。&lt;/strong&gt;</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
         <is>
           <t>1146630</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>妖語り/Yokai's Secret</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>妖语</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>成人,独立,休闲,动作,动漫色情</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>2020年02月06日</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/0127111_ss.jpg?t=1684391524" /&gt;&lt;h2 class="bb_tag"&gt;剧情概述&lt;/h2&gt;千百年来，「大和之国」的妖怪姐姐们与人类和平共处，然而妖怪姐姐们突然发生了暴动，整个世界失去了色彩。作为之前的「Master Hentai」，你承担起拯救妖怪姐姐们和世界的责任！&lt;h2 class="bb_tag"&gt;作品特征&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;一款真正的&lt;strong&gt;颜色&lt;/strong&gt;游戏！移动色块，完成色彩排列谜题，恢复颜色的秩序，揭晓妖怪暴乱的真相！&lt;strong&gt;&lt;i&gt;(對色彩識別有障礙的人士慎！入！)&lt;/i&gt;&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;14个属性各异的日本妖怪娘期待与你邂逅！❤&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;美丽的和风背景音乐，通关后即可全部赏析！&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/nekoneko.gif?t=1684391524" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gmkg11165,svmmw6271</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1151640</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Horizon Zero Dawn™ Complete Edition</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>地平线：零之曙光 完全版</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>开放世界,冒险,女性主角,单人,角色扮演</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020年08月07日</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>地球不再由人类主宰&lt;br /&gt;
+&lt;br /&gt;
+化身为埃洛伊，完整体验她的传奇冒险之旅，揭开致命机器统治世界的神秘面纱。&lt;br /&gt;
+&lt;br /&gt;
+被自己的部落放逐的年轻猎人埃洛伊，勇敢踏上旅途，探索自己的身世之谜和命运，为制止危害未来的灾难性威胁而竭力奋战。&lt;br /&gt;
+&lt;br /&gt;
+在这个危机四伏的野外世界冒险途中，你将对奇异的机器和敌对部落发起毁灭性的战略进攻。&lt;br /&gt;
+&lt;br /&gt;
+屡次获奖的《地平线 零之曙光™》是一款角色扮演类动作游戏，此PC完整版包含新增地图、技能、武器和机器的大型扩充内容《冰尘雪野》。&lt;br /&gt;
+&lt;br /&gt;
+内含：&lt;br /&gt;
+• 《地平线 零之曙光》&lt;br /&gt;
+• 扩充内容《冰尘雪野》&lt;br /&gt;
+• 卡加族风暴突击队装束及卡加巨弓&lt;br /&gt;
+• 卡加交易者包&lt;br /&gt;
+• 贝纳克族开拓者装束及贝纳克汰杀弓&lt;br /&gt;
+• 贝纳克旅行者包&lt;br /&gt;
+• 诺拉族看守人包</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>banmagame6427</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>1178490</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>ParanormalHK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>港诡实录</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>冒险,恋爱模拟,心理恐怖,多人,惊悚</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>2020年01月06日</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>《港诡实录》（原名《牛一》）是一款以现代香港为背景的恐怖冒险游戏，融合了大量香港本地的都市传说，玩家能够从中体验到许多独特的本地文化和中国传统民俗习惯。同时，游戏中还原了唐楼、粤剧戏棚、港式屋邨等极具中国地方文化特色的建筑，玩家可以在其中自由探索，感受浓厚的香港氛围。&lt;br&gt;&lt;br&gt;官方QQ2群：1047521733&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1178490/extras/1.gif?t=1661250615" /&gt;&lt;br&gt;&lt;br&gt;在游戏过程中，玩家需要面对不断出现的谜题，同时还要收集零碎的信息，推进剧情，从而去解开隐藏的诡异事件背后的真相。&lt;h2 class="bb_tag"&gt;故事背景&lt;/h2&gt;盂兰节当晚，几名年轻人聚集到阴森的九龙城寨遗址，他们是人气探灵节目《逃出灵界点》的节目组成员。原本计划录制《逃出灵界点》盂兰节特别篇，然而尚未开始录制，摄像机就罢工了。看似出师不顺，实际上却暗示着，这只是一切的开始……&lt;br&gt;　&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1178490/extras/4.gif?t=1661250615" /&gt;&lt;br&gt;&lt;br&gt;节目组成员陆续失踪，女主持人嘉慧的行为变得十分古怪，诡异的氛围笼罩着整个节目组，男主人公阿乐也身陷其中。面对已经超出常人认知的各种奇怪现象，阿乐不禁怀疑是否是因为有人在不经意间触碰了某些禁忌。虽然疑云丛生，到处都是不解的谜团，但是阿乐却无心深究，他所想的只是尽快找到嘉慧，并把她带离这里……&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;以香港都市传说为题材，融入真实事件，忠实还原极具时代感的香港特色建筑，带玩家领略香港本地文化和民俗习惯，为玩家创造出独特的恐怖感官体验。&lt;br&gt;　&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1178490/extras/3.gif?t=1661250615" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;在多个场景中自由探索，收集遗落在各处的信息碎片，找到前行的道路，努力还原出事件的真相。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;设计精巧的谜题，在其中还融入了大量传统的民俗元素，通过各种线索找出其中的关联，层层推进，解开谜团。&lt;br&gt;　&lt;br&gt;&lt;strong&gt;敌人&lt;/strong&gt;&lt;br&gt;面对诡异的敌人，你将意识到自己的渺小，一边躲避它们的追击，一边想方设法逃出生天，这将是一场斗智斗勇的对决。</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>qaugw30877</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>1182090</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Mr. Pumpkin 2: Kowloon walled city</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>南瓜先生2 九龙城寨</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>独立,休闲,解谜,指向点击,冒险</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>2019年11月13日</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>《南瓜先生2 九龙城寨》是南瓜先生系列作品的续作。以南瓜头形象的小人物为主人公，讲述一些曾经居住在香港贫民窟九龙城寨的人和他们的故事。背景采用了真实香港历史场景的美术复原,对香港电影故事的致敬和拓展。&lt;br /&gt;
 九龙城寨是香港殖民时代的一座围城，内里有蛛网般的道路，破败密集的高耸楼宇，压迫感的霓虹招牌，不见天日的狭窄暗巷，觉上的独特性，麻雀虽小五脏俱全，一个人间地狱，一个乌托邦。游戏内用缆车、双层巴士，铛铛车等香港传统的交通工具衔接起各个游戏章节，让玩家能体会到一种观看城寨版《清明上河图》的感觉。&lt;br /&gt;
@@ -1480,453 +2397,597 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8735515147</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>1274600</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>The Last Faith</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>最后的信仰</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>类银河战士恶魔城,类魂系列,像素图形,黑暗奇幻,哥特</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023年11月15日</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1702670786" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>banmagame8733</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1334040</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Paper Dolls 2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>纸人2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>第一人称射击,恋爱模拟,射击,心理恐怖,动作冒险</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020年07月03日</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/hb_616.jpg?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《纸人贰》延续了《纸人》1代的生存恐怖，冒险解谜的游戏风格。&lt;/strong&gt;&lt;br&gt;这部作品将为大家带来较一代更为丰富的游玩体验和更具有挑战性的Boss战，在关卡设计、场景氛围、故事剧情表现、游戏玩法，动画、音效等各个方面都有所提升。游戏增加了二周目难度，对于初次探索游玩的玩家可能需要10个小时左右的时间……&lt;br&gt;&lt;br&gt;&amp;gt;在续篇中见证前作主角“杨明远”为了寻找女儿上到殷府的二楼，结局到底如何？&lt;br&gt;&amp;gt;经过一段时间的休养，杨明远的身体状况有了些许恢复，体力有所增强……&lt;br&gt;&amp;gt;这座清末时期的幽森古宅为何充满了怨气？曾经声名显赫的殷府到底发生过什么？杨明远与这座百年古宅究竟有何渊源？&lt;br&gt;&amp;gt;让我们相约7.3 ,   与杨明远一起回到100年前的殷家一探究竟&lt;br&gt;&lt;br&gt;欢迎关注《纸人贰》官方微博：北京荔枝游戏_纸人&lt;br&gt;加入纸人②官方群：170580619，了解更多内容&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot12.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;STORY&lt;/h2&gt;&lt;br&gt;再一次从噩梦中惊醒的杨明远，久久无法让情绪从惊恐不安中平复。只要闭上双眼，脑海中就会吱吱呀呀得不停放映着那卷老旧胶片般的画面——枯朽的古宅，阴森的灵堂，缥缈的身影，还有诡异的纸人穿梭其中，循环往复……然而，似乎还有某种声音夹杂其中，如同召唤又似催促的呢喃，却怎么也听不清。&lt;br&gt;&lt;br&gt;杨明远盯着窗外染红天空的夕阳，决定把这一切都归咎于工作的压力和生活的烦恼。&lt;br&gt;“专注于当下……”他对自己这样说道。&lt;br&gt;随后，拿起外套和汽车钥匙，叫女儿收拾好东西，准备出发。&lt;br&gt;是的，今天是女儿该回妈妈家的日子。&lt;br&gt;当杨明远关门的一瞬间，桌子上的药盒让他迟疑了片刻。&lt;br&gt;“那该死的梦一定和这药片有关！我要把它全部扔进垃圾桶，再换个医生！”暗自下定决心后，杨明远砰得一声关上了房门。&lt;br&gt;&lt;br&gt;当高速路上的车灯渐渐变成一条条飞逝的线条，路灯的光线明亮得刺眼晕眩时，杨明远又听到了那个熟悉的声音。&lt;br&gt;女儿好像说了些什么，虽然就在身边，却如同隔着一堵厚厚的墙壁般不真切。&lt;br&gt;“什么……你究竟要我做什么？！把话说清楚！”他的内心歇斯底里的咆哮道。&lt;br&gt;恍惚间，光影闪烁，在一声巨响之后，整个世界都安静了下来……&lt;br&gt;&lt;br&gt;“这里是……”当杨明远醒来的时候，却发现自己置身一座荒弃的古宅。这里的一切既熟悉又陌生，恍若梦中。但女儿微弱的呼喊唤醒了杨明远的理智，他勉强从地上爬起来，循着女儿的声音，向幽暗阴森的黑暗走去。一个个谜团的背后，埋藏着怎样的秘密？真相正在被层层剥开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot10.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;殷府及古代背景&lt;/strong&gt;&lt;br&gt;清朝末年，京城西郊有一座藏于山林之间的锦绣府邸。此宅的主人姓殷，出身世家，少年得志，颇受朝廷重用。曾领兵平乱四方，官至极品。人到中年方娶得一房绝色娇妻，二人门当户对，情投意合。但好景不长，朝廷权力更迭，殷老爷官场失意，郁郁不得志，最终归隐避世。&lt;br&gt;&lt;br&gt;殷老爷择一处山水掩映的宝地，修建宅邸，只带亲信随从侍奉左右，又不惜重金请来两位门客作伴。一位是博古通今的柳先生，一位是精通水墨丹青的赵画师。虽然生活远比以往孤寂清冷，却也平和安然。然而，多年膝下无子的殷老爷，忽闻夫人有喜，却如同平静水面被一颗小石子激起千里涟漪。不堪的流言让宅子里人心动荡，一桩桩怪诞的悲剧接踵而来……&lt;br&gt;&lt;br&gt;然而，一场突降的暴雨，连绵数月。待雨停之后，通往这座隐世宅邸的路却再也无人能寻到。殷府上下和它不为人知的秘密一起消失在人们记忆里……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot9.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;第一人称3D恐怖冒险游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;h2 class="bb_tag"&gt;FEATURE&lt;/h2&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;寻找女儿的路途障碍重重，如影随形的亡魂无处不在，如何躲避他们，甩掉他们，如何战胜他们……随着古宅往事渐渐被揭开，事情的真相呼之欲出。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;冤死的亡魂已化为厉鬼，在厉鬼环绕的宅子里，稍有不慎就会迎接死亡的降临。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;在恐怖压抑的清末古宅中用你的智慧解开所有谜团，根据散落的故事碎片推理，打开那一道道被封印了百年的大门。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot11.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;虚幻引擎打造次时代主机游戏《纸人》系列新作《纸人贰》Paper Dolls 2： 栩栩如生的写实表现方式、精美的画面描绘出一百多年前的殷家府邸，带给你身临其境的沉浸感。&lt;br&gt;&lt;br&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>svvib92669</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1337520</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Risk of Rain Returns</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>雨中冒险: 回归</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>在线合作,动作类 Rogue,多人,玩家对战环境,2D</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023年11月09日</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/01_《雨中冒险》回来了！.gif?t=1699995226" /&gt;&lt;br&gt;精心设计、精美重置而且带来了更多全新玩法：《Risk of Rain》 将以前所未有的全新面貌重新归来！深入标志性的探索游戏世界，见证琳琅满目的独特战利品组合， 全新的幸存者、焕然一新的多人游戏模式以及更多内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/02_Before_and_after_revised.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/03_探索全新玩法.gif?t=1699995226" /&gt;&lt;br&gt;磨砺各类技能和能力，发现全新幸存者，迎接愈发困难的挑战！ &amp;quot;探索琼泥V之下沉睡着的远古奥秘。不要放过任何蛛丝马迹， 每一份日志、石板乃至加普都有可能带来全新的内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/04_unlock_notification_popping_up.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/05_CN.gif?t=1699995226" /&gt;&lt;br&gt;虽然您们的飞船遭遇了神秘袭击，幸运的是依旧不乏有多位幸存者的身影。切割粉碎，与 重新回归的厨师一起伸张正义，作为执法官固守阵地并用盾牌守护队友，或者喷吐 剧毒泥浆，化身最受喜爱的紫色怪物：呛鼻毒师！铸就全新的道路，探索15位 独特幸存者，精通每位角色带来的全新能力。&lt;br&gt;&lt;br&gt;另外还请准备好迎接流浪者！这位心灵手巧的斗士能够从打败的敌人身上收集碎片，并创造能够暂时强化队友的物品。除此以外，她还能够使用这股力量释放毁灭性的烈焰，焚烧大片的区域。流浪者将为任何幸存者队伍提供不可或缺的帮助。在支援队伍的同时她也有能力自食其力，这证明流浪者绝非仅是一位偷渡客那么简单。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/06_place_holder_gif.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/07_单人游玩或与好友组队.gif?t=1699995226" /&gt;&lt;br&gt;多样化是毁灭的最佳佐料。选择至多11种神器，为每一轮游戏带来不一样的体验！也许 您想要开局获得每次使用都会变化的随机装备物品，或者想要 每隔10分钟体验一次狂暴魔精们的入侵。尝试不同 神器组合，探索刺激有趣的全新玩法。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/08_Gif_of_survivors_jumping_out_Desolate_Forest_zoomed_in.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/09_威力强劲的战利品.gif?t=1699995226" /&gt;&lt;br&gt;在星球上厮杀时不要忘记搜索各类宝贵货物。这些物品将成为您的 救命法宝，它们能令您跑得更快，造成更多伤害或者跳跃到更高的位置。除了这些以外， 有些物品还会给您带来更不可思议的变化：比如说稀有的尤克里里，这种物品将为您的攻击带来 闪电”般的激荡乐律。如果想要大肆爆炸，记得寻找完美巨兽， 届时再普通不过的攻击也将引发一连串的美妙轰鸣。随心所欲组合， 见证千奇百怪的效果。爆炸性连锁闪电不过是 您的疯狂杰作的第一步！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/10_Potent_Pick_Ups___fireboots_2.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/11_危机四伏的琼泥V.gif?t=1699995226" /&gt;&lt;br&gt;琼泥V之上存在着来源于不同星球上的生物。当 这些怪物在当初的母星上濒临灭绝时，一股神秘力量将它们带到了 琼泥V。这颗星球迅速变成了容纳着全宇宙最为凶狠的怪物的 动物园”，而且最糟糕的是，它们并不喜欢不速之客（也就是“您们”）的到访。 激活遍布星球的古代传送器，穿越全部10种地貌环境。 奋力求生，杀出一条血路并重新回到当初被迫遗弃的飞船。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/12_Diversity_of_Environment.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/13_改天换地的神器.gif?t=1699995226" /&gt;&lt;br&gt;单人或者是与队友一同降落至星球地表！选择能够互相扶持、 互补不足的幸存者小队，或者由着性子来，谁的枪炮最猛就选谁（最佳答案： 装卸工）。享受至多四人的在线与本地合作模式，记住，您并不是一个人。 雨中冒险: 回归 将带来改良后的全新多人游戏服务以确保 您的队伍将能够顺畅自如地挑战琼泥V之上的怪物洪潮。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/14_place_holder_gif_3_possible_artifact.gif?t=1699995226" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1509960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PICO PARK</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PICO PARK</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>多人,在线合作,平台解谜,休闲,合作</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2021年05月07日</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt; * If you are connecting more than 5 Xbox controllers, please enable &amp;quot;Xbox Extended Feature Support&amp;quot; in Controller Settings.&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;PICO PARK is a cooperative local/online multiplay action puzzle game for 2-8 players.&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;The rule is quite simple: &amp;quot;Get all the keys and get to the goal and clear&amp;quot;, but all 48 levels have special gimmicks designed specifically for multiplayer. At most levels, different gimmicks will appear as you move forward, and you will need to consult with your peers and think about new ways to cooperate.&lt;br&gt;&lt;br&gt;This version is essentially a port of the one we released on the Nintendo Switch in 2019.&lt;br&gt;However, it's not just a port, it now supports online play.&lt;br&gt;&lt;br&gt;The 2016 version of this link has been renamed  &amp;quot;PICO PARK:Classic Edition&amp;quot;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/&lt;/a&gt;&lt;br&gt;&lt;br&gt;[Flexible Level]&lt;br&gt;Each level of PICO PARK can be cleared when players get the key,unlock the door and all players reach it.But, every level requires cooperation to complete..&lt;br&gt;&lt;br&gt;[Battle Mode]&lt;br&gt;Co-op play is the main work of this game, but let's compete with friends in BATTLE MODE once co-op play is completed.&lt;br&gt;&lt;br&gt;[Endless Mode]&lt;br&gt;Even if you complete all 48 stages, you can play ENDLESS mode to aim at high score by collaborating with friends. By collaborating with friends, your score will grow faster.&lt;br&gt;&lt;br&gt;[Online Play Mode]&lt;br&gt;You can play together online with people who are far away from you. &lt;br&gt;However, this is a game where communication is very important, so we recommend using Discord or Zoom to play while talking.&lt;br&gt;&lt;br&gt;[TecoGamePad]&lt;br&gt;TecoGamePad change your smartphone turn to gamepad (for local play mode)&lt;br&gt;Android: Sorry,It is no longer available.&lt;br&gt;iOS:&lt;a href="http://itunes.apple.com/us/app/tecogamepad/id1080510485" target="_blank" rel=""  &gt;http://itunes.apple.com/us/app/tecogamepad/id1080510485&lt;/a&gt;&lt;br&gt;&lt;br&gt;Let's have fun playing PICO PARK with your friends!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>jyhca12624</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1627720</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Lies of P</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>匹诺曹的谎言</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>类魂系列,动作,探索,黑暗奇幻,动作角色扮演</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023年09月18日</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1627720/extras/steam_ending.gif?t=1666835591" /&gt;&lt;br&gt;你将成为在充满黑暗和疯狂的城市克拉特独自留下的玩偶匹诺曹。&lt;br&gt;从火车站苏醒的你的线索只有一个。&lt;br&gt;&lt;br&gt;“寻找杰斐特老翁吧。”&lt;br&gt;&lt;br&gt;你必须找到杰斐特的灵感，克服所有的威胁。&lt;br&gt;谁也帮不了你，谁也不能相信。&lt;br&gt;&lt;br&gt;你必须选择谎言来做人。&lt;br&gt;&lt;br&gt;Lies Of P是以美丽年代为背景展开的残酷童话动作游戏。&lt;br&gt;美丽的城市变成了凶宅，到了呐喊不止的人性丧失的时代。&lt;br&gt;古典匹诺曹改编成残酷剧的Lies Of P展现了充满魅力的剧本和紧张感十足的魂类动作冒险。&lt;br&gt;你可以体验为了成为人类而踏上旅程的匹诺曹残酷的明天。&lt;h2 class="bb_tag"&gt;残酷动画的重造&lt;/h2&gt;重新改造著名的古典匹诺曹，残酷与众不同的外貌重生。&lt;br&gt;以成为人类的匹诺曹的冒险为主题，陷入绝境危机的克拉特西为背景，描绘了匹诺曹为了成为人类而战的过程。&lt;h2 class="bb_tag"&gt;视觉风格&lt;/h2&gt;以19世纪到20世纪初的贝尔•埃科夫时代为背景，创造了一个面临戏剧性事态和危机的克拉特西的空间，&lt;br&gt;在那里，多种文化绽放、崩塌的繁荣和没落的面貌被表现为优秀的视觉要素。&lt;h2 class="bb_tag"&gt;谎言任务和多结局&lt;/h2&gt;通过相互有机式的程序性任务（Procedural Quest）系统进行谎言的过程中，会延续到多种分期，影响后续的任务，得出各种不同的结局。&lt;h2 class="bb_tag"&gt;武器组合系统&lt;/h2&gt;将游戏内可获得的武器以多种方式组合，找出自己的要素，提供战斗应用的手段，&lt;br&gt;研究新的组合，为了获得更好的武器而进行探索。&lt;h2 class="bb_tag"&gt;通过身体改造的技能系统&lt;/h2&gt;人偶皮诺曹可以改造身体的一部分，通过改造可以获得新技能并用于战斗。&lt;br&gt;通过改造获得的技能不一定只包括战斗技能，还包括各种有用的功能。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ha1hn0ub8rc6</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1657630</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Slime Rancher 2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>史莱姆牧场2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>抢先体验,可爱,彩色,放松,开放世界</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2023年11月15日</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1701261553" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1701261553" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1334040</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Paper Dolls 2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>纸人2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>第一人称射击,恋爱模拟,射击,心理恐怖,动作冒险</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2020年07月03日</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/hb_616.jpg?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《纸人贰》延续了《纸人》1代的生存恐怖，冒险解谜的游戏风格。&lt;/strong&gt;&lt;br&gt;这部作品将为大家带来较一代更为丰富的游玩体验和更具有挑战性的Boss战，在关卡设计、场景氛围、故事剧情表现、游戏玩法，动画、音效等各个方面都有所提升。游戏增加了二周目难度，对于初次探索游玩的玩家可能需要10个小时左右的时间……&lt;br&gt;&lt;br&gt;&amp;gt;在续篇中见证前作主角“杨明远”为了寻找女儿上到殷府的二楼，结局到底如何？&lt;br&gt;&amp;gt;经过一段时间的休养，杨明远的身体状况有了些许恢复，体力有所增强……&lt;br&gt;&amp;gt;这座清末时期的幽森古宅为何充满了怨气？曾经声名显赫的殷府到底发生过什么？杨明远与这座百年古宅究竟有何渊源？&lt;br&gt;&amp;gt;让我们相约7.3 ,   与杨明远一起回到100年前的殷家一探究竟&lt;br&gt;&lt;br&gt;欢迎关注《纸人贰》官方微博：北京荔枝游戏_纸人&lt;br&gt;加入纸人②官方群：170580619，了解更多内容&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot12.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;STORY&lt;/h2&gt;&lt;br&gt;再一次从噩梦中惊醒的杨明远，久久无法让情绪从惊恐不安中平复。只要闭上双眼，脑海中就会吱吱呀呀得不停放映着那卷老旧胶片般的画面——枯朽的古宅，阴森的灵堂，缥缈的身影，还有诡异的纸人穿梭其中，循环往复……然而，似乎还有某种声音夹杂其中，如同召唤又似催促的呢喃，却怎么也听不清。&lt;br&gt;&lt;br&gt;杨明远盯着窗外染红天空的夕阳，决定把这一切都归咎于工作的压力和生活的烦恼。&lt;br&gt;“专注于当下……”他对自己这样说道。&lt;br&gt;随后，拿起外套和汽车钥匙，叫女儿收拾好东西，准备出发。&lt;br&gt;是的，今天是女儿该回妈妈家的日子。&lt;br&gt;当杨明远关门的一瞬间，桌子上的药盒让他迟疑了片刻。&lt;br&gt;“那该死的梦一定和这药片有关！我要把它全部扔进垃圾桶，再换个医生！”暗自下定决心后，杨明远砰得一声关上了房门。&lt;br&gt;&lt;br&gt;当高速路上的车灯渐渐变成一条条飞逝的线条，路灯的光线明亮得刺眼晕眩时，杨明远又听到了那个熟悉的声音。&lt;br&gt;女儿好像说了些什么，虽然就在身边，却如同隔着一堵厚厚的墙壁般不真切。&lt;br&gt;“什么……你究竟要我做什么？！把话说清楚！”他的内心歇斯底里的咆哮道。&lt;br&gt;恍惚间，光影闪烁，在一声巨响之后，整个世界都安静了下来……&lt;br&gt;&lt;br&gt;“这里是……”当杨明远醒来的时候，却发现自己置身一座荒弃的古宅。这里的一切既熟悉又陌生，恍若梦中。但女儿微弱的呼喊唤醒了杨明远的理智，他勉强从地上爬起来，循着女儿的声音，向幽暗阴森的黑暗走去。一个个谜团的背后，埋藏着怎样的秘密？真相正在被层层剥开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot10.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;殷府及古代背景&lt;/strong&gt;&lt;br&gt;清朝末年，京城西郊有一座藏于山林之间的锦绣府邸。此宅的主人姓殷，出身世家，少年得志，颇受朝廷重用。曾领兵平乱四方，官至极品。人到中年方娶得一房绝色娇妻，二人门当户对，情投意合。但好景不长，朝廷权力更迭，殷老爷官场失意，郁郁不得志，最终归隐避世。&lt;br&gt;&lt;br&gt;殷老爷择一处山水掩映的宝地，修建宅邸，只带亲信随从侍奉左右，又不惜重金请来两位门客作伴。一位是博古通今的柳先生，一位是精通水墨丹青的赵画师。虽然生活远比以往孤寂清冷，却也平和安然。然而，多年膝下无子的殷老爷，忽闻夫人有喜，却如同平静水面被一颗小石子激起千里涟漪。不堪的流言让宅子里人心动荡，一桩桩怪诞的悲剧接踵而来……&lt;br&gt;&lt;br&gt;然而，一场突降的暴雨，连绵数月。待雨停之后，通往这座隐世宅邸的路却再也无人能寻到。殷府上下和它不为人知的秘密一起消失在人们记忆里……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot9.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;第一人称3D恐怖冒险游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;h2 class="bb_tag"&gt;FEATURE&lt;/h2&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;寻找女儿的路途障碍重重，如影随形的亡魂无处不在，如何躲避他们，甩掉他们，如何战胜他们……随着古宅往事渐渐被揭开，事情的真相呼之欲出。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;冤死的亡魂已化为厉鬼，在厉鬼环绕的宅子里，稍有不慎就会迎接死亡的降临。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;在恐怖压抑的清末古宅中用你的智慧解开所有谜团，根据散落的故事碎片推理，打开那一道道被封印了百年的大门。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot11.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;虚幻引擎打造次时代主机游戏《纸人》系列新作《纸人贰》Paper Dolls 2： 栩栩如生的写实表现方式、精美的画面描绘出一百多年前的殷家府邸，带给你身临其境的沉浸感。&lt;br&gt;&lt;br&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1337520</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Risk of Rain Returns</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>雨中冒险: 回归</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>在线合作,动作类 Rogue,多人,玩家对战环境,2D</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2022年09月23日</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Slime Rancher是一款荣获盛誉人气爆棚的游戏，在全球拥有超过1千5百万的粉丝。而Slime Rancher 2就是这款游戏的续篇。碧翠丝·乐步的冒险并未停歇，这次她来到了彩虹岛。这座神秘的岛屿充满了古老的科技、未知的自然资源，还有铺天盖地的弹嘟嘟史莱姆，是一个尚未被探索的全新世界。&lt;br&gt;为了解开岛屿的谜团，探求它的真实面貌，碧翠丝需要在一座美丽的温室里搭建设施、经营牧场以及务农。透过温室闪亮的玻璃墙壁，可以欣赏到这座炫目天堂的全貌——也是碧翠丝的新家园。&lt;br&gt;&lt;br&gt;亮点&lt;h2 class="bb_tag"&gt;探索全新的多彩世界&lt;/h2&gt;碧翠丝·乐步的牧场冒险揭开新篇章，这次她来到了一个神秘的虹彩斑斓的岛屿。&lt;h2 class="bb_tag"&gt;探索全新的弹嘟嘟史莱姆&lt;/h2&gt;跳棉史莱姆还有垂钓史莱姆，把这些在致远牧场见不到的史莱姆收集起来吧。&lt;h2 class="bb_tag"&gt;在彩虹岛上建造一个温室&lt;/h2&gt;用史莱姆结晶赚取新币，再加上收集来的彩虹岛资源，这样就能升级你的真空枪，建造新装置以及扩张温室了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>21823670</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1681430</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>机械战警：暴戾都市</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>第一人称射击,动作,第一人称,单人,射击</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1701074570" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1701074570" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1701074570" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DeSDy7773</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1687950</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Persona 5 Royal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>女神异闻录5皇家版</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>日系角色扮演,剧情丰富,动漫,好评原声音轨,回合制战斗</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2022年10月21日</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/1_Cutscene.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;由ATLUS倾情奉上，青春RPG系列游戏最新作《P5R》再度登场。主角是因为某些原因转学至“东京”的高中的少年。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/2_Summons.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;白天是普通的高中生。放学后则化身为盗取堕落大人们扭曲欲望的怪盗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/4_Tokyo_Walking.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;个性丰富的同伴们渴望的“改变社会”会迎来怎样的结局…？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/5_Showtime.gif?t=1664278874"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>47233357,36363359</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1735700</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Back to the Dawn</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>动物迷城</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>yihpe56448</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1751350</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Don't Die In The West</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>牛仔不能死</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>制作,生活模拟,西部,探索,沙盒</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>2023年11月09日</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/01_《雨中冒险》回来了！.gif?t=1699995226" /&gt;&lt;br&gt;精心设计、精美重置而且带来了更多全新玩法：《Risk of Rain》 将以前所未有的全新面貌重新归来！深入标志性的探索游戏世界，见证琳琅满目的独特战利品组合， 全新的幸存者、焕然一新的多人游戏模式以及更多内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/02_Before_and_after_revised.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/03_探索全新玩法.gif?t=1699995226" /&gt;&lt;br&gt;磨砺各类技能和能力，发现全新幸存者，迎接愈发困难的挑战！ &amp;quot;探索琼泥V之下沉睡着的远古奥秘。不要放过任何蛛丝马迹， 每一份日志、石板乃至加普都有可能带来全新的内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/04_unlock_notification_popping_up.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/05_CN.gif?t=1699995226" /&gt;&lt;br&gt;虽然您们的飞船遭遇了神秘袭击，幸运的是依旧不乏有多位幸存者的身影。切割粉碎，与 重新回归的厨师一起伸张正义，作为执法官固守阵地并用盾牌守护队友，或者喷吐 剧毒泥浆，化身最受喜爱的紫色怪物：呛鼻毒师！铸就全新的道路，探索15位 独特幸存者，精通每位角色带来的全新能力。&lt;br&gt;&lt;br&gt;另外还请准备好迎接流浪者！这位心灵手巧的斗士能够从打败的敌人身上收集碎片，并创造能够暂时强化队友的物品。除此以外，她还能够使用这股力量释放毁灭性的烈焰，焚烧大片的区域。流浪者将为任何幸存者队伍提供不可或缺的帮助。在支援队伍的同时她也有能力自食其力，这证明流浪者绝非仅是一位偷渡客那么简单。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/06_place_holder_gif.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/07_单人游玩或与好友组队.gif?t=1699995226" /&gt;&lt;br&gt;多样化是毁灭的最佳佐料。选择至多11种神器，为每一轮游戏带来不一样的体验！也许 您想要开局获得每次使用都会变化的随机装备物品，或者想要 每隔10分钟体验一次狂暴魔精们的入侵。尝试不同 神器组合，探索刺激有趣的全新玩法。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/08_Gif_of_survivors_jumping_out_Desolate_Forest_zoomed_in.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/09_威力强劲的战利品.gif?t=1699995226" /&gt;&lt;br&gt;在星球上厮杀时不要忘记搜索各类宝贵货物。这些物品将成为您的 救命法宝，它们能令您跑得更快，造成更多伤害或者跳跃到更高的位置。除了这些以外， 有些物品还会给您带来更不可思议的变化：比如说稀有的尤克里里，这种物品将为您的攻击带来 闪电”般的激荡乐律。如果想要大肆爆炸，记得寻找完美巨兽， 届时再普通不过的攻击也将引发一连串的美妙轰鸣。随心所欲组合， 见证千奇百怪的效果。爆炸性连锁闪电不过是 您的疯狂杰作的第一步！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/10_Potent_Pick_Ups___fireboots_2.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/11_危机四伏的琼泥V.gif?t=1699995226" /&gt;&lt;br&gt;琼泥V之上存在着来源于不同星球上的生物。当 这些怪物在当初的母星上濒临灭绝时，一股神秘力量将它们带到了 琼泥V。这颗星球迅速变成了容纳着全宇宙最为凶狠的怪物的 动物园”，而且最糟糕的是，它们并不喜欢不速之客（也就是“您们”）的到访。 激活遍布星球的古代传送器，穿越全部10种地貌环境。 奋力求生，杀出一条血路并重新回到当初被迫遗弃的飞船。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/12_Diversity_of_Environment.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/13_改天换地的神器.gif?t=1699995226" /&gt;&lt;br&gt;单人或者是与队友一同降落至星球地表！选择能够互相扶持、 互补不足的幸存者小队，或者由着性子来，谁的枪炮最猛就选谁（最佳答案： 装卸工）。享受至多四人的在线与本地合作模式，记住，您并不是一个人。 雨中冒险: 回归 将带来改良后的全新多人游戏服务以确保 您的队伍将能够顺畅自如地挑战琼泥V之上的怪物洪潮。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/14_place_holder_gif_3_possible_artifact.gif?t=1699995226" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1627720</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Lies of P</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>匹诺曹的谎言</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>类魂系列,动作,探索,黑暗奇幻,动作角色扮演</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2023年09月18日</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1627720/extras/steam_ending.gif?t=1666835591" /&gt;&lt;br&gt;你将成为在充满黑暗和疯狂的城市克拉特独自留下的玩偶匹诺曹。&lt;br&gt;从火车站苏醒的你的线索只有一个。&lt;br&gt;&lt;br&gt;“寻找杰斐特老翁吧。”&lt;br&gt;&lt;br&gt;你必须找到杰斐特的灵感，克服所有的威胁。&lt;br&gt;谁也帮不了你，谁也不能相信。&lt;br&gt;&lt;br&gt;你必须选择谎言来做人。&lt;br&gt;&lt;br&gt;Lies Of P是以美丽年代为背景展开的残酷童话动作游戏。&lt;br&gt;美丽的城市变成了凶宅，到了呐喊不止的人性丧失的时代。&lt;br&gt;古典匹诺曹改编成残酷剧的Lies Of P展现了充满魅力的剧本和紧张感十足的魂类动作冒险。&lt;br&gt;你可以体验为了成为人类而踏上旅程的匹诺曹残酷的明天。&lt;h2 class="bb_tag"&gt;残酷动画的重造&lt;/h2&gt;重新改造著名的古典匹诺曹，残酷与众不同的外貌重生。&lt;br&gt;以成为人类的匹诺曹的冒险为主题，陷入绝境危机的克拉特西为背景，描绘了匹诺曹为了成为人类而战的过程。&lt;h2 class="bb_tag"&gt;视觉风格&lt;/h2&gt;以19世纪到20世纪初的贝尔•埃科夫时代为背景，创造了一个面临戏剧性事态和危机的克拉特西的空间，&lt;br&gt;在那里，多种文化绽放、崩塌的繁荣和没落的面貌被表现为优秀的视觉要素。&lt;h2 class="bb_tag"&gt;谎言任务和多结局&lt;/h2&gt;通过相互有机式的程序性任务（Procedural Quest）系统进行谎言的过程中，会延续到多种分期，影响后续的任务，得出各种不同的结局。&lt;h2 class="bb_tag"&gt;武器组合系统&lt;/h2&gt;将游戏内可获得的武器以多种方式组合，找出自己的要素，提供战斗应用的手段，&lt;br&gt;研究新的组合，为了获得更好的武器而进行探索。&lt;h2 class="bb_tag"&gt;通过身体改造的技能系统&lt;/h2&gt;人偶皮诺曹可以改造身体的一部分，通过改造可以获得新技能并用于战斗。&lt;br&gt;通过改造获得的技能不一定只包括战斗技能，还包括各种有用的功能。</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1657630</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Slime Rancher 2</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>史莱姆牧场2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>抢先体验,可爱,彩色,放松,开放世界</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2022年09月23日</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Slime Rancher是一款荣获盛誉人气爆棚的游戏，在全球拥有超过1千5百万的粉丝。而Slime Rancher 2就是这款游戏的续篇。碧翠丝·乐步的冒险并未停歇，这次她来到了彩虹岛。这座神秘的岛屿充满了古老的科技、未知的自然资源，还有铺天盖地的弹嘟嘟史莱姆，是一个尚未被探索的全新世界。&lt;br&gt;为了解开岛屿的谜团，探求它的真实面貌，碧翠丝需要在一座美丽的温室里搭建设施、经营牧场以及务农。透过温室闪亮的玻璃墙壁，可以欣赏到这座炫目天堂的全貌——也是碧翠丝的新家园。&lt;br&gt;&lt;br&gt;亮点&lt;h2 class="bb_tag"&gt;探索全新的多彩世界&lt;/h2&gt;碧翠丝·乐步的牧场冒险揭开新篇章，这次她来到了一个神秘的虹彩斑斓的岛屿。&lt;h2 class="bb_tag"&gt;探索全新的弹嘟嘟史莱姆&lt;/h2&gt;跳棉史莱姆还有垂钓史莱姆，把这些在致远牧场见不到的史莱姆收集起来吧。&lt;h2 class="bb_tag"&gt;在彩虹岛上建造一个温室&lt;/h2&gt;用史莱姆结晶赚取新币，再加上收集来的彩虹岛资源，这样就能升级你的真空枪，建造新装置以及扩张温室了。</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1681430</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>RoboCop: Rogue City</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>机械战警：暴戾都市</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>第一人称射击,动作,第一人称,单人,射击</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2023年11月03日</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1701074570" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1701074570" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1701074570" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1687950</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Persona 5 Royal</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>女神异闻录5皇家版</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2022年10月21日</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/1_Cutscene.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;由ATLUS倾情奉上，青春RPG系列游戏最新作《P5R》再度登场。主角是因为某些原因转学至“东京”的高中的少年。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/2_Summons.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;白天是普通的高中生。放学后则化身为盗取堕落大人们扭曲欲望的怪盗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/4_Tokyo_Walking.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;个性丰富的同伴们渴望的“改变社会”会迎来怎样的结局…？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/5_Showtime.gif?t=1664278874"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1735700</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Back to the Dawn</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>动物迷城</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2023年11月03日</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1751350</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Don't Die In The West</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>牛仔不能死</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>制作,生活模拟,西部,探索,沙盒</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2023年11月09日</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1699540419" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>maaartiinn1,vAbuDy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1790230</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - Editor Extensions</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - 编辑器扩展</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2021年11月26日</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>50141996</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>1868140</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>DAVE THE DIVER</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>潜水员戴夫</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>像素图形,休闲,冒险,管理,角色扮演</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>2023年06月28日</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1701939742" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1701939742" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1701939742" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1702627876" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1702627876" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1702627876" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>xebqk71569</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>机甲,角色自定义,动作,第三人称,机器人</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -1946,191 +3007,324 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2103140</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Magicraft</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>魔法工艺</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>类 Rogue,角色扮演,弹幕射击,轻度 Rogue,牌组构建</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2023年11月02日</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>官方QQ群号:&lt;br&gt;官方1群：851267023（满）&lt;br&gt;官方2群：692422128（满）&lt;br&gt;官方3群：917384907（推荐）&lt;br&gt;dodo语音社区：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://imdodo.com/s/228050?inv=HVNQ3" target="_blank" rel=" noopener"  &gt;https://imdodo.com/s/228050?inv=HVNQ3&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;传说！拔出法杖的人将会成为拯救世界的勇者！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《魔法工艺》是一款魔法动作Roguelike游戏，也是一款俯视角Roguelike法术构筑类游戏，利用各种各样的法术搭配出难以想象的法术效果，超高自由度的构建就连开发者也无法穷尽。游戏以被古神入侵的世界为核心，打造了一个架空的魔法奇幻世界。 玩家将作为误入此世界又拔出了传说法杖的勇者，讨伐怪物、组合独一无二的法术、击败古神、拯救这个被古神入侵的世界！&lt;br&gt;&lt;br&gt;&lt;strong&gt;—Q版的画风—&lt;/strong&gt;&lt;br&gt;魔性的画风，奇异的生物，无厘头的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc1.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—自由的组合—&lt;/strong&gt;&lt;br&gt;多样的法术，独特的法杖，奇妙的组合。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc3.gif?t=1698913066" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc4.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—随机的强化—&lt;/strong&gt;&lt;br&gt;随机的法杖，随机的法术，随机的遗物。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc5.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—炫酷的战斗—&lt;/strong&gt;&lt;br&gt;森林的异变，城堡的古旧，时空裂缝的混乱， 多彩绚丽的华丽战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc6.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—趣味的解谜—&lt;/strong&gt;&lt;br&gt;还有更多益智关卡等你来玩！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc7.gif?t=1698913066" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cuqikk0721</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>2125090</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Tintin Reporter - Cigars of the Pharaoh</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>丁丁历险记：法老的雪茄</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>动作,冒险,自选历险体验,动作冒险,3D</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>2023年11月08日</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>丁丁和他忠实的伙伴雪莉即将开始一段段非凡冒险……在地中海巡航时遇见萨科法格斯教授后，这位久负盛名的记者开始寻找法老基奥斯克的墓穴。&lt;br&gt;&lt;br&gt;法老的坟墓里究竟暗藏何种邪恶之秘？ &lt;br&gt;&lt;br&gt;始于埃及、迈入印度、穿越阿拉伯，丁丁和雪莉终将查清遍及整个东方的庞大毒品贩运网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;忠实于原著的多彩冒险之旅&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这款游戏涵盖丁丁宇宙的方方面面，故事叙说迂回曲折、精彩纷呈，是埃尔热伟大创意遗产的一部分，带您领略神秘埃及和其他极尽绚丽之地的魅力。《法老的雪茄》是该系列的第4段冒险。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;一款充满冒险生活风情的电子游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;和丁丁一道，开始一段振奋人心、发人深省的冒险，谨慎探索东方、墓穴、沙漠、茂密丛林的深处或其他危机四伏之地，尝试解决一起国际毒品走私案件。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;众多精彩游戏玩法尚待掌握&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏玩法别出新意，集冒险游戏和调查游戏所有精彩元素为一体。本游戏诚邀您扮演一名侦探或记者：通过搜索和潜入，找寻案件线索，继而藉由扣人心弦的视频场景和丰富的调查对话解决难题。&lt;br&gt;&lt;/li&gt;&lt;li&gt;解谜、搜索及潜入场景，飞机与汽车追逐，调查对话……别具一格的玩法体验，让每个玩家都能化身真正的记者开始奇妙冒险之旅！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>47587391</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>2136740</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>七度荒域</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>七度荒域：双生树</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>角色扮演,动作,动作冒险,动作类 Rogue,像素图形</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>2023年11月16日</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;ACT之名打造极致2D像素类战斗体验!&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;这世界提供多样化武器与技能的搭配，每种搭配都可以带来不同的策略和战斗体验。&lt;br&gt;同时也结合了横版动作游戏的特性，来为这世界创造秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;Rogue类刷宝收集是猎人的最爱&lt;br&gt;这世界提供繁多的装备词缀，可以组装成各种不同的属性战术方式。&lt;br&gt;用这样的机制取代来致敬剑与魔法时代的追求。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;这个世界拥有等级，也拥有重复死亡，这样的前进方式，需要你我的追寻。&lt;br&gt;在致敬也是在前进。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;在这个世界探索与挑战，塔罗牌式收集填满你的战利品&lt;/strong&gt;</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>drdxzafztmxc</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>2399830</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>ARK: Survival Ascended</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>方舟：生存飞升</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>抢先体验,生存,开放世界,恐龙,冒险</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>2023年10月26日</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>进入一场全新的恐龙生存体验，这一切将超越您最狂野的幻想……《方舟》采用虚幻引擎 5 重新设计，并融入了下一代电子游戏技术！您会在一个神秘的小岛上醒来，刺眼的阳光和绚丽的色彩将使你目不暇接. 蔚蓝的海水拍打着您赤裸的双脚。迷雾丛林中回荡的低沉吼叫让你猛然惊醒，你站了起来--却不是因为害怕，而是因为好奇。你准备好组建一个部落，驯养和繁殖数百种恐龙和其他原始生物，探索、制作、建造，并一路进发至食物链的顶端了吗？一场新的冒险在等待着你......不要再犹豫了,快来加入这个世界吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;●	《方舟：生存飞升》重新构思了ARK的艺术设计和游戏世界，采用了最新的虚幻引擎5游戏技术，包括高端图形功能技术，例如全局动态照明（Lumen），使光线在物体表面形成逼真的反射效果，以及由数亿个三角形组成的高级网格流技术（Nanite），以呈现出极致的细节。&lt;br&gt;&lt;br&gt;●	游戏还采用了全新的物理系统，例如动态水体，使每个生物在液体中移动时都会产生波浪、涟漪、飞溅和气泡，同时还有完全交互式的物理植被，每片草、灌木和树都会对角色、爆炸、抛射物和物理物体做出反应。你甚至可以砍倒一棵树，看着它撞向其他树木，并在砸向下方草地的途中扰乱所有树叶。你甚至可以通过观察草丛的动向来确定偷偷移动的敌人的位置——因为草丛会随着敌人而移动摇摆。当你拆毁一栋建筑时，可以看到碎片更真实地四分五裂，并在落下时与草地和水体发生交互。&lt;br&gt;&lt;br&gt;●	通过《方舟：生存飞升》可以访问所有方舟世界，包括焦土、畸变、灭绝、创世纪1、ARK 创世纪第二部分等等。孤岛地图现已发布，后续扩展地图将定期免费添加。&lt;br&gt;&lt;br&gt;●	这次的终极生存体验将开启更加精彩的新篇章：自定义你的幸存者，组建一个部落，在一个真实的生态系统中驯化、训练、繁衍和驾驭各种恐龙。你需要时刻关注食物、水源、温度和天气变化。在采集、建造建筑、种植农作物、自定义游戏世界的过程中，慢慢扩张领土，探索并揭开孤岛及其他世界的真面目。&lt;br&gt;&lt;br&gt;●	在游戏体验的各个方面都进行了更彻底的改进：重新设计的用户界面，智能生物寻路的动态导航，野生恐龙宝宝，照片模式，新的相机系统，新的地图系统，追踪系统，全新的建筑、物品和生物等等。&lt;br&gt;&lt;br&gt;●	跨平台模组：您可以直接在游戏中通过专门的模组浏览器 下载并畅玩由其他玩家创造的新内容，包括新地图、生物、物品以及游戏模式！随着社群的创造力和才能首次在各个平台上得到充分释放，您将源源不断地享受到有关方舟新玩法！&lt;br&gt;&lt;br&gt;●	跨平台多人游戏：与不同游戏平台上的其他玩家一起组建在线部落，共同在方舟的世界中生存和发展！&lt;br&gt;&lt;br&gt;●	游戏支持多达70名玩家的公共在线多人游戏，最多可容纳8名玩家的私人游戏，以及2至4名玩家的本地分屏模式。</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>drdxzafztmxc</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2430930</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ARK: Survival Ascended Dedicated Server</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>21823670</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>2436842</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>RoboCop: Rogue City - Digital Artbook</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>RoboCop: Rogue City - Digital Artbook</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>动作,冒险</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>2023年11月03日</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>使用数字版原画集应用，深入《RoboCop: Rogue City》诞生幕后的故事。原画集中包含超过 100 页配有游戏开发者解说的美术插图、概念美术及草稿。为所有半人半机械的英雄警察的粉丝们竭诚奉上。</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>myfjw39589</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2548950</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>武林立志傳</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>武林立志传</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>策略,角色扮演,回合战略,策略角色扮演,回合制战术</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2023年09月26日</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;STEAM版本加强功能&lt;/h2&gt;&lt;br&gt;● 中级以上成就，由单机个人成就加强为STEAM线上成就，可以和全球玩家一同比较达成进度。&lt;br&gt;● IN-GAME 武学树状图！在游戏中就可以查询各种武学的发展方向，不用再查找攻略本了。&lt;br&gt;● 密笈掉落关卡提示！在武学树状图中，可查询到每种密笈的掉落地点，可锁定目标取得想要的密笈。&lt;br&gt;● 仓库容量由256提升至384！ STEAM版本特别加大仓库容量，打到宝物不怕没地方存放。&lt;h2 class="bb_tag"&gt;巧妙搭配各大派“武功秘笈”，练就独步武林之绝世神功&lt;/h2&gt;&lt;br&gt;只要取得特定的武功秘笈后，就能利用角色升级时所获得的“招式点数”来修练。在这种高自由度的学习模式下，就算是少林寺弟子想学习魔教或者修行两门派的招式技能，将不再是遥不可及的梦想。此外，游戏更高达71位角色可以加入我方队伍中，你可以依照他们本身的属性来分配修练的武学，这也直接影响到各个角色在战斗中所担任职务喔。&lt;h2 class="bb_tag"&gt;创新仇恨值战斗系统，重视团队分工的作战技巧&lt;/h2&gt;&lt;br&gt;游戏的战斗模式加入了“仇恨值”的回合制战斗，敌人发动攻击的目标，不像一般SLG专挑HP低的对象下手，而是对仇恨值较高的角色进行攻击。如此一来玩家必须注意各角色仇恨值的高低，并且在队伍中培养“坦克”、“补师”与“伤害输出”等各种职业。即使是强度不如人，也能够利用战术、走位与巧妙的控场来克敌致胜。&lt;h2 class="bb_tag"&gt;可改变的装备属性的合成系统&lt;/h2&gt;&lt;br&gt;游戏装备除了到商店购买及作战中获得，还可以利用秘炼合成书与各种材料来进行合成，改变武器防具的各种属性。合成后觉得不好用也没关系，只要有足够的材料与合成书，可以再度合成，直接覆盖掉前一次的属性。&lt;h2 class="bb_tag"&gt;网状式的关卡设计与多样化的分歧路线，故事结局由你决定&lt;/h2&gt;&lt;br&gt;游戏打造了三十多个主线任务与多达上百个支线与随机任务，玩家完全可以依照自己的实力及战略需求来选择游戏方向，故事也将会经由玩家的任务选择，与各个女主角产生不同的情愫与发展。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>sfohv57334</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>2593900</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>[Chilla's Art] The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>惊悚,心理恐怖,选择取向,生存恐怖,沉浸式模拟</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>2023年11月01日</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>&lt;strong&gt;The Kidnap | 誘拐事件&lt;/strong&gt; is a Japanese horror game about a kidnapping incident.&lt;br&gt;&lt;br&gt;Key Features:&lt;br&gt;&lt;br&gt;Immersive experience: An atmospheric, believable environment intensifies the horror experience.&lt;br&gt;&lt;br&gt;VHS film aesthetic: VHS aesthetic emulates the look and feel of CRT screens, including phosphor screen trail and bleeding, VHS tape noise, interlacing, and jitter in the analog video signal, adding extra immersion to the horror experience.&lt;br&gt;&lt;br&gt;Psychological horror: The game will drive you insane.&lt;br&gt;&lt;br&gt;Japanese Theme: Environment art inspired by Japanese horror films.&lt;br&gt;&lt;br&gt;AutoSave: Autosaves every chapter.</t>
         </is>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -644,7 +644,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>emirisgoated</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>218620</t>
@@ -918,7 +922,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>liugezh1</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>275850</t>
@@ -1437,7 +1445,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>liugezh1</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>475550</t>
@@ -1570,7 +1582,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>liugezh1</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>553670</t>
@@ -3008,7 +3024,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>swmfgy</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>2103140</t>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1699540419" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1699540419" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1702911472" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1702670786" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1702670786" /&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1702917085" /&gt;</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1702911472" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1702911472" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1702919486" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>开放世界,冒险,女性主角,单人,角色扮演</t>
+          <t>开放世界,冒险,单人,女性主角,角色扮演</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1702919486" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1702919486" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1702920022" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1702917085" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1702917085" /&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1703009008" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>第一人称射击,动作,第一人称,单人,射击</t>
+          <t>动作,第一人称射击,第一人称,单人,射击</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>像素图形,休闲,冒险,管理,角色扮演</t>
+          <t>像素图形,休闲,冒险,角色扮演,管理</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1702920022" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1702920022" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1703075930" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1703009008" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1703009008" /&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1703009803" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1703075930" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1703075930" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1703163484" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1703009803" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1703009803" /&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1703193468" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2985,7 +2985,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>机甲,角色自定义,动作,第三人称,机器人</t>
+          <t>机甲,角色自定义,动作,机器人,第三人称</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>开放世界,冒险,单人,女性主角,角色扮演</t>
+          <t>开放世界,冒险,女性主角,单人,角色扮演</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2246,7 +2246,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/0127111_ss.jpg?t=1684391524" /&gt;&lt;h2 class="bb_tag"&gt;剧情概述&lt;/h2&gt;千百年来，「大和之国」的妖怪姐姐们与人类和平共处，然而妖怪姐姐们突然发生了暴动，整个世界失去了色彩。作为之前的「Master Hentai」，你承担起拯救妖怪姐姐们和世界的责任！&lt;h2 class="bb_tag"&gt;作品特征&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;一款真正的&lt;strong&gt;颜色&lt;/strong&gt;游戏！移动色块，完成色彩排列谜题，恢复颜色的秩序，揭晓妖怪暴乱的真相！&lt;strong&gt;&lt;i&gt;(對色彩識別有障礙的人士慎！入！)&lt;/i&gt;&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;14个属性各异的日本妖怪娘期待与你邂逅！❤&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;美丽的和风背景音乐，通关后即可全部赏析！&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/nekoneko.gif?t=1684391524" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/0127111_ss.jpg?t=1703481180" /&gt;&lt;h2 class="bb_tag"&gt;剧情概述&lt;/h2&gt;千百年来，「大和之国」的妖怪姐姐们与人类和平共处，然而妖怪姐姐们突然发生了暴动，整个世界失去了色彩。作为之前的「Master Hentai」，你承担起拯救妖怪姐姐们和世界的责任！&lt;h2 class="bb_tag"&gt;作品特征&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;一款真正的&lt;strong&gt;颜色&lt;/strong&gt;游戏！移动色块，完成色彩排列谜题，恢复颜色的秩序，揭晓妖怪暴乱的真相！&lt;strong&gt;&lt;i&gt;(對色彩識別有障礙的人士慎！入！)&lt;/i&gt;&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;14个属性各异的日本妖怪娘期待与你邂逅！❤&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;美丽的和风背景音乐，通关后即可全部赏析！&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/nekoneko.gif?t=1703481180" /&gt;</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>冒险,恋爱模拟,心理恐怖,多人,惊悚</t>
+          <t>恋爱模拟,冒险,心理恐怖,多人,惊悚</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>类银河战士恶魔城,类魂系列,像素图形,黑暗奇幻,哥特</t>
+          <t>类银河战士恶魔城,像素图形,类魂系列,黑暗奇幻,哥特</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>动作,第一人称射击,第一人称,单人,射击</t>
+          <t>第一人称射击,动作,第一人称,单人,射击</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>类魂系列,动作,探索,黑暗奇幻,动作角色扮演</t>
+          <t>类魂系列,动作,黑暗奇幻,探索,动作角色扮演</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_02.gif?t=1701327288" /&gt;&lt;br&gt;&lt;br&gt;“由最强剑豪奏曲，光与暗的起点”&lt;br&gt;SOULCALIBUR20周年的最新作品隆重登场！&lt;br&gt;亲自体会武器格斗动作游戏巅峰的绚丽画质呈现的全新刀剑交锋故事！&lt;br&gt;&lt;br&gt;■全新刀剑交锋对战！&lt;br&gt;看穿对手的攻击并展开反击！操作攻守一体的动作「反攻刃击」、&lt;br&gt;有可能在一定时间内，提升威力一举逆转战局的「集魂」、&lt;br&gt;以及可预期连段造成巨大伤害的「致命一击」等等招式，击败强敌！&lt;br&gt;&lt;br&gt;■满载丰富要素的单人模式！&lt;br&gt;搭载从初代「SOULCALIBUR」的故事、交织新角色＆全新解读的「STORY: Soul Chronicle」模式、&lt;br&gt;以及自己化身为主角畅享对战和收集要素的「MISSION: Libra of Soul」模式！&lt;br&gt;&lt;br&gt;■亦搭载其他多样化的模式！&lt;br&gt;能够和世界玩家一较高下的「在线」模式！&lt;br&gt;亦搭载能够量身打造自己中意角色的「创造模式」！&lt;br&gt;&lt;br&gt;■全新客串角色&lt;br&gt;CD PROJEKT RED旗下「巫师」系列作品的主角「杰洛特」参战！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_01.gif?t=1701327288" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_02.gif?t=1703656833" /&gt;&lt;br&gt;&lt;br&gt;“由最强剑豪奏曲，光与暗的起点”&lt;br&gt;SOULCALIBUR20周年的最新作品隆重登场！&lt;br&gt;亲自体会武器格斗动作游戏巅峰的绚丽画质呈现的全新刀剑交锋故事！&lt;br&gt;&lt;br&gt;■全新刀剑交锋对战！&lt;br&gt;看穿对手的攻击并展开反击！操作攻守一体的动作「反攻刃击」、&lt;br&gt;有可能在一定时间内，提升威力一举逆转战局的「集魂」、&lt;br&gt;以及可预期连段造成巨大伤害的「致命一击」等等招式，击败强敌！&lt;br&gt;&lt;br&gt;■满载丰富要素的单人模式！&lt;br&gt;搭载从初代「SOULCALIBUR」的故事、交织新角色＆全新解读的「STORY: Soul Chronicle」模式、&lt;br&gt;以及自己化身为主角畅享对战和收集要素的「MISSION: Libra of Soul」模式！&lt;br&gt;&lt;br&gt;■亦搭载其他多样化的模式！&lt;br&gt;能够和世界玩家一较高下的「在线」模式！&lt;br&gt;亦搭载能够量身打造自己中意角色的「创造模式」！&lt;br&gt;&lt;br&gt;■全新客串角色&lt;br&gt;CD PROJEKT RED旗下「巫师」系列作品的主角「杰洛特」参战！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_01.gif?t=1703656833" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>欢迎来到一个严酷的反乌托邦的未来社会。&lt;br&gt;极权政府控制了个人和公共生活的每一个方面。&lt;br&gt;法律是压制性的。监视就是全部。隐私已死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/ButFreedomlives_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992423_bomb1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;你是政府安插在公寓楼里的经理。你的日常工作是让公寓楼成为来来去去租户的甜蜜窝。但，那只是隐藏你真实使命的简单外表...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/SPYINGonYourRenters_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;你的主要任务是偷偷摸摸监视你的组合并偷听他们的对话。你必须在他们不在的时候对他们的公寓走手脚，搜索所有会威胁到政府权威的个人物品，并向你的上级汇报。你必须还要向当局报告每个会违法或密谋颠覆政府的任何人。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992464_spy1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/youmustbutwillyou_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;你是极权机器中的一个齿轮！&lt;br&gt;但你仍然可以选择坚持你的人性并与其他人产生共鸣。&lt;br&gt;&lt;br&gt;你会举报一位有可疑活动的父亲并让他的孩子成为孤儿吗？或者你会保留关于他的非法活动的细节并给他一次改正的机会吗？你也可以选择敲诈他来获得你的家庭极度需要的钱吗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992369_arrest1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/whatabout_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;当你玩游戏时，你会与很多角色互动并完成大量的探索。你将还会做出影响故事发展的决定。这将会导向很多故事结局中的一个 - 你所争取的结局！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470990996_heroes1_gif.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/JustRemember_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/YourChoiceHasConsequences_cn.png?t=1702625775" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/Free.jpg?t=1702625775" /&gt;</t>
+          <t>欢迎来到一个严酷的反乌托邦的未来社会。&lt;br&gt;极权政府控制了个人和公共生活的每一个方面。&lt;br&gt;法律是压制性的。监视就是全部。隐私已死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/ButFreedomlives_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992423_bomb1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;你是政府安插在公寓楼里的经理。你的日常工作是让公寓楼成为来来去去租户的甜蜜窝。但，那只是隐藏你真实使命的简单外表...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/SPYINGonYourRenters_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;你的主要任务是偷偷摸摸监视你的组合并偷听他们的对话。你必须在他们不在的时候对他们的公寓走手脚，搜索所有会威胁到政府权威的个人物品，并向你的上级汇报。你必须还要向当局报告每个会违法或密谋颠覆政府的任何人。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992464_spy1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/youmustbutwillyou_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;你是极权机器中的一个齿轮！&lt;br&gt;但你仍然可以选择坚持你的人性并与其他人产生共鸣。&lt;br&gt;&lt;br&gt;你会举报一位有可疑活动的父亲并让他的孩子成为孤儿吗？或者你会保留关于他的非法活动的细节并给他一次改正的机会吗？你也可以选择敲诈他来获得你的家庭极度需要的钱吗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992369_arrest1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/whatabout_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;当你玩游戏时，你会与很多角色互动并完成大量的探索。你将还会做出影响故事发展的决定。这将会导向很多故事结局中的一个 - 你所争取的结局！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470990996_heroes1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/JustRemember_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/YourChoiceHasConsequences_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/Free.jpg?t=1703748824" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2726,6 +2726,11 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>2023年11月03日</t>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>开放世界,冒险,女性主角,单人,角色扮演</t>
+          <t>开放世界,冒险,女性主角,单人,动作</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2540,7 +2540,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>日系角色扮演,剧情丰富,动漫,好评原声音轨,回合制战斗</t>
+          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>像素图形,休闲,冒险,角色扮演,管理</t>
+          <t>像素图形,休闲,冒险,管理,角色扮演</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2048,6 +2048,11 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2021年11月02日</t>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2629,7 +2629,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>类魂系列,动作,黑暗奇幻,探索,动作角色扮演</t>
+          <t>类魂系列,动作,探索,黑暗奇幻,动作角色扮演</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1701074570" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1701074570" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1701074570" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
+          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1704208224" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1704208224" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1704208224" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3197,7 +3197,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>开放世界,冒险,女性主角,单人,动作</t>
+          <t>开放世界,冒险,女性主角,单人,角色扮演</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1703193468" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1703193468" /&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1704376701" /&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1869,7 +1869,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/&lt;/a&gt;&lt;br&gt;&lt;br&gt;做个真正的贼。你可以自由地在沙盒街区闲逛偷东西。观察你的目标，收集能帮你行窃的信息。接受挑战，扫荡最安全的房子。买高科技盗贼装备，学新的手法。把货卖给当铺。做所有真贼能做的事！&lt;br&gt;&lt;br&gt;收集情报&lt;br&gt;&lt;br&gt;厉害的贼会观察他的目标。屋里有什么？住了谁？目标的每日行程怎么进行？弄清楚房子什么时候没人，周围的邻居爱不爱管闲事。从众多的可行方案中准备最佳的下手方式。小偷模拟器中还有许多现代设备，可以帮助你便利地收集目标和周围街区的情报。&lt;br&gt;&lt;br&gt;动作快&lt;br&gt;&lt;br&gt;越快越好。在短时间内搜索并拿走值钱物品。记住，四次元口袋并不存在。时候到了，你必须保持冷静。每个房子里你都会找到无数没用的东西，它们会拖累你，如果你不确定东西能不能卖个好价钱，那不如把东西留下，给更值钱的东西腾出空间。如果你的包里都是不值钱的东西，那你可能还得浪费时间抛弃东西，给其他东西腾出空间。一定要小心，因为有些东西可能会招来警察！&lt;br&gt;&lt;br&gt;电筒&lt;br&gt;&lt;br&gt;一个真正有经验的贼能够找准地方，在匆忙中也能带走值钱的东西。在晚上使用电筒，看清楚视线范围内的所有值钱物品和它们可能出现的地方。&lt;br&gt;&lt;br&gt;处理战利品&lt;br&gt;&lt;br&gt;处理偷来的手机和电脑。拆解偷来的车，把零件放到网上卖掉。把手机和平板的安全系统解除，卖给当铺。&lt;br&gt;&lt;br&gt;有用的物品&lt;br&gt;&lt;br&gt;四处看看找找有用的物品，它们可以帮你在撬锁和黑进电脑时省些时间。窗户边的钥匙和垃圾桶里的购物小票，这些东西都可以让一个有抱负的小偷工作轻松，行窃时间减半。当然，还有很多东西是没用的垃圾……或许还是会有用的？&lt;br&gt;&lt;br&gt;小心谨慎&lt;br&gt;				&lt;br&gt;一定要小心！你可能在一些人家里遇到意料之外的客人。如果他们撞见你就会报警。这种情况下，先躲起来，等到他们不找你了再出来，或者把偷的东西留下，溜之大吉。</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/&lt;/a&gt;&lt;br&gt;&lt;br&gt;做个真正的贼。你可以自由地在沙盒街区闲逛偷东西。观察你的目标，收集能帮你行窃的信息。接受挑战，扫荡最安全的房子。买高科技盗贼装备，学新的手法。把货卖给当铺。做所有真贼能做的事！&lt;br&gt;&lt;br&gt;收集情报&lt;br&gt;&lt;br&gt;厉害的贼会观察他的目标。屋里有什么？住了谁？目标的每日行程怎么进行？弄清楚房子什么时候没人，周围的邻居爱不爱管闲事。从众多的可行方案中准备最佳的下手方式。小偷模拟器中还有许多现代设备，可以帮助你便利地收集目标和周围街区的情报。&lt;br&gt;&lt;br&gt;动作快&lt;br&gt;&lt;br&gt;越快越好。在短时间内搜索并拿走值钱物品。记住，四次元口袋并不存在。时候到了，你必须保持冷静。每个房子里你都会找到无数没用的东西，它们会拖累你，如果你不确定东西能不能卖个好价钱，那不如把东西留下，给更值钱的东西腾出空间。如果你的包里都是不值钱的东西，那你可能还得浪费时间抛弃东西，给其他东西腾出空间。一定要小心，因为有些东西可能会招来警察！&lt;br&gt;&lt;br&gt;电筒&lt;br&gt;&lt;br&gt;一个真正有经验的贼能够找准地方，在匆忙中也能带走值钱的东西。在晚上使用电筒，看清楚视线范围内的所有值钱物品和它们可能出现的地方。&lt;br&gt;&lt;br&gt;处理战利品&lt;br&gt;&lt;br&gt;处理偷来的手机和电脑。拆解偷来的车，把零件放到网上卖掉。把手机和平板的安全系统解除，卖给当铺。&lt;br&gt;&lt;br&gt;有用的物品&lt;br&gt;&lt;br&gt;四处看看找找有用的物品，它们可以帮你在撬锁和黑进电脑时省些时间。窗户边的钥匙和垃圾桶里的购物小票，这些东西都可以让一个有抱负的小偷工作轻松，行窃时间减半。当然，还有很多东西是没用的垃圾……或许还是会有用的？&lt;br&gt;&lt;br&gt;小心谨慎&lt;br&gt;				&lt;br&gt;一定要小心！你可能在一些人家里遇到意料之外的客人。如果他们撞见你就会报警。这种情况下，先躲起来，等到他们不找你了再出来，或者把偷的东西留下，溜之大吉。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1702627876" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1702627876" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1702627876" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -1869,7 +1869,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>&lt;a href="https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/" target="_blank" rel=""  id="dynamiclink_2" &gt;https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/&lt;/a&gt;&lt;br&gt;&lt;br&gt;做个真正的贼。你可以自由地在沙盒街区闲逛偷东西。观察你的目标，收集能帮你行窃的信息。接受挑战，扫荡最安全的房子。买高科技盗贼装备，学新的手法。把货卖给当铺。做所有真贼能做的事！&lt;br&gt;&lt;br&gt;收集情报&lt;br&gt;&lt;br&gt;厉害的贼会观察他的目标。屋里有什么？住了谁？目标的每日行程怎么进行？弄清楚房子什么时候没人，周围的邻居爱不爱管闲事。从众多的可行方案中准备最佳的下手方式。小偷模拟器中还有许多现代设备，可以帮助你便利地收集目标和周围街区的情报。&lt;br&gt;&lt;br&gt;动作快&lt;br&gt;&lt;br&gt;越快越好。在短时间内搜索并拿走值钱物品。记住，四次元口袋并不存在。时候到了，你必须保持冷静。每个房子里你都会找到无数没用的东西，它们会拖累你，如果你不确定东西能不能卖个好价钱，那不如把东西留下，给更值钱的东西腾出空间。如果你的包里都是不值钱的东西，那你可能还得浪费时间抛弃东西，给其他东西腾出空间。一定要小心，因为有些东西可能会招来警察！&lt;br&gt;&lt;br&gt;电筒&lt;br&gt;&lt;br&gt;一个真正有经验的贼能够找准地方，在匆忙中也能带走值钱的东西。在晚上使用电筒，看清楚视线范围内的所有值钱物品和它们可能出现的地方。&lt;br&gt;&lt;br&gt;处理战利品&lt;br&gt;&lt;br&gt;处理偷来的手机和电脑。拆解偷来的车，把零件放到网上卖掉。把手机和平板的安全系统解除，卖给当铺。&lt;br&gt;&lt;br&gt;有用的物品&lt;br&gt;&lt;br&gt;四处看看找找有用的物品，它们可以帮你在撬锁和黑进电脑时省些时间。窗户边的钥匙和垃圾桶里的购物小票，这些东西都可以让一个有抱负的小偷工作轻松，行窃时间减半。当然，还有很多东西是没用的垃圾……或许还是会有用的？&lt;br&gt;&lt;br&gt;小心谨慎&lt;br&gt;				&lt;br&gt;一定要小心！你可能在一些人家里遇到意料之外的客人。如果他们撞见你就会报警。这种情况下，先躲起来，等到他们不找你了再出来，或者把偷的东西留下，溜之大吉。</t>
+          <t>&lt;a href="https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/&lt;/a&gt;&lt;br&gt;&lt;br&gt;做个真正的贼。你可以自由地在沙盒街区闲逛偷东西。观察你的目标，收集能帮你行窃的信息。接受挑战，扫荡最安全的房子。买高科技盗贼装备，学新的手法。把货卖给当铺。做所有真贼能做的事！&lt;br&gt;&lt;br&gt;收集情报&lt;br&gt;&lt;br&gt;厉害的贼会观察他的目标。屋里有什么？住了谁？目标的每日行程怎么进行？弄清楚房子什么时候没人，周围的邻居爱不爱管闲事。从众多的可行方案中准备最佳的下手方式。小偷模拟器中还有许多现代设备，可以帮助你便利地收集目标和周围街区的情报。&lt;br&gt;&lt;br&gt;动作快&lt;br&gt;&lt;br&gt;越快越好。在短时间内搜索并拿走值钱物品。记住，四次元口袋并不存在。时候到了，你必须保持冷静。每个房子里你都会找到无数没用的东西，它们会拖累你，如果你不确定东西能不能卖个好价钱，那不如把东西留下，给更值钱的东西腾出空间。如果你的包里都是不值钱的东西，那你可能还得浪费时间抛弃东西，给其他东西腾出空间。一定要小心，因为有些东西可能会招来警察！&lt;br&gt;&lt;br&gt;电筒&lt;br&gt;&lt;br&gt;一个真正有经验的贼能够找准地方，在匆忙中也能带走值钱的东西。在晚上使用电筒，看清楚视线范围内的所有值钱物品和它们可能出现的地方。&lt;br&gt;&lt;br&gt;处理战利品&lt;br&gt;&lt;br&gt;处理偷来的手机和电脑。拆解偷来的车，把零件放到网上卖掉。把手机和平板的安全系统解除，卖给当铺。&lt;br&gt;&lt;br&gt;有用的物品&lt;br&gt;&lt;br&gt;四处看看找找有用的物品，它们可以帮你在撬锁和黑进电脑时省些时间。窗户边的钥匙和垃圾桶里的购物小票，这些东西都可以让一个有抱负的小偷工作轻松，行窃时间减半。当然，还有很多东西是没用的垃圾……或许还是会有用的？&lt;br&gt;&lt;br&gt;小心谨慎&lt;br&gt;				&lt;br&gt;一定要小心！你可能在一些人家里遇到意料之外的客人。如果他们撞见你就会报警。这种情况下，先躲起来，等到他们不找你了再出来，或者把偷的东西留下，溜之大吉。</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>恋爱模拟,冒险,心理恐怖,多人,惊悚</t>
+          <t>冒险,恋爱模拟,心理恐怖,多人,惊悚</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2629,7 +2629,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>类魂系列,动作,探索,黑暗奇幻,动作角色扮演</t>
+          <t>类魂系列,动作,黑暗奇幻,探索,动作角色扮演</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;ACT之名打造极致2D像素类战斗体验!&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;这世界提供多样化武器与技能的搭配，每种搭配都可以带来不同的策略和战斗体验。&lt;br&gt;同时也结合了横版动作游戏的特性，来为这世界创造秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;Rogue类刷宝收集是猎人的最爱&lt;br&gt;这世界提供繁多的装备词缀，可以组装成各种不同的属性战术方式。&lt;br&gt;用这样的机制取代来致敬剑与魔法时代的追求。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;这个世界拥有等级，也拥有重复死亡，这样的前进方式，需要你我的追寻。&lt;br&gt;在致敬也是在前进。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5z.png?t=1700813182" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5zz.gif?t=1700813182" /&gt;&lt;br&gt;&lt;strong&gt;在这个世界探索与挑战，塔罗牌式收集填满你的战利品&lt;/strong&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;ACT之名打造极致2D像素类战斗体验!&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;这世界提供多样化武器与技能的搭配，每种搭配都可以带来不同的策略和战斗体验。&lt;br&gt;同时也结合了横版动作游戏的特性，来为这世界创造秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;Rogue类刷宝收集是猎人的最爱&lt;br&gt;这世界提供繁多的装备词缀，可以组装成各种不同的属性战术方式。&lt;br&gt;用这样的机制取代来致敬剑与魔法时代的追求。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;这个世界拥有等级，也拥有重复死亡，这样的前进方式，需要你我的追寻。&lt;br&gt;在致敬也是在前进。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;在这个世界探索与挑战，塔罗牌式收集填满你的战利品&lt;/strong&gt;</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2048,11 +2048,6 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2021年11月02日</t>
@@ -2733,7 +2728,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3066,7 +3061,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -2597,7 +2597,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>&lt;strong&gt; * If you are connecting more than 5 Xbox controllers, please enable &amp;quot;Xbox Extended Feature Support&amp;quot; in Controller Settings.&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;PICO PARK is a cooperative local/online multiplay action puzzle game for 2-8 players.&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;The rule is quite simple: &amp;quot;Get all the keys and get to the goal and clear&amp;quot;, but all 48 levels have special gimmicks designed specifically for multiplayer. At most levels, different gimmicks will appear as you move forward, and you will need to consult with your peers and think about new ways to cooperate.&lt;br&gt;&lt;br&gt;This version is essentially a port of the one we released on the Nintendo Switch in 2019.&lt;br&gt;However, it's not just a port, it now supports online play.&lt;br&gt;&lt;br&gt;The 2016 version of this link has been renamed  &amp;quot;PICO PARK:Classic Edition&amp;quot;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/&lt;/a&gt;&lt;br&gt;&lt;br&gt;[Flexible Level]&lt;br&gt;Each level of PICO PARK can be cleared when players get the key,unlock the door and all players reach it.But, every level requires cooperation to complete..&lt;br&gt;&lt;br&gt;[Battle Mode]&lt;br&gt;Co-op play is the main work of this game, but let's compete with friends in BATTLE MODE once co-op play is completed.&lt;br&gt;&lt;br&gt;[Endless Mode]&lt;br&gt;Even if you complete all 48 stages, you can play ENDLESS mode to aim at high score by collaborating with friends. By collaborating with friends, your score will grow faster.&lt;br&gt;&lt;br&gt;[Online Play Mode]&lt;br&gt;You can play together online with people who are far away from you. &lt;br&gt;However, this is a game where communication is very important, so we recommend using Discord or Zoom to play while talking.&lt;br&gt;&lt;br&gt;[TecoGamePad]&lt;br&gt;TecoGamePad change your smartphone turn to gamepad (for local play mode)&lt;br&gt;Android: Sorry,It is no longer available.&lt;br&gt;iOS:&lt;a href="http://itunes.apple.com/us/app/tecogamepad/id1080510485" target="_blank" rel=""  &gt;http://itunes.apple.com/us/app/tecogamepad/id1080510485&lt;/a&gt;&lt;br&gt;&lt;br&gt;Let's have fun playing PICO PARK with your friends!</t>
+          <t>&lt;strong&gt; * If you are connecting more than 5 Xbox controllers, please enable &amp;quot;Xbox Extended Feature Support&amp;quot; in Controller Settings.&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;PICO PARK is a cooperative local/online multiplay action puzzle game for 2-8 players.&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;The rule is quite simple: &amp;quot;Get all the keys and get to the goal and clear&amp;quot;, but all 48 levels have special gimmicks designed specifically for multiplayer. At most levels, different gimmicks will appear as you move forward, and you will need to consult with your peers and think about new ways to cooperate.&lt;br&gt;&lt;br&gt;This version is essentially a port of the one we released on the Nintendo Switch in 2019.&lt;br&gt;However, it's not just a port, it now supports online play.&lt;br&gt;&lt;br&gt;The 2016 version of this link has been renamed  &amp;quot;PICO PARK:Classic Edition&amp;quot;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/&lt;/a&gt;&lt;br&gt;&lt;br&gt;[Flexible Level]&lt;br&gt;Each level of PICO PARK can be cleared when players get the key,unlock the door and all players reach it.But, every level requires cooperation to complete..&lt;br&gt;&lt;br&gt;[Battle Mode]&lt;br&gt;Co-op play is the main work of this game, but let's compete with friends in BATTLE MODE once co-op play is completed.&lt;br&gt;&lt;br&gt;[Endless Mode]&lt;br&gt;Even if you complete all 48 stages, you can play ENDLESS mode to aim at high score by collaborating with friends. By collaborating with friends, your score will grow faster.&lt;br&gt;&lt;br&gt;[Online Play Mode]&lt;br&gt;You can play together online with people who are far away from you. &lt;br&gt;However, this is a game where communication is very important, so we recommend using Discord or Zoom to play while talking.&lt;br&gt;&lt;br&gt;[TecoGamePad]&lt;br&gt;TecoGamePad change your smartphone turn to gamepad (for local play mode)&lt;br&gt;Android: &lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fplay.google.com%2Fstore%2Fapps%2Fdetails%3Fid%3Dtoybox.app.teco_game_pad" target="_blank" rel=" noopener"  &gt;https://play.google.com/store/apps/details?id=toybox.app.teco_game_pad&lt;/a&gt;&lt;br&gt;iOS:&lt;a href="http://itunes.apple.com/us/app/tecogamepad/id1080510485" target="_blank" rel=""  &gt;http://itunes.apple.com/us/app/tecogamepad/id1080510485&lt;/a&gt;&lt;br&gt;&lt;br&gt;Let's have fun playing PICO PARK with your friends!</t>
         </is>
       </c>
     </row>

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,29 +1160,25 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>mqdrw47547</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>413410</t>
+          <t>400910</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Danganronpa: Trigger Happy Havoc</t>
+          <t>Rabi-Ribi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>弹丸论破：希望的学园和绝望的高中生</t>
+          <t>拉比哩比</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>动漫,视觉小说,悬疑,推理,剧情丰富</t>
+          <t>动漫,类银河战士恶魔城,弹幕射击,女性主角,像素图形</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1197,12 +1193,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2016年02月19日</t>
+          <t>2016年01月29日</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hope's Peak Academy is home to Japan's best and brightest high school students—the beacons of hope for the future. But that hope suddenly dies when Makoto Naegi and his classmates find themselves imprisoned in the school, cut off from the outside world and subject to the whims of a strange, murderous little bear named Monokuma. He pits the students against each other, promising freedom to anyone who can murder a fellow classmate and get away with it.&lt;br&gt;It's up to you to find out who Monokuma really is, and why you've been taken from the world you once knew. But be careful what you wish for—sometimes there’s nothing more deadly than the truth...&lt;br&gt;&lt;br&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Daily Life, Deadly Life:&lt;/strong&gt; Trapped in a school-turned-prison, students are murdering each other one by one. You’ll have to investigate each incident, search for clues, and talk to your classmates to try and get to the bottom of each brutal case! &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Mock Trial:&lt;/strong&gt; The nefarious Monokuma serves as judge, jury, and executioner as you engage in deadly wordplay, going back and forth with suspects, dissecting their statements and firing their words back at them to expose their lies! &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Popularity Contest:&lt;/strong&gt; Sway classmates to your side in each investigation, squeezing information from them to figure out who did it. And when you do, turn up the heat in a variety of timing and reflex-based game systems to uncover the truth and save your skin!&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Steam Features:&lt;/strong&gt; Supports Steam Achievements, Steam Cloud and Steam Trading Cards.&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;万圣节来临! 还没下载免费万圣节DLC的玩家别忘记了啊!&lt;/h2&gt;&lt;a href="http://store.steampowered.com/app/547660/" target="_blank" rel=""  id="dynamiclink_2" &gt;http://store.steampowered.com/app/547660/&lt;/a&gt;&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/400910/extras/banner1.png?t=1682781378" /&gt;&lt;/h2&gt;&lt;br&gt;让兔耳娘当主角的游戏总是不嫌多，所以这是款献给兔耳爱好者的游戏 — 一款 2D 横向捲轴 + 平台探险动作游戏。&lt;br&gt;游戏的主角，Erina，是一隻生活在宁静生活的普通兔子… 直到那天，她发现她身在未知的地方且变成了人类。 经历了没有目的的流浪后，她遇见一隻活泼的粉髮妖精 – Ribbon，因为一些原因她决定跟随 Erina。 在没有选择的情况下。一隻兔子和一隻妖精踏上了寻找家园的冒险。也许会找出这一切都是谁在搞鬼的说？&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/400910/extras/banner2.png?t=1682781378" /&gt;&lt;/h2&gt;Rabi-Ribi 是一款 2D 平台探险动作游戏，意味着它是一款非固定路线的游戏。剧情进行中会有提示玩家下一步该如何走，但玩家不必按照指示进行游戏，游戏可以按照玩家喜好顺序去完成。&lt;br&gt;玩家将可以控制使用近战攻击的兔耳娘主角，Erina 。以及间接控制使用远距离攻击的 Ribbon 妖精。&lt;br&gt;&lt;br&gt;&lt;br&gt;Erina 只是一隻变成人类的普通兔子，所以不要以为她会做出什麽很强的东西啊！&lt;br&gt;不过随着游戏的进行，可探索的区域也会随之增加，Erina 和 Ribbon 的能力也会渐渐提昇。&lt;br&gt;藉由收集和升级分布在世界角落的道具，Erina 和 Ribbon 可以学习新的攻击和能力。&lt;br&gt;&lt;br&gt;另外，由于游戏没有固定路线，所有道具都可以跳过的，也就是可以在不收集任何道具的情况下破关。&lt;h2 class="bb_tag"&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/400910/extras/banner3.png?t=1682781378" /&gt;&lt;/h2&gt;&lt;br&gt;– 兔子&lt;br&gt;– 復古风格的平台探索动作游戏&lt;br&gt;– 4 种以上的难度选项给不同程度的玩家&lt;br&gt;– 9 种以上的主地区，以及 20 种以上的子地区可供探索。&lt;br&gt;– 一堆兔子&lt;br&gt;– 超过 60 种道具和能力&lt;br&gt;– 超过 20 隻主要角色以及多样 CG&lt;br&gt;– 40 种以上的Boss战斗，1000 种以上的BOSS攻击模式/弹幕。&lt;br&gt;– 后日谈，收录剧情结束后的故事，或许是真BOSS的预感!?&lt;br&gt;– Boss Rush 挑战模式，击败接踵而来的BOSS关卡。&lt;br&gt;– Speedrun 模式，去除所有故事的剧情画面，挑战最速破关时间。&lt;br&gt;– 超过 50 首原创曲目&lt;br&gt;– 英文，繁体中文及日文语言&lt;br&gt;– 一堆可爱的兔子&lt;br&gt;&lt;br&gt;UPRPRC Edition内含&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Rabi-Ribi游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;数位OST DLC（50首Rabi-Ribi音乐合辑）&lt;br&gt;&lt;/li&gt;&lt;li&gt;数位画册 DLC&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -1214,83 +1210,130 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>413410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Danganronpa: Trigger Happy Havoc</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>弹丸论破：希望的学园和绝望的高中生</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>动漫,视觉小说,悬疑,推理,剧情丰富</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2016年02月19日</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Hope's Peak Academy is home to Japan's best and brightest high school students—the beacons of hope for the future. But that hope suddenly dies when Makoto Naegi and his classmates find themselves imprisoned in the school, cut off from the outside world and subject to the whims of a strange, murderous little bear named Monokuma. He pits the students against each other, promising freedom to anyone who can murder a fellow classmate and get away with it.&lt;br&gt;It's up to you to find out who Monokuma really is, and why you've been taken from the world you once knew. But be careful what you wish for—sometimes there’s nothing more deadly than the truth...&lt;br&gt;&lt;br&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Daily Life, Deadly Life:&lt;/strong&gt; Trapped in a school-turned-prison, students are murdering each other one by one. You’ll have to investigate each incident, search for clues, and talk to your classmates to try and get to the bottom of each brutal case! &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Mock Trial:&lt;/strong&gt; The nefarious Monokuma serves as judge, jury, and executioner as you engage in deadly wordplay, going back and forth with suspects, dissecting their statements and firing their words back at them to expose their lies! &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Popularity Contest:&lt;/strong&gt; Sway classmates to your side in each investigation, squeezing information from them to figure out who did it. And when you do, turn up the heat in a variety of timing and reflex-based game systems to uncover the truth and save your skin!&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Steam Features:&lt;/strong&gt; Supports Steam Achievements, Steam Cloud and Steam Trading Cards.&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mqdrw47547</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>413420</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Danganronpa 2: Goodbye Despair</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>超级弹丸论破2：再见了绝望学园</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>动漫,推理,视觉小说,悬疑,剧情丰富</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>2016年04月19日</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Jabberwock Island – once a popular tourist destination, this now uninhabited island remains oddly pristine. You and your classmates at the elite Hope's Peak Academy have been brought to this island by your super-cute teacher for a “lovey-dovey, heart-throbbing school trip.” Everyone seems to be having fun in the sun...until Monokuma returns to restart his murderous game! Trapped on this island of mutual killing, your only hope of escape rests in solving the island’s mysteries. But be warned—sometimes the truth can be its own despair...&lt;br&gt;&lt;br&gt;&lt;strong&gt;Key Features&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Deadly Island Vibes:&lt;/strong&gt; Murder is the only means of escape when you’re trapped on this island paradise. As your fellow classmates start dropping like coconuts, you’ll need to delve into each murderous incident, forage for clues, and interview your classmates to reveal the opportunity, motive, and means behind each killer case! &lt;br&gt;&lt;br&gt;&lt;strong&gt;Tribal Council:&lt;/strong&gt; You’ll go head-to-head in all new minigames with the other students during the Class Trial, shooting down their false truths and using your evidence to uncover what really happened. But watch out! If a student is unconvinced, they'll challenge you to a one-on-one Rebuttal Showdown and force you to defend your argument! &lt;br&gt;&lt;br&gt;&lt;strong&gt;Survival of the Keenest: &lt;/strong&gt;Match up your evidence with your fellow classmates’ arguments and determine who’s really telling the truth. Once you’ve got a suspect in your sights, turn up that tropical heat in a variety of timing and reflex-based game systems to reveal the ultimate truth and escape with your life!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Steam Features: &lt;/strong&gt;Supports Steam Achievements and Steam Cloud with plans to add Steam Trading Cards&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
         <is>
           <t>414700</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Outlast 2</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>逃生2</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>心理恐怖,生存恐怖,第一人称,单人,黑暗</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>2017年04月25日</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Outlast 2 is the sequel to the acclaimed survival horror game Outlast.  Set in the same universe as the first game, but with different characters and a different setting, Outlast 2 is a twisted new journey into the depths of the human mind and its dark secrets.  &lt;br /&gt;
 &lt;br /&gt;
@@ -1303,124 +1346,77 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>maaartiinn1,vAbuDy</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>431960</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Wallpaper Engine</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Wallpaper Engine：壁纸引擎</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>成人,实用工具,软件,动漫,设计与插画</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2018年11月日</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
-        </is>
-      </c>
-    </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ha1hn0ub8rc6</t>
+          <t>maaartiinn1,vAbuDy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>433340</t>
+          <t>431960</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Slime Rancher</t>
+          <t>Wallpaper Engine</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>史莱姆牧场</t>
+          <t>Wallpaper Engine：壁纸引擎</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>可爱,探索,冒险,单人,开放世界</t>
+          <t>成人,实用工具,软件,动漫,设计与插画</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Application</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2017年08月02日</t>
+          <t>2018年11月日</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/header_copy_600.png?t=1692314094" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;欢迎来到致远牧星&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;这是一款令人不忍释手的，第一人称视角沙盘类游戏。在游戏中你将化身为年轻又有闯劲的牧场主碧翠丝·乐步，在距离地球一千光年的致远牧星上开始新的探索。&lt;br&gt;&lt;br&gt;在你致力于经营牧场的期间，每天都会有新的挑战和机遇出现。收集五颜六色的史莱姆、培育作物、采集素材，然后就是用好你手中那把万能的真空枪，来探索这片广袤狂野的土地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/happy-slimes2-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;继往开来&lt;/strong&gt;&lt;/u&gt;&lt;br&gt;&lt;br&gt;传奇牧场主霍布森·推格斯将他的牧场传给你。接下来你需要让这片牧场重现昔日繁荣；揭开这颗神秘星球上的重重谜团；当然还要叱咤一把结晶市场。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;种植作物、养殖鸡群，好填饱宝贝史莱姆们的肚肚&lt;br&gt;&lt;/li&gt;&lt;li&gt;完成其他牧场主给你的日常任务，获得丰厚奖赏&lt;br&gt;&lt;/li&gt;&lt;li&gt;赚钱升级装备、建造牧栏，或是扩建你的牧场&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用史莱姆科技寻找稀有素材、创作装饰品，以及制造在探险时能派上用场的各种装置&lt;br&gt;&lt;/li&gt;&lt;li&gt;这颗星球上隐藏着无数秘密和宝藏，尽情去探险吧&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/sucking-sm.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/slime-exchange-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/science-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/key-apng.png?t=1692314094" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;丰富多彩的功能特色：&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;3种游戏模式供选择：冒险、休闲、快攻&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过杂交培育，史莱姆的种类可达150种以上&lt;br&gt;&lt;/li&gt;&lt;li&gt;如果你觉得键盘更适合拿来搞音乐而不是玩游戏，我们还提供全方位的手柄支持&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/bean_composite_blue_png.png?t=1692314094" /&gt;</t>
+          <t>Wallpaper Engine 使您可以在 Windows 桌面上使用动态壁纸。它支持各种类型的动画壁纸，包括 3D 和 2D 动画、网页、视频甚至某些应用程序。既可选择现有壁纸，也可创建自己的壁纸并在 Steam 创意工坊上分享！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_features_schinese.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;通过实时图形、视频、应用程序或网页让您的桌面充满活力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用您喜欢的颜色实现动画壁纸个性化。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用可通过鼠标控制的交互式壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多种宽高比和原始分辨率，包括 16:9、21:9、16:10、4:3。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持多显示器环境。&lt;br&gt;&lt;/li&gt;&lt;li&gt;壁纸将在玩游戏时暂停，以节省性能。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Wallpaper Engine 编辑器中创建自己的动画壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;从基本图片制成新的动态壁纸动画，或为壁纸导入 HTML 或视频文件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在 Steam 创意工坊上分享和下载壁纸。&lt;br&gt;&lt;/li&gt;&lt;li&gt;Wallpaper Engine 可以与任何其他 Steam 游戏或应用程序同时使用。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持的视频格式：mp4、WebM、avi、m4v、mov、wmv（对于本地文件，创意工坊仅支持 mp4）。&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持Razer Chroma和Corsair iCUE。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/partners.png?t=1626972334"&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_performance_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Wallpaper Engine 旨在提供有趣的体验，同时尽可能少占用系统资源。您可以选择在使用其他应用程序或全屏播放（包括无边框窗口模式）时自动暂停或完全停止壁纸，以免在玩游戏或工作时分散注意力或受到妨碍。许多微调质量和性能的选项使 Wallpaper Engine 可以完美地适合您的计算机。根据一般经验，3D、2D 和基于视频的壁纸表现最佳，而网页和应用程序需要占用您系统中更多的资源。强烈建议您使用专用 GPU，但不是必要要求。&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/431960/extras/title_workshop_schinese.png?t=1626972334"&gt;&lt;h2 class="bb_tag"&gt;&lt;/h2&gt;Steam 创意工坊中提供超过 700,000张免费壁纸，而且每天都会上传新壁纸！找不到适合您心情的壁纸？通过使用 Wallpaper Engine 编辑器从图片、视频、网页或应用程序创建自己的动画壁纸，尽情发挥您的想象。大量的预设和效果可让您为自己的图片制作动画，并在 Steam 创意工坊上分享它们，或者只为自己使用。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>maaartiinn1</t>
+          <t>ha1hn0ub8rc6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>460930</t>
+          <t>433340</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tom Clancy's Ghost Recon® Wildlands</t>
+          <t>Slime Rancher</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>幽灵行动：荒野</t>
+          <t>史莱姆牧场</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>开放世界,射击,合作,多人,潜行</t>
+          <t>可爱,探索,冒险,单人,开放世界</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1430,105 +1426,152 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2017年03月07日</t>
+          <t>2017年08月02日</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>与最多 3 位好友组队加入《Tom Clancy’s Ghost Recon® Wildlands》，在这个大规模、危险及响应式开放世界中，体验终极军事射击游戏的快感。玩家还可以在 4 对 4 战术战斗《Ghost War》中，畅玩玩家对战模式。&lt;br&gt;&lt;br&gt;&lt;strong&gt;摧毁毒品集团&lt;/strong&gt;&lt;br&gt;几年前，玻利维亚成为全球最大的可卡因生产国。圣塔布兰卡毒品集团将整个国家搅得乌烟瘴气。作为一名 Ghost，你必须不惜一切手段，阻止集团。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;成为 Ghost&lt;/strong&gt;&lt;br&gt;创建并个性化你的 Ghost、武器和工具。享受绝对自由的游戏风格。 单人进行或联合最多三人一起带领你的团队，摧毁毒品集团。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;探索玻利维亚&lt;/strong&gt;&lt;br&gt;在 Ubisoft 最大的动作冒险开放世界中开启旅程。使用 60 多种载具，在公路、野外和海陆空三界探索 Wildlands 各种各样令人叫绝的地形景色。&lt;br&gt;&lt;br&gt;在Tobii眼动追踪技术的帮助下，除去圣布兰卡黑帮的游戏体验变得更为丰富。视野扩展，实现瞄准和聊天轮盘功能可以让您在不改变传统控制方式的情况下，通过自然地眼球移动完成与环境的交互。通过眼动追踪，团队交流变得更为紧密，交火变得更为激烈，对新环境探索的浸入式体验也大大提升。&lt;br&gt;兼容全部Tobii眼动追踪游戏设备&lt;br&gt;----&lt;br&gt;补充信息: &lt;br&gt;眼动追踪特性可由Tobii眼动追踪技术实现</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/header_copy_600.png?t=1692314094" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;欢迎来到致远牧星&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;这是一款令人不忍释手的，第一人称视角沙盘类游戏。在游戏中你将化身为年轻又有闯劲的牧场主碧翠丝·乐步，在距离地球一千光年的致远牧星上开始新的探索。&lt;br&gt;&lt;br&gt;在你致力于经营牧场的期间，每天都会有新的挑战和机遇出现。收集五颜六色的史莱姆、培育作物、采集素材，然后就是用好你手中那把万能的真空枪，来探索这片广袤狂野的土地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/happy-slimes2-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;br&gt;&lt;u&gt;&lt;strong&gt;继往开来&lt;/strong&gt;&lt;/u&gt;&lt;br&gt;&lt;br&gt;传奇牧场主霍布森·推格斯将他的牧场传给你。接下来你需要让这片牧场重现昔日繁荣；揭开这颗神秘星球上的重重谜团；当然还要叱咤一把结晶市场。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;种植作物、养殖鸡群，好填饱宝贝史莱姆们的肚肚&lt;br&gt;&lt;/li&gt;&lt;li&gt;完成其他牧场主给你的日常任务，获得丰厚奖赏&lt;br&gt;&lt;/li&gt;&lt;li&gt;赚钱升级装备、建造牧栏，或是扩建你的牧场&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用史莱姆科技寻找稀有素材、创作装饰品，以及制造在探险时能派上用场的各种装置&lt;br&gt;&lt;/li&gt;&lt;li&gt;这颗星球上隐藏着无数秘密和宝藏，尽情去探险吧&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/sucking-sm.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/slime-exchange-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/science-apng.png?t=1692314094" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/key-apng.png?t=1692314094" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;丰富多彩的功能特色：&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;3种游戏模式供选择：冒险、休闲、快攻&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过杂交培育，史莱姆的种类可达150种以上&lt;br&gt;&lt;/li&gt;&lt;li&gt;如果你觉得键盘更适合拿来搞音乐而不是玩游戏，我们还提供全方位的手柄支持&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/433340/extras/bean_composite_blue_png.png?t=1692314094" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>460930</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tom Clancy's Ghost Recon® Wildlands</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>幽灵行动：荒野</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>开放世界,射击,合作,多人,潜行</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2017年03月07日</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>与最多 3 位好友组队加入《Tom Clancy’s Ghost Recon® Wildlands》，在这个大规模、危险及响应式开放世界中，体验终极军事射击游戏的快感。玩家还可以在 4 对 4 战术战斗《Ghost War》中，畅玩玩家对战模式。&lt;br&gt;&lt;br&gt;&lt;strong&gt;摧毁毒品集团&lt;/strong&gt;&lt;br&gt;几年前，玻利维亚成为全球最大的可卡因生产国。圣塔布兰卡毒品集团将整个国家搅得乌烟瘴气。作为一名 Ghost，你必须不惜一切手段，阻止集团。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;成为 Ghost&lt;/strong&gt;&lt;br&gt;创建并个性化你的 Ghost、武器和工具。享受绝对自由的游戏风格。 单人进行或联合最多三人一起带领你的团队，摧毁毒品集团。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;探索玻利维亚&lt;/strong&gt;&lt;br&gt;在 Ubisoft 最大的动作冒险开放世界中开启旅程。使用 60 多种载具，在公路、野外和海陆空三界探索 Wildlands 各种各样令人叫绝的地形景色。&lt;br&gt;&lt;br&gt;在Tobii眼动追踪技术的帮助下，除去圣布兰卡黑帮的游戏体验变得更为丰富。视野扩展，实现瞄准和聊天轮盘功能可以让您在不改变传统控制方式的情况下，通过自然地眼球移动完成与环境的交互。通过眼动追踪，团队交流变得更为紧密，交火变得更为激烈，对新环境探索的浸入式体验也大大提升。&lt;br&gt;兼容全部Tobii眼动追踪游戏设备&lt;br&gt;----&lt;br&gt;补充信息: &lt;br&gt;眼动追踪特性可由Tobii眼动追踪技术实现</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>liugezh1</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>475550</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Beholder</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>旁观者</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>反乌托邦,选择取向,政治模拟,策略,模拟</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>2016年11月10日</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>欢迎来到一个严酷的反乌托邦的未来社会。&lt;br&gt;极权政府控制了个人和公共生活的每一个方面。&lt;br&gt;法律是压制性的。监视就是全部。隐私已死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/ButFreedomlives_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992423_bomb1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;你是政府安插在公寓楼里的经理。你的日常工作是让公寓楼成为来来去去租户的甜蜜窝。但，那只是隐藏你真实使命的简单外表...&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/SPYINGonYourRenters_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;你的主要任务是偷偷摸摸监视你的组合并偷听他们的对话。你必须在他们不在的时候对他们的公寓走手脚，搜索所有会威胁到政府权威的个人物品，并向你的上级汇报。你必须还要向当局报告每个会违法或密谋颠覆政府的任何人。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992464_spy1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/youmustbutwillyou_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;你是极权机器中的一个齿轮！&lt;br&gt;但你仍然可以选择坚持你的人性并与其他人产生共鸣。&lt;br&gt;&lt;br&gt;你会举报一位有可疑活动的父亲并让他的孩子成为孤儿吗？或者你会保留关于他的非法活动的细节并给他一次改正的机会吗？你也可以选择敲诈他来获得你的家庭极度需要的钱吗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470992369_arrest1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/whatabout_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;当你玩游戏时，你会与很多角色互动并完成大量的探索。你将还会做出影响故事发展的决定。这将会导向很多故事结局中的一个 - 你所争取的结局！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/1470990996_heroes1_gif.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/JustRemember_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/YourChoiceHasConsequences_cn.png?t=1703748824" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/475550/extras/Free.jpg?t=1703748824" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
         <is>
           <t>501590</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Bulletstorm: Full Clip Edition</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>子弹风暴：完全版</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>动作,第一人称射击,冒险,第一人称,射击</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>2017年04月08日</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Step into the boots of Grayson Hunt after a crash landing on an abandoned resort planet forces him to make a hard choice: survival or revenge. An exiled member of the elite assassin group Dead Echo, Grayson’s blind desire for vengeance finds his crew stranded on Stygia where he can finally confront the commander behind his betrayal—or get his team off the planet alive.&lt;br /&gt;
 &lt;br /&gt;
@@ -1538,86 +1581,86 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
         <is>
           <t>544750</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>SOULCALIBUR VI</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>灵魂能力6</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>格斗,动作,角色自定义,多人,奇幻</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>2018年10月19日</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_02.gif?t=1703656833" /&gt;&lt;br&gt;&lt;br&gt;“由最强剑豪奏曲，光与暗的起点”&lt;br&gt;SOULCALIBUR20周年的最新作品隆重登场！&lt;br&gt;亲自体会武器格斗动作游戏巅峰的绚丽画质呈现的全新刀剑交锋故事！&lt;br&gt;&lt;br&gt;■全新刀剑交锋对战！&lt;br&gt;看穿对手的攻击并展开反击！操作攻守一体的动作「反攻刃击」、&lt;br&gt;有可能在一定时间内，提升威力一举逆转战局的「集魂」、&lt;br&gt;以及可预期连段造成巨大伤害的「致命一击」等等招式，击败强敌！&lt;br&gt;&lt;br&gt;■满载丰富要素的单人模式！&lt;br&gt;搭载从初代「SOULCALIBUR」的故事、交织新角色＆全新解读的「STORY: Soul Chronicle」模式、&lt;br&gt;以及自己化身为主角畅享对战和收集要素的「MISSION: Libra of Soul」模式！&lt;br&gt;&lt;br&gt;■亦搭载其他多样化的模式！&lt;br&gt;能够和世界玩家一较高下的「在线」模式！&lt;br&gt;亦搭载能够量身打造自己中意角色的「创造模式」！&lt;br&gt;&lt;br&gt;■全新客串角色&lt;br&gt;CD PROJEKT RED旗下「巫师」系列作品的主角「杰洛特」参战！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/544750/extras/SCVI_GIF_01.gif?t=1703656833" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>liugezh1</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>553670</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Beholder - Original Soundtrack</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Beholder - Original Soundtrack</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>冒险,独立,策略,剧情丰富,欲罢不能</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Music</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>2016年11月10日</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>从Beholder的官方配乐，从Warm Lamp Games 的反乌托邦冒险。&lt;br /&gt;
 &lt;br /&gt;
@@ -1628,93 +1671,50 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>mqdrw47547</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>567640</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Danganronpa V3: Killing Harmony</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>新弹丸论破v3</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>视觉小说,推理,动漫,女性主角,剧情丰富</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>视觉小说,推理,女性主角,动漫,剧情丰富</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>7.7</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>2017年09月26日</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>高速推理动作游戏——《枪弹辩驳》系列的最新作品，在班级审判中驳倒对方的矛盾发言，找出杀人事件的罪魁祸首吧。&lt;br&gt;与以往作品相比，本作从故事背景到登场人物，全部焕然一新。&lt;br&gt;游戏借由“Psycho cool”为主题，以更加强化的视觉效果和剧情编排，将新学园中发生的全新故事推向高潮。&lt;br&gt;&lt;br&gt;&lt;strong&gt;故事情节&lt;/strong&gt;&lt;br&gt;在游戏世界中，有着一群拥有“超高中级”称号的学生，他们在政府所实行的特别奖励制度“资优制度”下被授予了各类特权，肩负着人类的未来。“超高中级的钢琴家”赤松 枫便是其中一人。&lt;br&gt;拥有超高中级才能的学生原本散布在全国各地，通常也不会有机会齐聚一堂。可是某天，包括枫在内的16名超高中级的学生被一并监禁在了“才囚学园”内。&lt;br&gt;自称是校长的神秘玩偶“黑白熊”以及它的孩子们“黑白熊仔”支配着才囚学园。&lt;br&gt;黑白熊将这所学园称为“让才华横溢的高中生们通过自相残杀，竞争谁是第一的地方”。&lt;br&gt;黑白熊又声称学园中有一个疯狂的规定。在发生杀人事件后，将会召开班级审判，讨论“谁是杀人凶手”。如果找出真凶，仅会有凶手受罚；如果发生错判，则只有凶手可以幸存，所有剩余的清白的学生都会受到惩罚。&lt;br&gt;学园被巨大的壁垒包围，想要逃离那里几乎不可能。脱身的唯一办法，就是按照黑白熊所说，与其他学生自相残杀——&lt;br&gt;为了结束厮杀、为了守护重要的人，以“谎言”揭穿“真相”的班级审判就此开幕。&lt;br&gt;&lt;br&gt;&lt;strong&gt;世界观&lt;/strong&gt;&lt;br&gt;&lt;br&gt;本作的舞台。&lt;br&gt;“专为参加厮杀游戏的16名‘超高中级学生’而建造的”这所学园，有着一应俱全的设施和严格的校规。&lt;br&gt;&lt;br&gt;&lt;br&gt;政府正在实行的特别奖励制度——“资优制度”是为培养国家级天才而设立的制度。一旦潜力获得认可，学生会被授予奖学金等各种特权。&lt;br&gt;被此制度选中的学生会得到“超高中级”的称号。&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏系统&lt;/strong&gt;&lt;br&gt;本作以章节为单位来进行游戏。各章可以分为（非）日常篇（日常部分）、非日常篇（搜查部分）、班级审判这3大部分。&lt;br&gt;&lt;br&gt;&lt;br&gt;讲述学生们在学园内生活情况的部分。&lt;br&gt;在此部分将发生各类事件，比如学生们会筹谋逃出学园的计划；黑白熊为了推动厮杀游戏，会为学生们制造“杀人动机”等等，故事情节将从这里开始发生重大转折。&lt;br&gt;&lt;br&gt;&lt;br&gt;一旦发生杀人事件，并发现尸体后，将进入非日常篇（搜查部分）。&lt;br&gt;在此部分可以调查案发现场、向其他学生打听案件线索等，为解决事件收集必要的证据。&lt;br&gt;&lt;br&gt;&lt;br&gt;根据收集的证据，找出杀人事件的犯人（凶手），这称作“班级审判”。&lt;br&gt;在这里，拥有超高中级才能的学生们会从各种角度对案件进行讨论。&lt;br&gt;班级审判的目的是指出其他学生话语中的矛盾，并最后找出真凶。&lt;br&gt;在搜查环节收集的证据会成为“言弹（ＫＯＴＯＤＡＭＡ）”，用以反驳参加者的矛盾发言。&lt;br&gt;通过用言弹射击在画面上流动的发言矛盾点，可以将讨论推往下一阶段。&lt;br&gt;本作加入了“谎言”、“混乱讨论”以及“讨论争辩”等全新的游戏元素。“谎言”需要在不间断讨论时故意撒谎，它甚至可以用来驳倒并无矛盾的发言；“混乱讨论”则需要在多名角色同时辩论的时候发现其中的矛盾；“讨论争辩”则是在《枪弹辩驳》系列中初次亮相的团体论战。</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>586140</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>BlazBlue Centralfiction</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>苍翼默示录：神观之梦</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>格斗,动漫,2D 格斗,动作,好评原声音轨</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2017年04月26日</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>采用最新的滚动式网络匹配技术，享受亚克系统的标志美丽的视觉与时尚的高层战斗系统！老玩家还是新玩家都再回到苍的世界里吧！可以操作使用各种新系统的 35位漫画风格的独特角色。命运之轮再次旋转!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/586140/extras/astralterumi.gif?t=1653281343" /&gt;&lt;br&gt;&lt;br&gt;最高峰的快节奏2D格斗对战与重量级视觉小说结合在此,苍翼系列的完结篇来临！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/586140/extras/punchfinal_op.gif?t=1653281343" /&gt;</t>
         </is>
       </c>
     </row>
@@ -1722,40 +1722,169 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
+          <t>586140</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BlazBlue Centralfiction</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>苍翼默示录：神观之梦</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>格斗,动漫,2D 格斗,动作,好评原声音轨</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2017年04月26日</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>采用最新的滚动式网络匹配技术，享受亚克系统的标志美丽的视觉与时尚的高层战斗系统！老玩家还是新玩家都再回到苍的世界里吧！可以操作使用各种新系统的 35位漫画风格的独特角色。命运之轮再次旋转!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/586140/extras/astralterumi.gif?t=1653281343" /&gt;&lt;br&gt;&lt;br&gt;最高峰的快节奏2D格斗对战与重量级视觉小说结合在此,苍翼系列的完结篇来临！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/586140/extras/punchfinal_op.gif?t=1653281343" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>632360</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Risk of Rain 2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>雨中冒险2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>第三人称射击,动作类 Rogue,多人,合作,动作</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020年08月11日</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;&lt;u&gt;&lt;br&gt;在外星球上生存下来&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;十几个亲手打造的场景地点恭候大驾，那里满是等待挑战的怪物和巨型Boss，力图将您剪除消灭。 奋力搏杀，直至抵达终极Boss并躲过其击杀，或无限继续游戏，看您最终能坚持生存多久。 独特的调整系统可让您和敌人的力量在一场游戏中无限增长。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632360/extras/linebreak.png?t=1699992764" /&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;&lt;br&gt;发现威力巨大的新物品&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;超过110件物品可让每轮游戏都充满新鲜感和刺激的挑战。 收集的物品越多，合成的效力越强，其中一些合成品也就越惊艳。 发现的物品越多，您能通过日志发掘的传说或策略也就会越多。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632360/extras/linebreak.png?t=1699992764" /&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;&lt;br&gt;解锁新玩法 &lt;/u&gt;&lt;/strong&gt;&lt;br&gt;解锁十一位可游玩幸存者，其中的每一位都拥有着独一无二的战斗风格以及可替换的技能。了解神器的奥秘以切换友方误伤、随机幸存者生成、物品选择等游戏调整器内容。随机的关卡、敌人和物品将带来绝不重复的游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632360/extras/linebreak.png?t=1699992764" /&gt;&lt;br&gt;&lt;strong&gt;&lt;u&gt;&lt;br&gt;单人游戏或合作游戏&lt;/u&gt;&lt;/strong&gt;&lt;br&gt;您可以独自踏上冒险，也可以与最多三名好友一同线上合作冒险，还可以前往棱镜试炼的车轮挑战进行战斗。 船长和MUL-T等全新的幸存者将加入工程师、女猎人还有指挥官等经典幸存者之列。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>632470</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Disco Elysium</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>极乐迪斯科：最终剪辑版</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>角色扮演,剧情丰富,选择取向,推理,等角视角</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2019年10月16日</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632470/extras/ch-info.png?t=1698833230" /&gt;&lt;br&gt;我们开设了中文意见反馈专用邮箱：discoelysiumchina @ gmail . com&lt;br&gt;&lt;br&gt;大家可以用中文或英文反馈您对游戏本身或者中文版的意见和建议。&lt;br&gt;&lt;br&gt;我们会和中文化团队一起，持续为大家带来优化和更新。让《极乐迪斯科》变得更好，我们乐于聆听您的声音。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632470/extras/ch-follow.png?t=1698833230" /&gt;&lt;br&gt;欢迎加入我们的中文讨论组！&lt;br&gt;&lt;br&gt;《极乐迪斯科（Disco Elysium）》官方QQ交流群：829407281 （已满）&lt;br&gt;《极乐迪斯科（Disco Elysium）》交流群_A： 950017875&lt;br&gt;《极乐迪斯科（Disco Elysium）》交流群_B： 1082489642&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632470/extras/ch-about.png?t=1698833230" /&gt;&lt;br&gt;&lt;strong&gt;《极乐迪斯科 - 最终剪辑版》是这款极具创新意义RPG的终极版本。&lt;/strong&gt; 扮演身怀绝技的警探，穿梭在城市街区间，谱写属于自己的篇章。讯问那些让你无法忘却的角色，勘破凶案，或是受贿沉沦。当英雄，还是做败类，由你来定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/632470/extras/ch-features.png?t=1698833230" /&gt;&lt;br&gt;&lt;strong&gt;完全英文配音。&lt;/strong&gt; 这座城市所有可爱的市民们都将拥有完全英文配音。聆听他们腔调各异的话语，让他们你争我夺，向他们伸出援手，或是无可救药地与他们坠入爱河。&lt;br&gt;&lt;br&gt;&lt;strong&gt;新的意理愿景任务。&lt;/strong&gt; 直面你的世界观，让你的意理愿景罗盘引领你走向新的道路。在追逐梦想的同时，给这个世界留下更深的烙印。发现更多的市民、一片全新的区域，以及绚丽景观。&lt;br&gt;&lt;br&gt;&lt;strong&gt;史无前例的自由选择。&lt;/strong&gt; 恐吓威胁、阿谀逢迎、诉诸暴力、寄情诗歌、唱卡拉OK、疯魔狂舞，或是破解人生秘辛。《极乐迪斯科》是桌面角色扮演游戏在电子游戏化的尝试中，最真诚、最忠实的代表。&lt;br&gt;&lt;br&gt;&lt;strong&gt;革命性的对话系统，难忘怀的游戏角色。&lt;/strong&gt;  这个世界满是有血有肉的人，而非仅是匆匆过客。让他们彼此争个你死我活，帮他们度过难关，或是与谁陷入无可救药的热恋。《极乐迪斯科》革命性的对话系统，辅以部分配音让角色立体鲜明，让你在游戏中几乎无所不能。&lt;br&gt;&lt;br&gt;&lt;strong&gt; 穿梭反复间运筹帷幄。&lt;/strong&gt; 你可以探索周遭，也可以玩弄权谋；可以纵情风流，也可以富甲一方。总之，这或许是一个你前所未见的开放世界。一点点的蚕食，一片片的占有。慢慢的，你会发现，这瑞瓦肖城：从街道，到海滩——甚至更远处，都会被你握在手中。&lt;br&gt;&lt;br&gt;&lt;strong&gt;辣手神探，硬核办案。&lt;/strong&gt; 死亡，情欲，税收以及迪斯科——无所不在，百无禁忌。瑞瓦肖城是个很真实的地方，充满真实的挑战。去破获惊天凶杀大案，或是去放松一下，打听些家长里短。警探都这么说了，市民们那就听着吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>644560</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Mirror</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>魔镜</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>动漫色情,成人,动漫,工作场所不宜,三消</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>2018年04月19日</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>It is said that there is a magic mirror, which is closely related to the destiny of numerous beautiful girls&lt;br /&gt;
 If you obtain it, you will be able to walk into the world of the beauties and experience a magnificent journey&lt;br /&gt;
@@ -1771,43 +1900,43 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>gunhead01</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>704000</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>GUNHEAD</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>GUNHEAD</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>动作,独立,第一人称射击,类 Rogue,轻度 Rogue</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>2023年11月09日</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>&amp;quot;《Gunhead》是一款革新性Rouge-Lite第一人称射击游戏，继承并超越了Alientrap的前作《Cryptark》的精髓。游戏中，玩家将化身为机械战甲战士，自由驰骋于外太空，挑战一艘又一艘由AI精心设计的外星飞船。在这些日渐腐朽、危机四伏的外星方舟中，玩家不仅要面对改造怪物、机械化军团、自动防御系统的铁血阻击，还要智破重重陷阱，最终摧毁系统核心，一举赢得胜利。&lt;br /&gt;
 &lt;br /&gt;
@@ -1826,86 +1955,124 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>maaartiinn1</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>704850</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Thief Simulator</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>小偷模拟器</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>模拟,潜行,单人,冒险,第一人称</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>2018年11月10日</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>&lt;a href="https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/" target="_blank" rel=""  id="dynamiclink_3" &gt;https://store.steampowered.com/app/1840650/Thief_Simulator__Luxury_Houses_DLC/&lt;/a&gt;&lt;br&gt;&lt;br&gt;做个真正的贼。你可以自由地在沙盒街区闲逛偷东西。观察你的目标，收集能帮你行窃的信息。接受挑战，扫荡最安全的房子。买高科技盗贼装备，学新的手法。把货卖给当铺。做所有真贼能做的事！&lt;br&gt;&lt;br&gt;收集情报&lt;br&gt;&lt;br&gt;厉害的贼会观察他的目标。屋里有什么？住了谁？目标的每日行程怎么进行？弄清楚房子什么时候没人，周围的邻居爱不爱管闲事。从众多的可行方案中准备最佳的下手方式。小偷模拟器中还有许多现代设备，可以帮助你便利地收集目标和周围街区的情报。&lt;br&gt;&lt;br&gt;动作快&lt;br&gt;&lt;br&gt;越快越好。在短时间内搜索并拿走值钱物品。记住，四次元口袋并不存在。时候到了，你必须保持冷静。每个房子里你都会找到无数没用的东西，它们会拖累你，如果你不确定东西能不能卖个好价钱，那不如把东西留下，给更值钱的东西腾出空间。如果你的包里都是不值钱的东西，那你可能还得浪费时间抛弃东西，给其他东西腾出空间。一定要小心，因为有些东西可能会招来警察！&lt;br&gt;&lt;br&gt;电筒&lt;br&gt;&lt;br&gt;一个真正有经验的贼能够找准地方，在匆忙中也能带走值钱的东西。在晚上使用电筒，看清楚视线范围内的所有值钱物品和它们可能出现的地方。&lt;br&gt;&lt;br&gt;处理战利品&lt;br&gt;&lt;br&gt;处理偷来的手机和电脑。拆解偷来的车，把零件放到网上卖掉。把手机和平板的安全系统解除，卖给当铺。&lt;br&gt;&lt;br&gt;有用的物品&lt;br&gt;&lt;br&gt;四处看看找找有用的物品，它们可以帮你在撬锁和黑进电脑时省些时间。窗户边的钥匙和垃圾桶里的购物小票，这些东西都可以让一个有抱负的小偷工作轻松，行窃时间减半。当然，还有很多东西是没用的垃圾……或许还是会有用的？&lt;br&gt;&lt;br&gt;小心谨慎&lt;br&gt;				&lt;br&gt;一定要小心！你可能在一些人家里遇到意料之外的客人。如果他们撞见你就会报警。这种情况下，先躲起来，等到他们不找你了再出来，或者把偷的东西留下，溜之大吉。</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>737520</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Flynn: Son of Crimson</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Flynn: Son of Crimson</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>冒险,独立,动作,2D,像素图形</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2021年09月16日</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/737520/extras/_STEAM_GIF__Section_1_titlescreen.gif?t=1657279781" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;罗桑提卡的和平再次受到威胁&lt;/strong&gt;&lt;br&gt;&lt;br&gt;和平而美丽的罗桑提卡岛再次受到了无情邪恶势力的威胁。罗桑提卡与祸界之间的魔法屏障开始破裂，危险的生物逐渐渗透进来，试图占领这个岛屿。弗林无意发现这场入侵，并意识到他必须起身对抗祸界，阻止灾祸蔓延至整个罗桑提卡。在弗林的神兽同伴大地神兽之灵“德克斯”的陪伴下，他们将一同迎接来自灾祸及其强大领主的邪恶挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/737520/extras/_STEAM_GIF__Section_2_Dex_Combat.gif?t=1657279781" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;经典2D动作平台游戏&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《Flynn: Son of Crimson》是一款手绘2D动作平台游戏，你将在其中踏上探索与冲突之旅，并同时学习掌握绯红能量。在祸界的邪恶势力占领罗桑提卡之前，帮助弗林和德克斯拯救他们的家园。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/737520/extras/_STEAM_GIF__Section_3_Flynn___Dex.gif?t=1657279781" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;弗林和德克斯&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在需要帮助时，召唤你的神兽同伴和守护者德克斯，齐心协力作战，一同保卫罗桑提卡。德克斯擅长粉碎坚硬的墙壁，还能够消灭成群的敌人，是像弗林这样的男孩所希望的最佳同伴！&lt;br&gt;&lt;br&gt;弗林与德克斯之间不单单有友情的纽带，他们也互相保护、彼此爱护。面对来自祸界迫在眉睫的威胁，弗林与德克斯直接一头冲进战场。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/737520/extras/_STEAM_GIF__Section_4_Rosantica_vs_Scourge.gif?t=1657279781" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索罗桑提卡和祸界世界&lt;/strong&gt;&lt;br&gt;&lt;br&gt;探索罗桑提卡和她独特的地区，个个都充满了有待发现的古老秘密。在旅途中收集古物，并在为取得胜利奋斗时发现新道路。&lt;br&gt;&lt;br&gt;黑暗诡异的祸界充斥着仇恨，试图侵扰并摧毁美丽的罗桑提卡。你将必须进入这个邪恶世界，对抗这个维度的领主齐洛克，还有他手持匕首的神秘战士洛齐亚。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/737520/extras/_STEAM_GIF__Section_5_Crimson_Activate.gif?t=1657279781" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;驾驭绯红之力&lt;/strong&gt;&lt;br&gt; &lt;br&gt;弗林发现自己属于一个神秘血统家族，并拥有前所未知的力量。发现绯红之力，帮助弗林掌握它。&lt;br&gt;&lt;br&gt;绯红之刃是弗林的常用兵器，也是索瑞尔女神第一次在危难之时赠予他的绯红兵器。解锁快如疾风的冲刺和上挑招式，消灭那些可恶的敌人。&lt;br&gt;&lt;br&gt;绯红之斧需要精准把握时间，还要预判敌人的动作，虽然攻击频率不如绯红之刃，但是收尾招式的力度更大。这把利斧可以劈开敌人的盾牌，也能强行砸破薄弱的墙壁，发现新的区域。&lt;br&gt;&lt;br&gt;绯红钩爪攻击迅速有力，攻击速度很快，而且可以抢夺空中优势，令敌人短时无法攻击。放出你内心的山猫，飞墙走壁，螺旋下冲，以迅雷不及掩耳之势打得敌人屁滚尿流。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/737520/extras/_STEAM-GIF__Section_6_Weapon-Combat-sizetest.gif?t=1657279781" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;成为真正的元素大师&lt;/strong&gt;&lt;br&gt;&lt;br&gt;弗林借助罗桑提卡的植物，产生自然的变异之后，即可解锁火系、冰系和电系的元素魔法。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
         <is>
           <t>769030</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Twine3D</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Twine3D</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>休闲</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>2017年12月26日</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Twine3D is a third person view control path craft game.&lt;br /&gt;
 Control:&lt;br /&gt;
@@ -1927,180 +2094,180 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
         <is>
           <t>788100</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Neon Abyss</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>霓虹深渊</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>类 Rogue,刷宝,平台游戏,程序生成,单人</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>2020年07月14日</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>&lt;strong&gt;霓虹深渊是一款注重道具叠加效果的横版动作地牢游戏，你还可以根据喜好自由选择地牢的进化路线。&lt;/strong&gt;身为神秘组织的一员，你将在霓虹闪耀的地下世界中探险，收集千奇百怪的道具，击败恶魔与众神，寻找地牢最深处的宝藏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/788100/extras/Gif_loop_4.gif?t=1676903259" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/788100/extras/feature_item_cn.png?t=1676903259" /&gt;&lt;br&gt;&lt;br&gt;你会从道具中获得千奇百怪的能力！道具之间的功能将会相互影响和叠加，并且没有数量上的限制。数百种被动道具，数十种武器和主动技能——在这无穷无尽的组合当中，你将会创造出什么流派（Build）呢？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/788100/extras/feature_tree_cn.png?t=1676903259" /&gt;&lt;br&gt;&lt;br&gt;这是一个独特的可拓展的地下世界，你可以选择个性化的升级路线来塑造你的地牢，解锁全新的房间、首领、道具、规则和结局。你的每一次冒险都会丰富地牢的内容，你的每一次选择都会影响游戏的规则。&lt;br&gt;&lt;br&gt;- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -&lt;h2 class="bb_tag"&gt;海量内容&lt;/h2&gt;动态生成的地图，超过400种道具，数十种武器，几十种风格迥异的怪物，数不尽的彩蛋和秘密，让每一次冒险都充满了新鲜感。&lt;h2 class="bb_tag"&gt;宠物孵化&lt;/h2&gt;在游戏中你将获得宠物蛋，可以孵化出随机的精灵。每一只精灵都有着独特的能力，并可以多次进化。&lt;h2 class="bb_tag"&gt;迷你游戏&lt;/h2&gt;游戏中有很多特别的房间，每一个都有全新的规则和玩法。钢琴演奏，斗舞比赛，月球漫步，湖边垂钓，应有尽有。&lt;h2 class="bb_tag"&gt;霓虹神话&lt;/h2&gt;药物之神，比特币之神，短视频之神。当今最流行的事物都化身为新的统治者，而你就是那个打破枷锁的人！</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>banmagame1103</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>921570</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>OCTOPATH TRAVELER</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>岐路旅人</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>角色扮演,日系角色扮演,像素图形,回合制,剧情丰富</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>2019年06月08日</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>&lt;a href="https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1971650/OCTOPATH_TRAVELER_II/&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/921570/extras/FRIGATE_Steam_gif.gif?t=1694485198" /&gt;&lt;br&gt;屡获殊荣的RPG游戏推出PC版！&lt;br&gt;&lt;br&gt;八位旅行者的八次冒险之旅。化身为八个角色之一，踏上史诗般的旅程，穿越广阔而神奇的奥鲁斯特拉大陆，探索八位旅行者各自迷人的故事。&lt;br&gt;&lt;br&gt;- 可扮演八个不同的角色，每一个角色都有各自的故事和要完成的支线任务&lt;br&gt;- 探索迷人但危险的奥鲁斯特拉大陆，跨越8片广阔的区域，并随着旅程的展开，揭开每个角色的完整故事&lt;br&gt;- 使用每个角色的独特能力（地图指令）、技能和属性展开疯狂的战斗&lt;br&gt;- 享受易上手但深度的回合式对战系统，并可通过识别和瞄准敌人的弱点来突破他们的防线&lt;br&gt;- 可采取不同方式完成支线任务和故事场景，并做出将塑造角色人生道路的决定&lt;br&gt;- 体验受启于复古2D RPG游戏的视觉效果，欣赏美不胜收的写实元素打造出来的 3D 世界</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>vAbuDy</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>953880</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>First Class Trouble</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>头等舱故障</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>社交推理,欢乐,生存,困难,多人</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>2021年11月02日</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>First Class Trouble 已在抢先体验游戏里，并且正积极的地方化翻译中。有时更新游戏时，新的区域的地方化会迟了些，并显示出英文。 如果察觉到你的语言有缺少部分时，请告知我们，我们将会尽快的更新游戏。&lt;br&gt;&lt;br&gt;First Class Trouble是个玩家们爲了生存得互相合作，同时也得对付其他人的团体合作游戏。它的目的是关闭一艘奢侈宇宙游轮内的杀手人工智能。有些玩家是间谍，利用看起来像人类的杀手仿生人准备背叛其他玩家。&lt;br&gt;&lt;br&gt;玩家们将在这款Invisible Walls开发的多人社会欺骗游戏担任ISS Alithea的乘客角色。这游轮的人工智能系统中心，C.A.I.N.发生了异常并开始将船内的氧气全吸光了。乘客们得使用近距离聊天室来合作才能达成目标和抵达C.A.I.N.赢得游戏。&lt;br&gt;&lt;br&gt;同时有著混在乘客之间看起来像人类的仿生僕人们正准备献上他们的报复。仿生人们得欺骗乘客们，消灭他们，或继续隐瞒到最后才能赢得游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Freezer.gif?t=1672648456" /&gt;&lt;br&gt;&lt;br&gt;爲了生存，你得骗过你的朋友们，或将被欺骗……&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;爲了前进到船中的不同空间来关闭异常的人工智能，玩家们得互相交流和团结做任务。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/CAIN_3_short.gif?t=1672648456" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;作爲乘客的一员，你得爲了揭发仿生人的身份而小心寻找綫索，并利用你所有的一切除掉他们。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Tree.jpg?t=1672648456" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;在不同区域之间，玩家们得投票把仿生人扔出密封舱。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Airlock.jpg?t=1672648456" /&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;作爲仿生人，你得爲了混入乘客间而撒谎，计划和隐瞒你的身份。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/953880/extras/Scheme.jpg?t=1672648456" /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>vAbuDy</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>967050</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Pacify</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>安抚</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>多人,合作,生存恐怖,在线合作,心理恐怖</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>2019年02月23日</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>你刚刚与 PAH 公司，即超自然活动帮手公司，签约。这名字听起来很烂俗，但是薪酬很高。 他们说你不会遇到任何真正的危险，而且他们现在有大量的工作需要找人来做。 你的第一份任务位于某个闹鬼的老房子。 有个房产中介想卖掉这所房子，但是全镇所有人都在散布房子里闹鬼的传言，所以他需要找到证据证明房子很安全。 实际上，他自己看起来也吓得不行。 不论如何，他聘请了 PAH 公司来调查那个地方。 如果你想单独调查，请自便。不过要是我，我会带上至少 3 个朋友。 去把那个地方查清楚，如果有灵异现象出现，找到证据带回 PAH 公司。&lt;br /&gt;
 &lt;br /&gt;
@@ -2108,48 +2275,48 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>83013169</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>976310</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Mortal Kombat 11</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>真人快打11</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>格斗,多人,鲜血,动作,2D 格斗</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>2019年04月24日</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>《真人快打》经典系列隆重回归，现在就来一睹这叹为观止的新作吧。&lt;br /&gt;
 &lt;br /&gt;
@@ -2160,138 +2327,259 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>977950</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A Dance of Fire and Ice</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>冰与火之舞</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>节奏,音乐,独立,关卡编辑,困难</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2019年01月25日</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《冰与火之舞》&lt;/strong&gt;——高难度单键节奏游戏。&lt;br&gt;&lt;br&gt;欢迎加入玩家QQ群：&lt;br&gt;&lt;br&gt;6群：612614339&lt;br&gt;7群：636821077&lt;br&gt;8群：639025324&lt;br&gt;9群：425500851&lt;br&gt;&lt;br&gt;欢迎查看我们的小黑盒社区：&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fwww.xiaoheihe.cn%2Fgames%2Fdetail%2F977950" target="_blank" rel=" noopener"  &gt;https://www.xiaoheihe.cn/games/detail/977950&lt;/a&gt;&lt;br&gt;&lt;br&gt;只需一个按键，控制盘旋飞舞的双星，踏着摇曳的舞步，在一条跟随音乐节奏变化的蜿蜒道路上不断前进，探索音乐的宇宙。&lt;br&gt;&lt;br&gt;将节奏巧妙地使用可视的形式呈现出来。&lt;br&gt;这将是一次充满挑战的音乐之旅，保持平稳的心态，跟随内心的律动，这并不是一款依赖快速反应的游戏，你需要通过反复练习来学习不同的音乐模式。&lt;br&gt;你将与各种困难不期而遇，而每一次突破，都会带来无与伦比的成就感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/977950/extras/steampage_gif_chinese.gif?t=1703841289" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;探索音乐宇宙：&lt;/strong&gt;每一片星系都对应着一种截然不同的音乐类型，跟随纠缠的双星游荡在充满美妙音乐的宇宙当中。&lt;br&gt;&lt;/li&gt;&lt;li&gt; &lt;strong&gt;可预判的机制：&lt;/strong&gt; 你能通过识别前方的道路来预判即将迎来的音轨节奏。游戏并不依赖快速反应，注意聆听音乐，反复练习，掌控应对不同类型的节奏的操作。&lt;br&gt;&lt;/li&gt;&lt;li&gt; &lt;strong&gt;未来的音乐关卡将免费更新：&lt;/strong&gt;我们会在游戏发售后陆续更新更多新关卡，已经购买过游戏的玩家无须为这些更新再次付费。但游戏的售价可能会随着更新有所提升。&lt;br&gt;&lt;/li&gt;&lt;li&gt; &lt;strong&gt;支持延时校准：&lt;/strong&gt;既可以随时通过按键手动校准，也可以使用我们的自动校准功能。作为音乐创作者，我们非常了解音轨不同步会极大地影响音乐游戏的体验，因此，这款游戏采用了极其严格的时间判定方式。&lt;br&gt;&lt;/li&gt;&lt;li&gt; &lt;strong&gt;飙速模式：&lt;/strong&gt;完成一周目后，你将迎来速度与挑战不断飙升的全新模式。专为那些永不满足的玩家准备。&lt;br&gt;&lt;/li&gt;&lt;li&gt; &lt;strong&gt;只需一个按键: &lt;/strong&gt;你可以使用键盘上的大多数按键控制这个游戏。理论上，可以支持多种外设。你甚至可以使用太鼓来游玩本游戏。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1027880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A Dance of Fire and Ice - OST</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A Dance of Fire and Ice - Official Soundtrack</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>独立,音乐,节奏,好评原声音轨</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2019年02月07日</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>《冰与火之舞》原声集收录了由 Jade Kim 和 Hafiz Azman 作曲的七首原声游戏音乐，同时包含 flac 和 mp3 两种格式。&lt;br /&gt;
+&lt;br /&gt;
+我们还精心准备了额外的奖励内容，希望大家能喜欢。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1036640</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RPG Developer Bakin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RPG Developer Bakin</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>游戏开发,软件,角色扮演,团队角色扮演,3D</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2022年10月18日</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;免编程的RPG创作工具！&lt;/h2&gt; &lt;br&gt;RPG Developer Bakin（以下简称Bakin）是一个游戏开发工具，它允许任何人在无需编程的情况下享受创建RPG的直观操作和高级功能。 它包括一个地图编辑器、相机工具和其他工具，以帮助你创建你的游戏，以及图形和声音资产，你可以从你购买游戏的那天起制作你的游戏。 创建的游戏可以在有偿或无偿的情况下免版税发行。 现在，用Bakin把 &amp;quot;你对世界的设想 &amp;quot;变为现实吧!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036640/extras/Steam_1.gif?t=1702440414" /&gt;&lt;h2 class="bb_tag"&gt; 建立一个世界就像玩游戏一样! 易于使用和高度功能的地图编辑器 &lt;/h2&gt;&lt;br&gt;放置草地、鹅卵石和木地板等地形，使地面升高和降低，形成高低差。 杂草丛生的花草，挡住去路的大石头，装饰城市景观的房屋，以及房间里的家具都放在上面。 作为游戏舞台的地图可以像用笔画画一样轻松创建。 地图上的物体可以放在任何地方，可以随意放大、缩小和变换。你还可以通过组合房屋、窗户和阳台等物体来定制模型。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036640/extras/mapmaking.gif?t=1702440414" /&gt;&lt;h2 class="bb_tag"&gt; 你可以轻松地创造出令人印象深刻的场景!  高级效果功能 &lt;/h2&gt;&lt;br&gt;有了Bakin，你可以将场景从白天变成黑夜，从晴天变成雨天，或者用深雾或使用模糊的透视效果创造电影般的场景。 高级效果功能，如绽放、DoF（景深）、环境和雾，以及结合这些功能的预设数据，都是可用的。 点击一下就可以在不同的场景之间切换，或者进行详细的调整以创造你的理想环境，Bakin为你做这一切。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036640/extras/Steam_2.gif?t=1702440414" /&gt;&lt;h2 class="bb_tag"&gt; 事件编辑器，可以通过简单地安排具有各种功能的面板来创建&lt;/h2&gt; &lt;br&gt;Bakin不需要任何编程知识。 通过简单地组合 &amp;quot;事件面板&amp;quot;，这些面板具有各种功能，如进行对话、播放声音、传送玩家/事件和选择分支，你可以控制故事中和战斗中发生的事情。 此外，常见的RPG事件，如 &amp;quot;加入聚会&amp;quot;、&amp;quot;获得物品 &amp;quot;和 &amp;quot;在地图之间移动&amp;quot;，都是预先设计好的，只需填写所需的字段，如人物对话、可用物品和目的地，就可以使用。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036640/extras/Steam_4.gif?t=1702440414" /&gt;&lt;h2 class="bb_tag"&gt;数据库允许详细配置游戏世界的居民&lt;/h2&gt; &lt;br&gt;巴金有一个数据库功能，提供了详细确定游戏中主要人物、怪物、技能、物品和其他各种数据的能力。 如果你有兴趣创建一个游戏，你在数据库中看到的都是熟悉的设置。 当然，所有的数据都可以立即产生。 随心所欲地创造你所设想的世界的居民，挡在你面前的怪物，以及魔法和等级。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1036640/extras/Steam_3.gif?t=1702440414" /&gt;&lt;h2 class="bb_tag"&gt;3D模型、人物图形和其他游戏资产DLC都可以使用! &lt;/h2&gt;&lt;br&gt;构建游戏阶段和加强故事的各种资产，如3D模型、人物图形、粒子效果、声音数据等，都包含在软件包中，或作为独家免费DLC。 此外，还可以单独购买可选的DLC，以创造一个更加丰富的世界。 当然，你也可以导入并使用你自己的3D模型、点阵人物、插图和声音。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>banmagame8733</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>1051310</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Paper Dolls Original</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>纸人：第一章</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>冒险,惊悚,动作,独立,解谜</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>2019年04月19日</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1051310/extras/STEAMTitle01.jpg?t=1667556779" /&gt;&lt;br&gt;&lt;strong&gt;加入纸人 Paper Dolls Original 官方玩家群：593774263，了解更多！&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;欢迎关注官方微博：北京荔枝游戏_纸人、GameraGame&lt;/strong&gt;&lt;br&gt;&lt;br&gt;对于初次游戏的玩家来说，在游戏中探索解谜直至通关，可能需要5个小时乃至更长的时间。当然，实际游戏时长将取决于玩家的解谜能力，以及操作能力。如果你十分擅长恐怖游戏，并且拥有出色的解谜能力，通关的时间也将随之缩减。对于这部分喜欢挑战的玩家，我们在游戏中准备了，简单、普通、噩梦，三个难度，届时，你可以反复尝试噩梦难度来获得最高S级的评价。&lt;br&gt;&lt;br&gt;&lt;strong&gt;背景故事：&lt;/strong&gt;&lt;br&gt;又被噩梦惊醒的杨明远着实不安，只要闭上眼睛就浮现出面目狰狞的纸人迎面扑来，迷惑与恐惧交织。近日连续失眠，日夜颠倒，耳边还不断产生幻听……已是黄昏，杨明远还是决定送女儿去她妈妈家。每次开车在这段路上都会令明远感到神伤，“如果不是这该死的抑郁症缠身，使得我的情绪不能自控，我们的感情怎么会走到如此地步！生活到底还有何意义”越想越令明远不能自已，连女儿的声音都快听不见了，耳边的幻听愈发强烈，恍惚之间，一声巨响……&lt;br&gt;&lt;br&gt;“这里是哪？”当杨明远醒来的时候，却发现自己置身一座荒废的中国古宅，这里的一切既熟悉又陌生，是梦？还是自己真的死了？明远真的恍惚了……似乎听到女儿微弱的呼救唤醒了他，勉强从地上爬起来，循着女儿的声音，向幽暗阴森的古宅内部走去。一个个谜团的背后，埋藏了百年的故事真相正在被揭开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1051310/extras/STEAMTitle02.jpg?t=1667556779" /&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;通过对古宅中各种机关的破解及故事剧情的层层推理，打开一道道被锁住的门。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;神秘而邪恶的纸人如影随形，如何躲避他们，甩掉他们，随着剧情层层推进封印他们，让那些可怕的身影无处可藏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1051310/extras/STEAMTitle03.jpg?t=1667556779" /&gt;&lt;br&gt;第一人称3D恐怖冒险解谜游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;br&gt;&lt;br&gt;&lt;strong&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;带着你的勇气来吧，殷家欢迎你。&lt;/strong&gt;</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
         <is>
           <t>1146630</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>妖語り/Yokai's Secret</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>妖语</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>成人,独立,休闲,动作,动漫色情</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>8.2</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>2020年02月06日</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/0127111_ss.jpg?t=1703481180" /&gt;&lt;h2 class="bb_tag"&gt;剧情概述&lt;/h2&gt;千百年来，「大和之国」的妖怪姐姐们与人类和平共处，然而妖怪姐姐们突然发生了暴动，整个世界失去了色彩。作为之前的「Master Hentai」，你承担起拯救妖怪姐姐们和世界的责任！&lt;h2 class="bb_tag"&gt;作品特征&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;一款真正的&lt;strong&gt;颜色&lt;/strong&gt;游戏！移动色块，完成色彩排列谜题，恢复颜色的秩序，揭晓妖怪暴乱的真相！&lt;strong&gt;&lt;i&gt;(對色彩識別有障礙的人士慎！入！)&lt;/i&gt;&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;14个属性各异的日本妖怪娘期待与你邂逅！❤&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;美丽的和风背景音乐，通关后即可全部赏析！&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1146630/extras/nekoneko.gif?t=1703481180" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>gmkg11165,svmmw6271</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>1151640</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Horizon Zero Dawn™ Complete Edition</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>地平线：零之曙光 完全版</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>开放世界,冒险,女性主角,单人,角色扮演</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>开放世界,冒险,单人,女性主角,角色扮演</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>7.4</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>2020年08月07日</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>地球不再由人类主宰&lt;br /&gt;
 &lt;br /&gt;
@@ -2314,95 +2602,114 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>banmagame6427</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>1178490</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>ParanormalHK</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>港诡实录</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>冒险,恋爱模拟,心理恐怖,多人,惊悚</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>2020年01月06日</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>《港诡实录》（原名《牛一》）是一款以现代香港为背景的恐怖冒险游戏，融合了大量香港本地的都市传说，玩家能够从中体验到许多独特的本地文化和中国传统民俗习惯。同时，游戏中还原了唐楼、粤剧戏棚、港式屋邨等极具中国地方文化特色的建筑，玩家可以在其中自由探索，感受浓厚的香港氛围。&lt;br&gt;&lt;br&gt;官方QQ2群：1047521733&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1178490/extras/1.gif?t=1661250615" /&gt;&lt;br&gt;&lt;br&gt;在游戏过程中，玩家需要面对不断出现的谜题，同时还要收集零碎的信息，推进剧情，从而去解开隐藏的诡异事件背后的真相。&lt;h2 class="bb_tag"&gt;故事背景&lt;/h2&gt;盂兰节当晚，几名年轻人聚集到阴森的九龙城寨遗址，他们是人气探灵节目《逃出灵界点》的节目组成员。原本计划录制《逃出灵界点》盂兰节特别篇，然而尚未开始录制，摄像机就罢工了。看似出师不顺，实际上却暗示着，这只是一切的开始……&lt;br&gt;　&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1178490/extras/4.gif?t=1661250615" /&gt;&lt;br&gt;&lt;br&gt;节目组成员陆续失踪，女主持人嘉慧的行为变得十分古怪，诡异的氛围笼罩着整个节目组，男主人公阿乐也身陷其中。面对已经超出常人认知的各种奇怪现象，阿乐不禁怀疑是否是因为有人在不经意间触碰了某些禁忌。虽然疑云丛生，到处都是不解的谜团，但是阿乐却无心深究，他所想的只是尽快找到嘉慧，并把她带离这里……&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;以香港都市传说为题材，融入真实事件，忠实还原极具时代感的香港特色建筑，带玩家领略香港本地文化和民俗习惯，为玩家创造出独特的恐怖感官体验。&lt;br&gt;　&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1178490/extras/3.gif?t=1661250615" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;在多个场景中自由探索，收集遗落在各处的信息碎片，找到前行的道路，努力还原出事件的真相。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;设计精巧的谜题，在其中还融入了大量传统的民俗元素，通过各种线索找出其中的关联，层层推进，解开谜团。&lt;br&gt;　&lt;br&gt;&lt;strong&gt;敌人&lt;/strong&gt;&lt;br&gt;面对诡异的敌人，你将意识到自己的渺小，一边躲避它们的追击，一边想方设法逃出生天，这将是一场斗智斗勇的对决。</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1180760</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Risk of Rain 2 Dedicated Server</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>qaugw30877</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>1182090</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Mr. Pumpkin 2: Kowloon walled city</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>南瓜先生2 九龙城寨</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>独立,休闲,解谜,指向点击,冒险</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>2019年11月13日</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>《南瓜先生2 九龙城寨》是南瓜先生系列作品的续作。以南瓜头形象的小人物为主人公，讲述一些曾经居住在香港贫民窟九龙城寨的人和他们的故事。背景采用了真实香港历史场景的美术复原,对香港电影故事的致敬和拓展。&lt;br /&gt;
 九龙城寨是香港殖民时代的一座围城，内里有蛛网般的道路，破败密集的高耸楼宇，压迫感的霓虹招牌，不见天日的狭窄暗巷，觉上的独特性，麻雀虽小五脏俱全，一个人间地狱，一个乌托邦。游戏内用缆车、双层巴士，铛铛车等香港传统的交通工具衔接起各个游戏章节，让玩家能体会到一种观看城寨版《清明上河图》的感觉。&lt;br /&gt;
@@ -2413,406 +2720,26 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>8735515147</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1274600</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>The Last Faith</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>最后的信仰</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>类银河战士恶魔城,像素图形,类魂系列,黑暗奇幻,哥特</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2023年11月15日</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1704376701" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>banmagame8733</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1334040</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Paper Dolls 2</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>纸人2</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>第一人称射击,恋爱模拟,射击,心理恐怖,动作冒险</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020年07月03日</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/hb_616.jpg?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《纸人贰》延续了《纸人》1代的生存恐怖，冒险解谜的游戏风格。&lt;/strong&gt;&lt;br&gt;这部作品将为大家带来较一代更为丰富的游玩体验和更具有挑战性的Boss战，在关卡设计、场景氛围、故事剧情表现、游戏玩法，动画、音效等各个方面都有所提升。游戏增加了二周目难度，对于初次探索游玩的玩家可能需要10个小时左右的时间……&lt;br&gt;&lt;br&gt;&amp;gt;在续篇中见证前作主角“杨明远”为了寻找女儿上到殷府的二楼，结局到底如何？&lt;br&gt;&amp;gt;经过一段时间的休养，杨明远的身体状况有了些许恢复，体力有所增强……&lt;br&gt;&amp;gt;这座清末时期的幽森古宅为何充满了怨气？曾经声名显赫的殷府到底发生过什么？杨明远与这座百年古宅究竟有何渊源？&lt;br&gt;&amp;gt;让我们相约7.3 ,   与杨明远一起回到100年前的殷家一探究竟&lt;br&gt;&lt;br&gt;欢迎关注《纸人贰》官方微博：北京荔枝游戏_纸人&lt;br&gt;加入纸人②官方群：170580619，了解更多内容&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot12.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;STORY&lt;/h2&gt;&lt;br&gt;再一次从噩梦中惊醒的杨明远，久久无法让情绪从惊恐不安中平复。只要闭上双眼，脑海中就会吱吱呀呀得不停放映着那卷老旧胶片般的画面——枯朽的古宅，阴森的灵堂，缥缈的身影，还有诡异的纸人穿梭其中，循环往复……然而，似乎还有某种声音夹杂其中，如同召唤又似催促的呢喃，却怎么也听不清。&lt;br&gt;&lt;br&gt;杨明远盯着窗外染红天空的夕阳，决定把这一切都归咎于工作的压力和生活的烦恼。&lt;br&gt;“专注于当下……”他对自己这样说道。&lt;br&gt;随后，拿起外套和汽车钥匙，叫女儿收拾好东西，准备出发。&lt;br&gt;是的，今天是女儿该回妈妈家的日子。&lt;br&gt;当杨明远关门的一瞬间，桌子上的药盒让他迟疑了片刻。&lt;br&gt;“那该死的梦一定和这药片有关！我要把它全部扔进垃圾桶，再换个医生！”暗自下定决心后，杨明远砰得一声关上了房门。&lt;br&gt;&lt;br&gt;当高速路上的车灯渐渐变成一条条飞逝的线条，路灯的光线明亮得刺眼晕眩时，杨明远又听到了那个熟悉的声音。&lt;br&gt;女儿好像说了些什么，虽然就在身边，却如同隔着一堵厚厚的墙壁般不真切。&lt;br&gt;“什么……你究竟要我做什么？！把话说清楚！”他的内心歇斯底里的咆哮道。&lt;br&gt;恍惚间，光影闪烁，在一声巨响之后，整个世界都安静了下来……&lt;br&gt;&lt;br&gt;“这里是……”当杨明远醒来的时候，却发现自己置身一座荒弃的古宅。这里的一切既熟悉又陌生，恍若梦中。但女儿微弱的呼喊唤醒了杨明远的理智，他勉强从地上爬起来，循着女儿的声音，向幽暗阴森的黑暗走去。一个个谜团的背后，埋藏着怎样的秘密？真相正在被层层剥开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot10.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;殷府及古代背景&lt;/strong&gt;&lt;br&gt;清朝末年，京城西郊有一座藏于山林之间的锦绣府邸。此宅的主人姓殷，出身世家，少年得志，颇受朝廷重用。曾领兵平乱四方，官至极品。人到中年方娶得一房绝色娇妻，二人门当户对，情投意合。但好景不长，朝廷权力更迭，殷老爷官场失意，郁郁不得志，最终归隐避世。&lt;br&gt;&lt;br&gt;殷老爷择一处山水掩映的宝地，修建宅邸，只带亲信随从侍奉左右，又不惜重金请来两位门客作伴。一位是博古通今的柳先生，一位是精通水墨丹青的赵画师。虽然生活远比以往孤寂清冷，却也平和安然。然而，多年膝下无子的殷老爷，忽闻夫人有喜，却如同平静水面被一颗小石子激起千里涟漪。不堪的流言让宅子里人心动荡，一桩桩怪诞的悲剧接踵而来……&lt;br&gt;&lt;br&gt;然而，一场突降的暴雨，连绵数月。待雨停之后，通往这座隐世宅邸的路却再也无人能寻到。殷府上下和它不为人知的秘密一起消失在人们记忆里……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot9.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;第一人称3D恐怖冒险游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;h2 class="bb_tag"&gt;FEATURE&lt;/h2&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;寻找女儿的路途障碍重重，如影随形的亡魂无处不在，如何躲避他们，甩掉他们，如何战胜他们……随着古宅往事渐渐被揭开，事情的真相呼之欲出。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;冤死的亡魂已化为厉鬼，在厉鬼环绕的宅子里，稍有不慎就会迎接死亡的降临。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;在恐怖压抑的清末古宅中用你的智慧解开所有谜团，根据散落的故事碎片推理，打开那一道道被封印了百年的大门。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot11.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;虚幻引擎打造次时代主机游戏《纸人》系列新作《纸人贰》Paper Dolls 2： 栩栩如生的写实表现方式、精美的画面描绘出一百多年前的殷家府邸，带给你身临其境的沉浸感。&lt;br&gt;&lt;br&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>svvib92669</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1337520</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Risk of Rain Returns</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>雨中冒险: 回归</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>在线合作,动作类 Rogue,多人,玩家对战环境,2D</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2023年11月09日</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/01_《雨中冒险》回来了！.gif?t=1699995226" /&gt;&lt;br&gt;精心设计、精美重置而且带来了更多全新玩法：《Risk of Rain》 将以前所未有的全新面貌重新归来！深入标志性的探索游戏世界，见证琳琅满目的独特战利品组合， 全新的幸存者、焕然一新的多人游戏模式以及更多内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/02_Before_and_after_revised.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/03_探索全新玩法.gif?t=1699995226" /&gt;&lt;br&gt;磨砺各类技能和能力，发现全新幸存者，迎接愈发困难的挑战！ &amp;quot;探索琼泥V之下沉睡着的远古奥秘。不要放过任何蛛丝马迹， 每一份日志、石板乃至加普都有可能带来全新的内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/04_unlock_notification_popping_up.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/05_CN.gif?t=1699995226" /&gt;&lt;br&gt;虽然您们的飞船遭遇了神秘袭击，幸运的是依旧不乏有多位幸存者的身影。切割粉碎，与 重新回归的厨师一起伸张正义，作为执法官固守阵地并用盾牌守护队友，或者喷吐 剧毒泥浆，化身最受喜爱的紫色怪物：呛鼻毒师！铸就全新的道路，探索15位 独特幸存者，精通每位角色带来的全新能力。&lt;br&gt;&lt;br&gt;另外还请准备好迎接流浪者！这位心灵手巧的斗士能够从打败的敌人身上收集碎片，并创造能够暂时强化队友的物品。除此以外，她还能够使用这股力量释放毁灭性的烈焰，焚烧大片的区域。流浪者将为任何幸存者队伍提供不可或缺的帮助。在支援队伍的同时她也有能力自食其力，这证明流浪者绝非仅是一位偷渡客那么简单。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/06_place_holder_gif.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/07_单人游玩或与好友组队.gif?t=1699995226" /&gt;&lt;br&gt;多样化是毁灭的最佳佐料。选择至多11种神器，为每一轮游戏带来不一样的体验！也许 您想要开局获得每次使用都会变化的随机装备物品，或者想要 每隔10分钟体验一次狂暴魔精们的入侵。尝试不同 神器组合，探索刺激有趣的全新玩法。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/08_Gif_of_survivors_jumping_out_Desolate_Forest_zoomed_in.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/09_威力强劲的战利品.gif?t=1699995226" /&gt;&lt;br&gt;在星球上厮杀时不要忘记搜索各类宝贵货物。这些物品将成为您的 救命法宝，它们能令您跑得更快，造成更多伤害或者跳跃到更高的位置。除了这些以外， 有些物品还会给您带来更不可思议的变化：比如说稀有的尤克里里，这种物品将为您的攻击带来 闪电”般的激荡乐律。如果想要大肆爆炸，记得寻找完美巨兽， 届时再普通不过的攻击也将引发一连串的美妙轰鸣。随心所欲组合， 见证千奇百怪的效果。爆炸性连锁闪电不过是 您的疯狂杰作的第一步！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/10_Potent_Pick_Ups___fireboots_2.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/11_危机四伏的琼泥V.gif?t=1699995226" /&gt;&lt;br&gt;琼泥V之上存在着来源于不同星球上的生物。当 这些怪物在当初的母星上濒临灭绝时，一股神秘力量将它们带到了 琼泥V。这颗星球迅速变成了容纳着全宇宙最为凶狠的怪物的 动物园”，而且最糟糕的是，它们并不喜欢不速之客（也就是“您们”）的到访。 激活遍布星球的古代传送器，穿越全部10种地貌环境。 奋力求生，杀出一条血路并重新回到当初被迫遗弃的飞船。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/12_Diversity_of_Environment.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/13_改天换地的神器.gif?t=1699995226" /&gt;&lt;br&gt;单人或者是与队友一同降落至星球地表！选择能够互相扶持、 互补不足的幸存者小队，或者由着性子来，谁的枪炮最猛就选谁（最佳答案： 装卸工）。享受至多四人的在线与本地合作模式，记住，您并不是一个人。 雨中冒险: 回归 将带来改良后的全新多人游戏服务以确保 您的队伍将能够顺畅自如地挑战琼泥V之上的怪物洪潮。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/14_place_holder_gif_3_possible_artifact.gif?t=1699995226" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>maaartiinn1</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1509960</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>PICO PARK</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>PICO PARK</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>多人,在线合作,平台解谜,休闲,合作</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021年05月07日</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>&lt;strong&gt; * If you are connecting more than 5 Xbox controllers, please enable &amp;quot;Xbox Extended Feature Support&amp;quot; in Controller Settings.&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;PICO PARK is a cooperative local/online multiplay action puzzle game for 2-8 players.&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;The rule is quite simple: &amp;quot;Get all the keys and get to the goal and clear&amp;quot;, but all 48 levels have special gimmicks designed specifically for multiplayer. At most levels, different gimmicks will appear as you move forward, and you will need to consult with your peers and think about new ways to cooperate.&lt;br&gt;&lt;br&gt;This version is essentially a port of the one we released on the Nintendo Switch in 2019.&lt;br&gt;However, it's not just a port, it now supports online play.&lt;br&gt;&lt;br&gt;The 2016 version of this link has been renamed  &amp;quot;PICO PARK:Classic Edition&amp;quot;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/&lt;/a&gt;&lt;br&gt;&lt;br&gt;[Flexible Level]&lt;br&gt;Each level of PICO PARK can be cleared when players get the key,unlock the door and all players reach it.But, every level requires cooperation to complete..&lt;br&gt;&lt;br&gt;[Battle Mode]&lt;br&gt;Co-op play is the main work of this game, but let's compete with friends in BATTLE MODE once co-op play is completed.&lt;br&gt;&lt;br&gt;[Endless Mode]&lt;br&gt;Even if you complete all 48 stages, you can play ENDLESS mode to aim at high score by collaborating with friends. By collaborating with friends, your score will grow faster.&lt;br&gt;&lt;br&gt;[Online Play Mode]&lt;br&gt;You can play together online with people who are far away from you. &lt;br&gt;However, this is a game where communication is very important, so we recommend using Discord or Zoom to play while talking.&lt;br&gt;&lt;br&gt;[TecoGamePad]&lt;br&gt;TecoGamePad change your smartphone turn to gamepad (for local play mode)&lt;br&gt;Android: &lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fplay.google.com%2Fstore%2Fapps%2Fdetails%3Fid%3Dtoybox.app.teco_game_pad" target="_blank" rel=" noopener"  &gt;https://play.google.com/store/apps/details?id=toybox.app.teco_game_pad&lt;/a&gt;&lt;br&gt;iOS:&lt;a href="http://itunes.apple.com/us/app/tecogamepad/id1080510485" target="_blank" rel=""  &gt;http://itunes.apple.com/us/app/tecogamepad/id1080510485&lt;/a&gt;&lt;br&gt;&lt;br&gt;Let's have fun playing PICO PARK with your friends!</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>jyhca12624</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1627720</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Lies of P</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>匹诺曹的谎言</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>类魂系列,动作,黑暗奇幻,探索,动作角色扮演</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2023年09月18日</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1627720/extras/steam_ending.gif?t=1666835591" /&gt;&lt;br&gt;你将成为在充满黑暗和疯狂的城市克拉特独自留下的玩偶匹诺曹。&lt;br&gt;从火车站苏醒的你的线索只有一个。&lt;br&gt;&lt;br&gt;“寻找杰斐特老翁吧。”&lt;br&gt;&lt;br&gt;你必须找到杰斐特的灵感，克服所有的威胁。&lt;br&gt;谁也帮不了你，谁也不能相信。&lt;br&gt;&lt;br&gt;你必须选择谎言来做人。&lt;br&gt;&lt;br&gt;Lies Of P是以美丽年代为背景展开的残酷童话动作游戏。&lt;br&gt;美丽的城市变成了凶宅，到了呐喊不止的人性丧失的时代。&lt;br&gt;古典匹诺曹改编成残酷剧的Lies Of P展现了充满魅力的剧本和紧张感十足的魂类动作冒险。&lt;br&gt;你可以体验为了成为人类而踏上旅程的匹诺曹残酷的明天。&lt;h2 class="bb_tag"&gt;残酷动画的重造&lt;/h2&gt;重新改造著名的古典匹诺曹，残酷与众不同的外貌重生。&lt;br&gt;以成为人类的匹诺曹的冒险为主题，陷入绝境危机的克拉特西为背景，描绘了匹诺曹为了成为人类而战的过程。&lt;h2 class="bb_tag"&gt;视觉风格&lt;/h2&gt;以19世纪到20世纪初的贝尔•埃科夫时代为背景，创造了一个面临戏剧性事态和危机的克拉特西的空间，&lt;br&gt;在那里，多种文化绽放、崩塌的繁荣和没落的面貌被表现为优秀的视觉要素。&lt;h2 class="bb_tag"&gt;谎言任务和多结局&lt;/h2&gt;通过相互有机式的程序性任务（Procedural Quest）系统进行谎言的过程中，会延续到多种分期，影响后续的任务，得出各种不同的结局。&lt;h2 class="bb_tag"&gt;武器组合系统&lt;/h2&gt;将游戏内可获得的武器以多种方式组合，找出自己的要素，提供战斗应用的手段，&lt;br&gt;研究新的组合，为了获得更好的武器而进行探索。&lt;h2 class="bb_tag"&gt;通过身体改造的技能系统&lt;/h2&gt;人偶皮诺曹可以改造身体的一部分，通过改造可以获得新技能并用于战斗。&lt;br&gt;通过改造获得的技能不一定只包括战斗技能，还包括各种有用的功能。</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ha1hn0ub8rc6</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1657630</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Slime Rancher 2</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>史莱姆牧场2</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>抢先体验,可爱,彩色,放松,开放世界</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2022年09月23日</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Slime Rancher是一款荣获盛誉人气爆棚的游戏，在全球拥有超过1千5百万的粉丝。而Slime Rancher 2就是这款游戏的续篇。碧翠丝·乐步的冒险并未停歇，这次她来到了彩虹岛。这座神秘的岛屿充满了古老的科技、未知的自然资源，还有铺天盖地的弹嘟嘟史莱姆，是一个尚未被探索的全新世界。&lt;br&gt;为了解开岛屿的谜团，探求它的真实面貌，碧翠丝需要在一座美丽的温室里搭建设施、经营牧场以及务农。透过温室闪亮的玻璃墙壁，可以欣赏到这座炫目天堂的全貌——也是碧翠丝的新家园。&lt;br&gt;&lt;br&gt;亮点&lt;h2 class="bb_tag"&gt;探索全新的多彩世界&lt;/h2&gt;碧翠丝·乐步的牧场冒险揭开新篇章，这次她来到了一个神秘的虹彩斑斓的岛屿。&lt;h2 class="bb_tag"&gt;探索全新的弹嘟嘟史莱姆&lt;/h2&gt;跳棉史莱姆还有垂钓史莱姆，把这些在致远牧场见不到的史莱姆收集起来吧。&lt;h2 class="bb_tag"&gt;在彩虹岛上建造一个温室&lt;/h2&gt;用史莱姆结晶赚取新币，再加上收集来的彩虹岛资源，这样就能升级你的真空枪，建造新装置以及扩张温室了。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>21823670</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1681430</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>RoboCop: Rogue City</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>机械战警：暴戾都市</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>第一人称射击,动作,第一人称,单人,射击</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2023年11月03日</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1704208224" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1704208224" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1704208224" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>DeSDy7773</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1687950</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Persona 5 Royal</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>女神异闻录5皇家版</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2022年10月21日</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/1_Cutscene.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;由ATLUS倾情奉上，青春RPG系列游戏最新作《P5R》再度登场。主角是因为某些原因转学至“东京”的高中的少年。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/2_Summons.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;白天是普通的高中生。放学后则化身为盗取堕落大人们扭曲欲望的怪盗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/4_Tokyo_Walking.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;个性丰富的同伴们渴望的“改变社会”会迎来怎样的结局…？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/5_Showtime.gif?t=1664278874"&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>47233357,36363359</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1735700</t>
+          <t>1227890</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Back to the Dawn</t>
+          <t>Summer Memories</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>动物迷城</t>
+          <t>夏日狂想曲：乡间的难忘回忆</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
+          <t>成人,动漫色情,像素图形,动漫,角色扮演</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2822,128 +2749,135 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2023年11月03日</t>
+          <t>2020年06月15日</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/summer_and_winter_only.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/chuxiaoyong.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_Cards-CN.gif?t=1704452033" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_1-CN.png?t=1704452033" /&gt;&lt;br&gt;你期待已久的暑假终于开始了。在这个暑假当中，你回到了许久没有来过的乡下，见到了姑父，姑姑和两位表姐。就在你以为这个离城市很远的地方根本不会有什么好玩的事情时，原本平静的日常生活却开始朝着意想不到的方向发展……&lt;br&gt;&lt;br&gt;你的两位姐姐到底因为什么而烦恼？看似不起眼的小镇中的网红又是谁？沙滩边的美女大姐姐在寻找什么东西？杂货店外那个带着诡异面具的怪人又究竟是何方神圣？！&lt;br&gt;&lt;br&gt;在这个令人难忘的暑假中，揭开这些谜题的谜底，度过人生中最有意义的一个月吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_2-CN.png?t=1704452033" /&gt;&lt;br&gt;精打细算地过好暑假的每一天，利用闲暇的时间探索小镇，认识小镇的其他居民们，在大自然中肆意玩耍，捕虫和钓鱼也能为生活平添几分色彩。此外，你也可以通过运动和爬山来提升自己的各项属性。&lt;br&gt;&lt;br&gt;各具特色的支线任务，妙趣横生的小游戏，性格迥异的NPC们，以及在特定日期才会触发的特殊事件都会让您沉迷其中，流连忘返！&lt;br&gt;&lt;br&gt;此外，主角和其他角色的亲密度还会影响剧情的走向以及最终的结局。但就算您无法达成最想看到的结局，您也可以使用二周目功能，在保存全部属性和技能的情况下重新开始游戏，度过另一个全新的暑假！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_3_CN.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_3_CN-1.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_3_CN-2.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_3_CN-3.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_3_CN-4.png?t=1704452033" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_3_CN-5.png?t=1704452033" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1227890/extras/Summer_Memories_Description_4-CN.png?t=1704452033" /&gt;&lt;br&gt;&lt;strong&gt;以日常生活的形式进行游戏&lt;/strong&gt;&lt;br&gt;在这部游戏中，您扮演的主人公将会在乡下度过一个难忘的暑假。究竟是要在家中悠闲地度过每一天，还是在各种有趣的地点之间东奔西走？选择权就在您的手中！&lt;br&gt;&lt;br&gt;&lt;strong&gt;妙趣横生的迷你游戏&lt;/strong&gt;&lt;br&gt;无论是钓鱼，锻炼身体，做家务还是在沙滩上寻宝，各种独特的小游戏都总是能给您带来全新的游戏体验和接二连三的惊喜！&lt;br&gt;&lt;br&gt;&lt;strong&gt;精心绘制的像素风插画&lt;/strong&gt;&lt;br&gt;从姑妈到商店的店主大姐姐，再到山上的昆虫学家，每一个角色的插画乃至面部表情都是经过画师精心绘制，为了给您带来最佳的游戏体验才出现在您面前的！&lt;br&gt;&lt;br&gt;&lt;strong&gt;许多可供探索的地点&lt;/strong&gt;&lt;br&gt;细节满满的小镇地图和角色的插画一样，也是画师精心绘制的作品。在探索时一定要睁大眼睛细心寻找，这样才不会错过群山环绕的小镇中的每一个小惊喜哦！</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>yihpe56448</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1751350</t>
+          <t>1236890</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Don't Die In The West</t>
+          <t>Risk of Rain 2 Soundtrack</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>牛仔不能死</t>
+          <t>Risk of Rain 2 Soundtrack</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>制作,生活模拟,西部,探索,沙盒</t>
+          <t>动作,独立</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023年11月09日</t>
+          <t>2020年08月11日</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1703163484" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+          <t>这是Chris Christodoulou与Hopoo Games的第三次合作，这次他重返Risk of Rain系列，为该游戏的音乐宇宙带来了新维度。这张专辑融合了各种音乐元素，包括充满预示感的电子乐与猛烈的前卫金属等音乐类型，并收录了游戏中的所有音乐及额外曲目！&lt;br /&gt;
+&lt;br /&gt;
+合成器的放肆倾泻、仿佛随时可能走调的吉他、狂放不羁的鼓点、繁复的多重节拍、夸张怪诞的制作手法、Risk of Rain的标志性主题旋律，以及其中必不可少的直冲云霄的独奏，这一切所组成的完美混沌漩涡，彰显了这款游戏的疯狂。&lt;br /&gt;
+&lt;br /&gt;
+这张专辑的曲目不仅能陪伴您畅游游戏，更是呕心沥血、值得独立聆听的音乐盛宴。&lt;br /&gt;
+&lt;br /&gt;
+这张专辑收录了24首高品质MP3 (320kbps CBR) &amp;amp; FLAC版曲目，总时长将近2小时。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>maaartiinn1,vAbuDy</t>
+          <t>8735515147</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>1274600</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>The Last Faith</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>最后的信仰</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>类银河战士恶魔城,像素图形,类魂系列,黑暗奇幻,哥特</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2023年11月15日</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>善与恶将受到同样的审判，击碎阻挡你的一切。&lt;br&gt; &lt;br&gt;The Last Faith 充满着暴力美学元素，并提供了丰富的自定义内容，是银河恶魔城和魂类游戏的极致结合。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_5.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;The Last Faith 中充满着无情且精密的战斗，以及供你施展的丰富的自定义处决动作。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_04.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;探索囊括近战武器、神秘法术和远程火器的强大军械库，铺就属于你自己的道路吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_02.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;非线性探索是 The Last Faith 的核心。华丽的像素美术描绘了雄伟的哥特风景。你可以沿着白雪皑皑的山脉前进，也可以踏入沐浴在月光之下的城堡。发现并升级一系列强大的武器，为敌人带去毁灭吧。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/GIF_3.gif?t=1704376701" /&gt;&lt;br&gt;&lt;br&gt;化身为苏醒时已失忆的 Eric，走进 The Last Faith 的残破世界。很快，他就会发现自己在与时间赛跑，而他的头脑和神智已经开始退化。他渴望从这种痛苦中解脱出来，于是他接受了这个被诅咒的任务，走上了这条不断遭遇远古宗教与神灵的道路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1274600/extras/KUMISOULS_THELASTFAITH_GIF_01.gif?t=1704376701" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>50141996</t>
+          <t>banmagame8733</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1868140</t>
+          <t>1334040</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DAVE THE DIVER</t>
+          <t>Paper Dolls 2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>潜水员戴夫</t>
+          <t>纸人2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>像素图形,休闲,冒险,管理,角色扮演</t>
+          <t>第一人称射击,恋爱模拟,射击,心理恐怖,动作冒险</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2953,62 +2887,646 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2023年06月28日</t>
+          <t>2020年07月03日</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/hb_616.jpg?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;《纸人贰》延续了《纸人》1代的生存恐怖，冒险解谜的游戏风格。&lt;/strong&gt;&lt;br&gt;这部作品将为大家带来较一代更为丰富的游玩体验和更具有挑战性的Boss战，在关卡设计、场景氛围、故事剧情表现、游戏玩法，动画、音效等各个方面都有所提升。游戏增加了二周目难度，对于初次探索游玩的玩家可能需要10个小时左右的时间……&lt;br&gt;&lt;br&gt;&amp;gt;在续篇中见证前作主角“杨明远”为了寻找女儿上到殷府的二楼，结局到底如何？&lt;br&gt;&amp;gt;经过一段时间的休养，杨明远的身体状况有了些许恢复，体力有所增强……&lt;br&gt;&amp;gt;这座清末时期的幽森古宅为何充满了怨气？曾经声名显赫的殷府到底发生过什么？杨明远与这座百年古宅究竟有何渊源？&lt;br&gt;&amp;gt;让我们相约7.3 ,   与杨明远一起回到100年前的殷家一探究竟&lt;br&gt;&lt;br&gt;欢迎关注《纸人贰》官方微博：北京荔枝游戏_纸人&lt;br&gt;加入纸人②官方群：170580619，了解更多内容&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot12.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;STORY&lt;/h2&gt;&lt;br&gt;再一次从噩梦中惊醒的杨明远，久久无法让情绪从惊恐不安中平复。只要闭上双眼，脑海中就会吱吱呀呀得不停放映着那卷老旧胶片般的画面——枯朽的古宅，阴森的灵堂，缥缈的身影，还有诡异的纸人穿梭其中，循环往复……然而，似乎还有某种声音夹杂其中，如同召唤又似催促的呢喃，却怎么也听不清。&lt;br&gt;&lt;br&gt;杨明远盯着窗外染红天空的夕阳，决定把这一切都归咎于工作的压力和生活的烦恼。&lt;br&gt;“专注于当下……”他对自己这样说道。&lt;br&gt;随后，拿起外套和汽车钥匙，叫女儿收拾好东西，准备出发。&lt;br&gt;是的，今天是女儿该回妈妈家的日子。&lt;br&gt;当杨明远关门的一瞬间，桌子上的药盒让他迟疑了片刻。&lt;br&gt;“那该死的梦一定和这药片有关！我要把它全部扔进垃圾桶，再换个医生！”暗自下定决心后，杨明远砰得一声关上了房门。&lt;br&gt;&lt;br&gt;当高速路上的车灯渐渐变成一条条飞逝的线条，路灯的光线明亮得刺眼晕眩时，杨明远又听到了那个熟悉的声音。&lt;br&gt;女儿好像说了些什么，虽然就在身边，却如同隔着一堵厚厚的墙壁般不真切。&lt;br&gt;“什么……你究竟要我做什么？！把话说清楚！”他的内心歇斯底里的咆哮道。&lt;br&gt;恍惚间，光影闪烁，在一声巨响之后，整个世界都安静了下来……&lt;br&gt;&lt;br&gt;“这里是……”当杨明远醒来的时候，却发现自己置身一座荒弃的古宅。这里的一切既熟悉又陌生，恍若梦中。但女儿微弱的呼喊唤醒了杨明远的理智，他勉强从地上爬起来，循着女儿的声音，向幽暗阴森的黑暗走去。一个个谜团的背后，埋藏着怎样的秘密？真相正在被层层剥开……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot10.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;殷府及古代背景&lt;/strong&gt;&lt;br&gt;清朝末年，京城西郊有一座藏于山林之间的锦绣府邸。此宅的主人姓殷，出身世家，少年得志，颇受朝廷重用。曾领兵平乱四方，官至极品。人到中年方娶得一房绝色娇妻，二人门当户对，情投意合。但好景不长，朝廷权力更迭，殷老爷官场失意，郁郁不得志，最终归隐避世。&lt;br&gt;&lt;br&gt;殷老爷择一处山水掩映的宝地，修建宅邸，只带亲信随从侍奉左右，又不惜重金请来两位门客作伴。一位是博古通今的柳先生，一位是精通水墨丹青的赵画师。虽然生活远比以往孤寂清冷，却也平和安然。然而，多年膝下无子的殷老爷，忽闻夫人有喜，却如同平静水面被一颗小石子激起千里涟漪。不堪的流言让宅子里人心动荡，一桩桩怪诞的悲剧接踵而来……&lt;br&gt;&lt;br&gt;然而，一场突降的暴雨，连绵数月。待雨停之后，通往这座隐世宅邸的路却再也无人能寻到。殷府上下和它不为人知的秘密一起消失在人们记忆里……&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot9.gif?t=1667556590" /&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;第一人称3D恐怖冒险游戏。在阴森的古宅中探索、冒险，解开一个接一个的谜团，最终挖掘出故事背后隐藏的真相。&lt;h2 class="bb_tag"&gt;FEATURE&lt;/h2&gt;&lt;br&gt;独特神秘的东方文化，细致写实的精良制作，营造出极度真实的幽暗阴森的百年古宅。 加之独特的音乐制作融合了民族、摇滚、吟唱,、配合逼真音效，身临其境的感受直击脑髓的恐怖氛围。&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索&lt;/strong&gt;&lt;br&gt;在一幢清末幽暗阴森的古宅中搜寻女儿的踪迹，在恐惧与疑惑中开始一段令人毛骨悚然的恐怖之旅。&lt;br&gt;&lt;br&gt;&lt;strong&gt;冒险&lt;/strong&gt;&lt;br&gt;寻找女儿的路途障碍重重，如影随形的亡魂无处不在，如何躲避他们，甩掉他们，如何战胜他们……随着古宅往事渐渐被揭开，事情的真相呼之欲出。&lt;br&gt;&lt;br&gt;&lt;strong&gt;生存&lt;/strong&gt;&lt;br&gt;冤死的亡魂已化为厉鬼，在厉鬼环绕的宅子里，稍有不慎就会迎接死亡的降临。&lt;br&gt;&lt;br&gt;&lt;strong&gt;解谜&lt;/strong&gt;&lt;br&gt;在恐怖压抑的清末古宅中用你的智慧解开所有谜团，根据散落的故事碎片推理，打开那一道道被封印了百年的大门。&lt;br&gt;&lt;br&gt;&lt;strong&gt;收集&lt;/strong&gt;&lt;br&gt;通过收集古宅中残存的信息，将隐藏在百年府邸的恐怖往事层层揭开。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1334040/extras/pd2_Screenshot11.gif?t=1667556590" /&gt;&lt;br&gt;&lt;br&gt;虚幻引擎打造次时代主机游戏《纸人》系列新作《纸人贰》Paper Dolls 2： 栩栩如生的写实表现方式、精美的画面描绘出一百多年前的殷家府邸，带给你身临其境的沉浸感。&lt;br&gt;&lt;br&gt;请注意：声音是故事剧情和预知危险的重要依据，请佩戴耳机后再开始游戏</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>svvib92669</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1337520</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Risk of Rain Returns</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>雨中冒险: 回归</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>在线合作,动作类 Rogue,多人,玩家对战环境,2D</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2023年11月09日</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/01_《雨中冒险》回来了！.gif?t=1699995226" /&gt;&lt;br&gt;精心设计、精美重置而且带来了更多全新玩法：《Risk of Rain》 将以前所未有的全新面貌重新归来！深入标志性的探索游戏世界，见证琳琅满目的独特战利品组合， 全新的幸存者、焕然一新的多人游戏模式以及更多内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/02_Before_and_after_revised.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/03_探索全新玩法.gif?t=1699995226" /&gt;&lt;br&gt;磨砺各类技能和能力，发现全新幸存者，迎接愈发困难的挑战！ &amp;quot;探索琼泥V之下沉睡着的远古奥秘。不要放过任何蛛丝马迹， 每一份日志、石板乃至加普都有可能带来全新的内容！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/04_unlock_notification_popping_up.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/05_CN.gif?t=1699995226" /&gt;&lt;br&gt;虽然您们的飞船遭遇了神秘袭击，幸运的是依旧不乏有多位幸存者的身影。切割粉碎，与 重新回归的厨师一起伸张正义，作为执法官固守阵地并用盾牌守护队友，或者喷吐 剧毒泥浆，化身最受喜爱的紫色怪物：呛鼻毒师！铸就全新的道路，探索15位 独特幸存者，精通每位角色带来的全新能力。&lt;br&gt;&lt;br&gt;另外还请准备好迎接流浪者！这位心灵手巧的斗士能够从打败的敌人身上收集碎片，并创造能够暂时强化队友的物品。除此以外，她还能够使用这股力量释放毁灭性的烈焰，焚烧大片的区域。流浪者将为任何幸存者队伍提供不可或缺的帮助。在支援队伍的同时她也有能力自食其力，这证明流浪者绝非仅是一位偷渡客那么简单。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/06_place_holder_gif.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/07_单人游玩或与好友组队.gif?t=1699995226" /&gt;&lt;br&gt;多样化是毁灭的最佳佐料。选择至多11种神器，为每一轮游戏带来不一样的体验！也许 您想要开局获得每次使用都会变化的随机装备物品，或者想要 每隔10分钟体验一次狂暴魔精们的入侵。尝试不同 神器组合，探索刺激有趣的全新玩法。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/08_Gif_of_survivors_jumping_out_Desolate_Forest_zoomed_in.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/09_威力强劲的战利品.gif?t=1699995226" /&gt;&lt;br&gt;在星球上厮杀时不要忘记搜索各类宝贵货物。这些物品将成为您的 救命法宝，它们能令您跑得更快，造成更多伤害或者跳跃到更高的位置。除了这些以外， 有些物品还会给您带来更不可思议的变化：比如说稀有的尤克里里，这种物品将为您的攻击带来 闪电”般的激荡乐律。如果想要大肆爆炸，记得寻找完美巨兽， 届时再普通不过的攻击也将引发一连串的美妙轰鸣。随心所欲组合， 见证千奇百怪的效果。爆炸性连锁闪电不过是 您的疯狂杰作的第一步！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/10_Potent_Pick_Ups___fireboots_2.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/11_危机四伏的琼泥V.gif?t=1699995226" /&gt;&lt;br&gt;琼泥V之上存在着来源于不同星球上的生物。当 这些怪物在当初的母星上濒临灭绝时，一股神秘力量将它们带到了 琼泥V。这颗星球迅速变成了容纳着全宇宙最为凶狠的怪物的 动物园”，而且最糟糕的是，它们并不喜欢不速之客（也就是“您们”）的到访。 激活遍布星球的古代传送器，穿越全部10种地貌环境。 奋力求生，杀出一条血路并重新回到当初被迫遗弃的飞船。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/12_Diversity_of_Environment.gif?t=1699995226" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/13_改天换地的神器.gif?t=1699995226" /&gt;&lt;br&gt;单人或者是与队友一同降落至星球地表！选择能够互相扶持、 互补不足的幸存者小队，或者由着性子来，谁的枪炮最猛就选谁（最佳答案： 装卸工）。享受至多四人的在线与本地合作模式，记住，您并不是一个人。 雨中冒险: 回归 将带来改良后的全新多人游戏服务以确保 您的队伍将能够顺畅自如地挑战琼泥V之上的怪物洪潮。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1337520/extras/14_place_holder_gif_3_possible_artifact.gif?t=1699995226" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1390150</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Summer Memories+ - Expansion DLC</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>夏日狂想曲+</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>成人,动漫色情,角色扮演,冒险,像素图形</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2021年01月09日</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1390150/extras/summer_and_winter_only.png?t=1704452029" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2Fkaguragames" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1390150/extras/Steam_Page_Discord-CN_1_.png?t=1704452029" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;火热的暑假尚未结束，更多的回忆正在等你去创造！&lt;br&gt;&lt;br&gt;由Dojin Otome制作的人气日常RPG《夏日狂想曲：乡间的难忘回忆》，如今正式迎来DLC更新了！更多的探索内容，更多的NPC互动，诸多全新的玩法尽在此间！继续回到平静安宁的乡间小镇，与姑母一家享受惬意的暑假生活，把这个夏日过得更加火热不已吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;游戏要素&lt;/h2&gt;&lt;/strong&gt;&lt;ul class="bb_ul"&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;为3名女主角各自新增6幕事件&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;5名女配角新增语音与独特的事件&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;添加更多技能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;追加“Cosplay”等新互动玩法！&lt;/li&gt;&lt;/ul&gt;*需要已购买《夏日狂想曲：乡间的难忘回忆》游戏本体才能体验DLC内容&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>maaartiinn1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1509960</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PICO PARK</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PICO PARK</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>多人,在线合作,平台解谜,休闲,合作</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2021年05月07日</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt; * If you are connecting more than 5 Xbox controllers, please enable &amp;quot;Xbox Extended Feature Support&amp;quot; in Controller Settings.&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;PICO PARK is a cooperative local/online multiplay action puzzle game for 2-8 players.&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;The rule is quite simple: &amp;quot;Get all the keys and get to the goal and clear&amp;quot;, but all 48 levels have special gimmicks designed specifically for multiplayer. At most levels, different gimmicks will appear as you move forward, and you will need to consult with your peers and think about new ways to cooperate.&lt;br&gt;&lt;br&gt;This version is essentially a port of the one we released on the Nintendo Switch in 2019.&lt;br&gt;However, it's not just a port, it now supports online play.&lt;br&gt;&lt;br&gt;The 2016 version of this link has been renamed  &amp;quot;PICO PARK:Classic Edition&amp;quot;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/461040/PICO_PARKClassic_Edition/&lt;/a&gt;&lt;br&gt;&lt;br&gt;[Flexible Level]&lt;br&gt;Each level of PICO PARK can be cleared when players get the key,unlock the door and all players reach it.But, every level requires cooperation to complete..&lt;br&gt;&lt;br&gt;[Battle Mode]&lt;br&gt;Co-op play is the main work of this game, but let's compete with friends in BATTLE MODE once co-op play is completed.&lt;br&gt;&lt;br&gt;[Endless Mode]&lt;br&gt;Even if you complete all 48 stages, you can play ENDLESS mode to aim at high score by collaborating with friends. By collaborating with friends, your score will grow faster.&lt;br&gt;&lt;br&gt;[Online Play Mode]&lt;br&gt;You can play together online with people who are far away from you. &lt;br&gt;However, this is a game where communication is very important, so we recommend using Discord or Zoom to play while talking.&lt;br&gt;&lt;br&gt;[TecoGamePad]&lt;br&gt;TecoGamePad change your smartphone turn to gamepad (for local play mode)&lt;br&gt;Android: &lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fplay.google.com%2Fstore%2Fapps%2Fdetails%3Fid%3Dtoybox.app.teco_game_pad" target="_blank" rel=" noopener"  &gt;https://play.google.com/store/apps/details?id=toybox.app.teco_game_pad&lt;/a&gt;&lt;br&gt;iOS:&lt;a href="http://itunes.apple.com/us/app/tecogamepad/id1080510485" target="_blank" rel=""  &gt;http://itunes.apple.com/us/app/tecogamepad/id1080510485&lt;/a&gt;&lt;br&gt;&lt;br&gt;Let's have fun playing PICO PARK with your friends!</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1548850</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Six Days in Fallujah</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>六日</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>抢先体验,军事,战术,第一人称射击,射击</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2023年06月22日</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>《Six Days in Fallujah》是一款第一人称战术射击游戏。本作将带领你和另外三名玩家投身真实世界中的巷战，你需要掌握现实世界中各种战术技巧才能化险为夷。 &lt;br&gt;&lt;br&gt;本作是在100多位亲历第二次费卢杰战役的海军陆战队队员和士兵的协助下完成。即便是现在回望那场巷战，战况也着实惨烈。&lt;br&gt;&lt;br&gt;&lt;strong&gt;现已推出3个新任务！！！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;4人战术合作&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1548850/extras/SDIF_Tactical_Coop_052723.gif?t=1703012578" /&gt;&lt;br&gt;紧密合作！团队合作至关重要。敌人会对你展开跟踪、包抄、埋伏，借助隧道发动偷袭、引诱你进入陷阱。他们会用上半个世纪以来最惨烈的第二次费卢杰战役中的战术来对付你。&lt;h2 class="bb_tag"&gt;程序化的建筑&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1548850/extras/SDIF_ProcArch_052723.gif?t=1703012578" /&gt;&lt;br&gt;在《Six Days in Fallujah》中，每次开始任务时，战场上建筑物的内部和外部都会重塑，敌人会占据新的位置，也会出现不同的威胁。你永远不知道会发生什么——就像实战一样。&lt;h2 class="bb_tag"&gt;全方位的战场&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1548850/extras/SDIF_Flares_616x215.gif?t=1703012578" /&gt;&lt;br&gt;不存在“必胜之路”。爬上屋顶，跨过木板，踹开房门或者翻窗而入。你可以自行决定。后果也是一样自负。&lt;h2 class="bb_tag"&gt;路线图&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1548850/extras/SDIF_Stack_616px.jpg?t=1703012578" /&gt;&lt;br&gt;抢先体验半目前包含了7个纯玩家战术合作任务，所有任务的行动时间都包含了白天和夜晚，同时还会出现多样的天气。 &lt;br&gt;&lt;br&gt;预计在2024年上半年，我们还会推出任你掌控的AI火力小组。此外，我们添加了更多任务，引入了更多平民。单人故事模式取材于特定的真实故事，由亲历战争的美国人和伊拉克人讲述。&lt;h2 class="bb_tag"&gt;第二次费卢杰战役&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1548850/extras/SDIF_Hug_616px.jpg?t=1703012578" /&gt;&lt;br&gt;2004年春，伊拉克基地组织夺取了费卢杰市的控制权。他们以此为基地，残忍对待当地居民，发动跨地区的恐怖袭击。六个月后，伊拉克总理下令让平民离开这座城市，好让伊拉克、美国和英国军队一起夺回费卢杰。短短六天时间，第二次费卢杰战役就成为了半个世纪以来最惨烈的血战。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>jyhca12624</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1627720</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Lies of P</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>匹诺曹的谎言</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>类魂系列,动作,黑暗奇幻,探索,动作角色扮演</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2023年09月18日</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1627720/extras/steam_ending.gif?t=1666835591" /&gt;&lt;br&gt;你将成为在充满黑暗和疯狂的城市克拉特独自留下的玩偶匹诺曹。&lt;br&gt;从火车站苏醒的你的线索只有一个。&lt;br&gt;&lt;br&gt;“寻找杰斐特老翁吧。”&lt;br&gt;&lt;br&gt;你必须找到杰斐特的灵感，克服所有的威胁。&lt;br&gt;谁也帮不了你，谁也不能相信。&lt;br&gt;&lt;br&gt;你必须选择谎言来做人。&lt;br&gt;&lt;br&gt;Lies Of P是以美丽年代为背景展开的残酷童话动作游戏。&lt;br&gt;美丽的城市变成了凶宅，到了呐喊不止的人性丧失的时代。&lt;br&gt;古典匹诺曹改编成残酷剧的Lies Of P展现了充满魅力的剧本和紧张感十足的魂类动作冒险。&lt;br&gt;你可以体验为了成为人类而踏上旅程的匹诺曹残酷的明天。&lt;h2 class="bb_tag"&gt;残酷动画的重造&lt;/h2&gt;重新改造著名的古典匹诺曹，残酷与众不同的外貌重生。&lt;br&gt;以成为人类的匹诺曹的冒险为主题，陷入绝境危机的克拉特西为背景，描绘了匹诺曹为了成为人类而战的过程。&lt;h2 class="bb_tag"&gt;视觉风格&lt;/h2&gt;以19世纪到20世纪初的贝尔•埃科夫时代为背景，创造了一个面临戏剧性事态和危机的克拉特西的空间，&lt;br&gt;在那里，多种文化绽放、崩塌的繁荣和没落的面貌被表现为优秀的视觉要素。&lt;h2 class="bb_tag"&gt;谎言任务和多结局&lt;/h2&gt;通过相互有机式的程序性任务（Procedural Quest）系统进行谎言的过程中，会延续到多种分期，影响后续的任务，得出各种不同的结局。&lt;h2 class="bb_tag"&gt;武器组合系统&lt;/h2&gt;将游戏内可获得的武器以多种方式组合，找出自己的要素，提供战斗应用的手段，&lt;br&gt;研究新的组合，为了获得更好的武器而进行探索。&lt;h2 class="bb_tag"&gt;通过身体改造的技能系统&lt;/h2&gt;人偶皮诺曹可以改造身体的一部分，通过改造可以获得新技能并用于战斗。&lt;br&gt;通过改造获得的技能不一定只包括战斗技能，还包括各种有用的功能。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1649730</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>修仙立志传</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>修仙立志传</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>懒人游戏,抢先体验,独立,文字游戏,休闲</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2022年06月21日</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;放置挂机，属性成长&lt;/h2&gt;这是一款简单的修仙模拟游戏（简单到没有战斗系统）！可肝可放置！集中了多种极具成长性的游戏系统与玩法。从炼气、筑基到飞升仙界，甚至跨入神界的过程中，将不断解锁新的玩法系统。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1649730/extras/1.gif?t=1690469308" /&gt;&lt;h2 class="bb_tag"&gt;炼丹炼器，多种技艺&lt;/h2&gt;草木、金石、炼器、炼丹、种植、驭兽、画符……多种修仙技艺。简单却不失自由度，是正统修仙路线，还是炼丹炼器大师、或是捕驭灵兽的奇人异士，皆可体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1649730/extras/2.gif?t=1690469308" /&gt;&lt;h2 class="bb_tag"&gt;模拟经营，自建门派&lt;/h2&gt;游戏进入中期后，即可自建门派。虽然为简单的进度条点击经营方式，但招募不同天资弟子、收集发展资源、建设门派设施、攻伐天下各种经营要素一应俱全。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1649730/extras/3.gif?t=1690469308" /&gt;&lt;h2 class="bb_tag"&gt;创造万物，建立神国&lt;/h2&gt;在踏破五界后，可以开启崭新创造玩法——创造神国。在神国中，可从“一气”开始，孕育万物、培育子民、挑战来自其他位面威胁！&lt;h2 class="bb_tag"&gt;无限挑战，涅槃重生&lt;/h2&gt;游戏内时间不断流逝，主人公资质低劣，必须通过不断修炼、突破境界、提高寿元！这世不行，就转世重生，根据前世修为获得天资加成，让修炼变得更快速且简单！&lt;h2 class="bb_tag"&gt;吹逼过头，游戏诚心&lt;/h2&gt;以上有宣传文字有极大吹牛成分。你会发现这就是一个简单的进度条、模拟、放置游戏，还有很多不完善的地方。但我会不断的加入新的玩法和内容。接受各位提供任何创意想法、改进建议。&lt;br&gt;&lt;br&gt;鞭策Q群（一群）：1032303023 （人均神皇、风险莫测）已满&lt;br&gt;新爱Q群（二群）：631616289（仙途迷茫、云起云涌）已满&lt;br&gt;真爱Q群（三群）：850550123（开服一秒、关爱新人）&lt;br&gt;&lt;br&gt;欢迎任何建议、意见及bug反馈，也欢迎有志同道合的朋友加群聊sao！&lt;br&gt;我是一个因自身爱好而投身游戏的开发小白！游戏有很多不成熟甚至错误的地方。我一定听取大家的意见加速完善！&lt;br&gt;请各位喜欢本游戏的大大，给个好评！觉得《修仙立志传》还有发展空间的，给点鼓励！</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ha1hn0ub8rc6</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1657630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Slime Rancher 2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>史莱姆牧场2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>抢先体验,可爱,彩色,放松,开放世界</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2022年09月23日</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Slime Rancher是一款荣获盛誉人气爆棚的游戏，在全球拥有超过1千5百万的粉丝。而Slime Rancher 2就是这款游戏的续篇。碧翠丝·乐步的冒险并未停歇，这次她来到了彩虹岛。这座神秘的岛屿充满了古老的科技、未知的自然资源，还有铺天盖地的弹嘟嘟史莱姆，是一个尚未被探索的全新世界。&lt;br&gt;为了解开岛屿的谜团，探求它的真实面貌，碧翠丝需要在一座美丽的温室里搭建设施、经营牧场以及务农。透过温室闪亮的玻璃墙壁，可以欣赏到这座炫目天堂的全貌——也是碧翠丝的新家园。&lt;br&gt;&lt;br&gt;亮点&lt;h2 class="bb_tag"&gt;探索全新的多彩世界&lt;/h2&gt;碧翠丝·乐步的牧场冒险揭开新篇章，这次她来到了一个神秘的虹彩斑斓的岛屿。&lt;h2 class="bb_tag"&gt;探索全新的弹嘟嘟史莱姆&lt;/h2&gt;跳棉史莱姆还有垂钓史莱姆，把这些在致远牧场见不到的史莱姆收集起来吧。&lt;h2 class="bb_tag"&gt;在彩虹岛上建造一个温室&lt;/h2&gt;用史莱姆结晶赚取新币，再加上收集来的彩虹岛资源，这样就能升级你的真空枪，建造新装置以及扩张温室了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>21823670</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1681430</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RoboCop: Rogue City</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>机械战警：暴戾都市</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>第一人称射击,动作,第一人称,单人,射击</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>成为标志性的半人半机械英雄警察，努力为犯罪猖獗且危险的旧底特律带来正义。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以任何必要的手段维护法律：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif01.gif?t=1704208224" /&gt;&lt;br&gt;使用强大的 Auto-9 或其余二十种武器，在这场一触即发的第一人称冒险中根除罪犯。你强大的机械力量与神经机械能力让你成为了在维护法律方面最为高效的的警察，而这些能力还可随着剧情的推进进一步升级。&lt;br&gt;&lt;br&gt;&lt;strong&gt;完成首要指令的方式由你自行决定：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif02.gif?t=1704208224" /&gt;&lt;br&gt;探索开放区域，凭自己内心的正义感完成目标。作为一名警察，寻找证据、盘问目击者以及维持公共秩序只是你日常工作的一部分。但不要轻易做出抉择：你的选择将决定市民的命运与自己任务的结局。&lt;br&gt;&lt;br&gt;&lt;strong&gt;《机械战警》世界中的原创故事：&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1681430/extras/Robocop_Steam_Gif03.gif?t=1704208224" /&gt;&lt;br&gt;底特律城发生了一系列的犯罪事件，一名新的敌人正威胁着公共秩序。你的调查将带领你深入一个神秘项目的核心，让你细细品味一段发生于《机械战警 2》与《机械战警 3》之间的原创故事。探索机械战警世界中的标志性地点，并与其中的老面孔相见。原版电影主演 Peter Weller 甚至重回岗位，为我们的赛博警察献声。&lt;br&gt;&lt;br&gt;&lt;strong&gt;做好准备……&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;保护无辜者，维护法律&lt;/h2&gt;&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1681430/RoboCop_Rogue_City/&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DeSDy7773</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1687950</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Persona 5 Royal</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>女神异闻录5皇家版</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>日系角色扮演,剧情丰富,动漫,回合制战斗,好评原声音轨</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2022年10月21日</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/1_Cutscene.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;由ATLUS倾情奉上，青春RPG系列游戏最新作《P5R》再度登场。主角是因为某些原因转学至“东京”的高中的少年。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/2_Summons.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;白天是普通的高中生。放学后则化身为盗取堕落大人们扭曲欲望的怪盗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/4_Tokyo_Walking.gif?t=1664278874"&gt;&lt;br&gt;&lt;br&gt;个性丰富的同伴们渴望的“改变社会”会迎来怎样的结局…？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1687950/extras/5_Showtime.gif?t=1664278874"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>47233357,36363359</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1735700</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Back to the Dawn</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>动物迷城</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>角色扮演,剧情丰富,像素图形,推理,选择取向</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2023年11月03日</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>这是一款关于越狱的游戏，犯罪、阴谋、陷害交织其中，当然也少不了纷杂的感情线。在精美的像素画面下，你将扮演动物囚犯在严酷的监狱中生存、探索、成长以及逃脱。在《动物迷城》的世界中你会遇到众多个性十足的角色，并体验令人映像深刻的剧情。打起精神来，你即将拯救的不仅仅是自己，还有身后的这座城市！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/硬派剧情-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;置身于动物之城，扮演遭受陷害的记者，试着在严酷的监狱中生存下来。与作为律师的挚友里应外合，收集证据，在危难之中拯救自己和这座城市。（当前游戏还在开发阶段，今后将推出更多的可扮演角色，当然每个主角都将拥有自己的故事）&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/1漫画-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/沉浸模拟-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;彻底融入这座庞大的监狱，严格遵守它的规定，同时将它作为你的表演舞台。探索陌生的环境，迎接种种未知的挑战。是当个安稳度日的模范囚犯，还是四处惹是生非大搞破坏，这一切都将由你决定。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/2点名-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/出场角色-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;这座监狱里每个角色都拥有令人难以忘怀的故事。与他们结交并相互帮助（利用），或是狠狠的踢他们的屁股！当然你也可以做个“独行侠”，或是在各个势力间巧妙周旋。是贯彻正义还是用点手腕，既然进了监狱，不妨试着入乡随俗。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/3监狱走廊-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/成长系统-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;做个用拳头说话的硬汉，或是藏于阴影中的盗贼；想要巧舌如簧外加一点黑客技术？当然，在这里一切皆有可能。学习技能，收集装备，制作工具，试着从无名的菜鸟囚犯成长为耀眼的监狱之星吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/4操场-CN.gif?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/越狱路线-CN.png?t=1684835167" /&gt;&lt;br&gt;&lt;br&gt;从洗衣房到医务室，再到下水道和停车场，这里的每寸土地都能成为你越狱拼图中的一块。发现每个场景中的秘密，然后利用它们，自由之路上，你的想象力将成为最有力的武器。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735700/extras/5物品交互-CN.gif?t=1684835167" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>yihpe56448</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1751350</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Don't Die In The West</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>牛仔不能死</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>制作,生活模拟,西部,探索,沙盒</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2023年11月09日</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;《牛仔不能死》&lt;/strong&gt;是一款开放世界牛仔生活RPG，可供1-4人游戏。开始草原上的新生活，探索边疆，打造自己的牧场。探索开放的草原、摇摇欲坠的Tumbleville小镇还有绝对不闹鬼且程序生成的矿井。打造冒险工具、致命的左轮枪、炸药，还要为野马制作鞍座。为你的帮派建造一个美丽的大型牧场或者宽敞的藏身之处。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_avenge-uncle-howard_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;穿越旧西部美丽而残酷的世界。造访当地小镇Tumbleville，向酒吧老板Nellie打听最新的传闻。Gritt Corp.正将其邪恶的石油帝国扩展到城镇西部，Dawson帮派则不时劫掠驿站马车。据传山顶住着一个聪明的（也可能是疯狂的）隐士——他可能更了解他们的下落。可以徒步旅行，也可以用套索抓野生种马，让它成为值得信赖的坐骑。慢点来！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_fight-rival-gangs_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;对牛仔来说，没什么比建立声望更重要了。你的选择和行动会产生后果，因此你会如何被人记住完全取决于你。究竟是成为西部最友善的枪手，还是成为臭名昭著的野蛮亡命徒？在Tumbleville有一位暂时住下的旅行记者，负责记录接下来发生的事情。如果你在此留下足迹，你的传奇一定会在未来的岁月中被人传颂。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_craft-tools-weapons_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;在整个平原四处收集资源，将它们制作成在西部繁荣发展所需的武器、衣物和装备。深入程序生成的矿井，挖掘隐藏的宝藏，找出最稀有和最有价值的资源。猎取野生动物或打点土豆来制作炖菜——没有左轮手枪解决不了的问题。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_build-your-ranch_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;作为牛仔，在一整天的冒险后，你需要一个地方来挂上马刺休憩身心。建造你梦想中的牧场，配备工艺作坊、马厩、威士忌酿造厂，甚至还有牌桌。游戏里有大量开阔空间让你扩展基地。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/S-CH_ddiw_steam-gif_explore-the-west_600x350_30fps.gif?t=1703163484" /&gt;&lt;br&gt;你可以扮演独行侠，也可以和最多3名其他玩家结成帮派。合作收集资源，建造整个西部最棒的藏身处。与牛仔伙伴一起对抗最坏的大恶徒，然后并排骑马奔向日落。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1751350/extras/question.png?t=1703163484" /&gt;&lt;br&gt;请密切关注此页面，我们会继续发表游戏的新功能。&lt;br&gt;&lt;br&gt;加入我们的&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2F7rYwpXTEZJ" target="_blank" rel=" noopener"  &gt;Discord&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>maaartiinn1,vAbuDy</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1790230</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - Editor Extensions</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wallpaper Engine - 编辑器扩展</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2021年11月26日</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>50141996</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1868140</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DAVE THE DIVER</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>潜水员戴夫</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>像素图形,休闲,冒险,管理,角色扮演</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2023年06月28日</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1704421077" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>xebqk71569</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>1888160</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>ARMORED CORE™ VI FIRES OF RUBICON™</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>装甲核心6</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>机甲,角色自定义,动作,机器人,第三人称</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>2023年08月25日</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>数字豪华版将收录以下内容；&lt;br /&gt;
 ·游戏本体&lt;br /&gt;
@@ -3028,330 +3546,626 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1938090</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Call of Duty®</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>使命召唤®</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>第一人称射击,多人,射击,动作,单人</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2022年10月28日</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">使命召唤®总部支持《使命召唤®：现代战争® II 2022》和《使命召唤®：战争地带™》。&lt;br /&gt;
+&lt;br /&gt;
+《使命召唤®：现代战争® II 2022》将玩家带入了一场前所未有的全球冲突，141特遣队的标志性队员们即将回归。&lt;br /&gt;
+&lt;br /&gt;
+《使命召唤®：战争地带™》是一个大型免费战斗竞技场，其中包括生存游戏、重生和无人区。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1954200</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kena: Bridge of Spirits</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>柯娜：精神之桥</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>动作,冒险,动作冒险,类魂系列,女性主角</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2022年09月27日</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;《Kena: Bridge of Spirits》&lt;/i&gt;：一款以故事情节推动的动作冒险游戏，将探索与激烈的战斗结合在一起。凯那，一个年轻的灵魂向导，正在寻找圣山神社，他想要解开过去的谜团。腐灵是凯那的灵魂伴侣，虽然外表可爱，但本领强大。在腐灵的帮助下，一起解救被困在废弃村庄里的灵魂吧。&lt;h2 class="bb_tag"&gt;关键功能&lt;/h2&gt;&lt;strong&gt;组建你的队伍&lt;/strong&gt;&lt;br&gt;腐灵是遍布在森林中的胆小而虚幻的灵魂，他们通过分解死尸并腐坏各种元素来保持平衡。 &lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;寻找并收集藏在村庄里的腐灵。&lt;br&gt;&lt;/li&gt;&lt;li&gt;发现越多腐灵，就能解锁越多新鲜强大的腐灵能力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;使用腐灵的力量清除村里的腐化。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1954200/extras/RotGetv2.gif?t=1664298117" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索迷人的世界&lt;/strong&gt;&lt;br&gt;发现村庄的秘密，并使用来自灵魂界的力量重建这个曾经辉煌的世界，解开村庄奇怪的诅咒之谜。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;探索村庄的每个角落，揭开秘密、获得奖励。&lt;br&gt;&lt;/li&gt;&lt;li&gt;发现可收集的腐灵帽来定制你的腐灵同伴。&lt;br&gt;&lt;/li&gt;&lt;li&gt;寻找并递送迷失的灵魂留下的“灵魂信物”，以开辟新的区域。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1954200/extras/Adventurev2.gif?t=1664298117" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;参加激烈的战斗&lt;/strong&gt;&lt;br&gt;与“腐化的灵魂”交锋，它们被困在原地，无法前行，它们在每一个转角处都会向凯那发起挑战。&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;利用各种近身攻击和远程攻击磨练并提升你的技艺。&lt;br&gt;&lt;/li&gt;&lt;li&gt;用强大的“腐灵行动”指挥腐灵同伴发挥威力。&lt;br&gt;&lt;/li&gt;&lt;li&gt;升级你的能力和力量，成为技艺高超的灵魂向导。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1954200/extras/Combatv2.gif?t=1664298117" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;现已包含所有周年庆更新内容！&lt;/strong&gt;&lt;br&gt;探索全新的功能，包括：新游戏+、试炼、服装等等！&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;i&gt;&lt;strong&gt;新游戏+&lt;/strong&gt;&lt;/i&gt;：完成游戏后开始新的冒险，开始使用你所有的能力、升级和腐灵来面对新的遭遇战、挑战和独特的敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;i&gt;&lt;strong&gt;灵魂向导试炼&lt;/strong&gt;&lt;/i&gt;：在灵魂向导试炼中提升你的技能并解锁奖励，包括：海浪防御、障碍训练场，还有机会与大Boss多次作战。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;i&gt;&lt;strong&gt;服装&lt;/strong&gt;&lt;/i&gt;：成功完成试炼后，可为凯那解锁全新服装。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;i&gt;&lt;strong&gt;魔法石&lt;/strong&gt;&lt;/i&gt;：发现可装备的魔法石，利用不同的优势和劣势来定制你的作战风格。  &lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;i&gt;&lt;strong&gt;增强照片模式&lt;/strong&gt;&lt;/i&gt;：包括更多有趣的姿势、独特的照明设置，甚至还有移动相机功能！&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1954200/extras/ContinueGrainPass.gif?t=1664298117" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2016420</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A Dance of Fire and Ice - Neo Cosmos OST</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>A Dance of Fire and Ice - Neo Cosmos OST</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>独立</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2022年06月14日</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>The official soundtrack for &lt;strong&gt;A Dance of Fire and Ice: Neo Cosmos&lt;/strong&gt; featuring Canblaster 2K6, Frums, Ash Astral, and DM DOKURO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2050650</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Resident Evil 4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>生化危机4 重制版</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>动作,生存恐怖,第三人称射击,僵尸,单人</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2023年03月24日</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>成功逃脱并战胜死亡的快感。&lt;br/&gt;
+&lt;br/&gt;
+前所未有的生化灾难“浣熊市事件”六年后......&lt;br/&gt;
+成为特务的里昂·斯科特·肯尼迪被派去营救被绑架的总统千金。&lt;br/&gt;
+里昂踏进被“疯狂”支配之地，他的结局会是……&lt;br/&gt;
+一场生与死、恐怖与感情瞬间交错的严酷营救剧即将揭开帷幕。&lt;br/&gt;
+&lt;br/&gt;
+透过直观的操作和最新的画面，以及再构成的故事重生为全新的生存恐怖体验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>swmfgy</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>2103140</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Magicraft</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>魔法工艺</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>类 Rogue,角色扮演,弹幕射击,轻度 Rogue,牌组构建</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>2023年11月02日</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>官方QQ群号:&lt;br&gt;官方1群：851267023（满）&lt;br&gt;官方2群：692422128（满）&lt;br&gt;官方3群：917384907（推荐）&lt;br&gt;dodo语音社区：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://imdodo.com/s/228050?inv=HVNQ3" target="_blank" rel=" noopener"  &gt;https://imdodo.com/s/228050?inv=HVNQ3&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;传说！拔出法杖的人将会成为拯救世界的勇者！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;《魔法工艺》是一款魔法动作Roguelike游戏，也是一款俯视角Roguelike法术构筑类游戏，利用各种各样的法术搭配出难以想象的法术效果，超高自由度的构建就连开发者也无法穷尽。游戏以被古神入侵的世界为核心，打造了一个架空的魔法奇幻世界。 玩家将作为误入此世界又拔出了传说法杖的勇者，讨伐怪物、组合独一无二的法术、击败古神、拯救这个被古神入侵的世界！&lt;br&gt;&lt;br&gt;&lt;strong&gt;—Q版的画风—&lt;/strong&gt;&lt;br&gt;魔性的画风，奇异的生物，无厘头的剧情。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc1.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—自由的组合—&lt;/strong&gt;&lt;br&gt;多样的法术，独特的法杖，奇妙的组合。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc3.gif?t=1698913066" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc4.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—随机的强化—&lt;/strong&gt;&lt;br&gt;随机的法杖，随机的法术，随机的遗物。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc5.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—炫酷的战斗—&lt;/strong&gt;&lt;br&gt;森林的异变，城堡的古旧，时空裂缝的混乱， 多彩绚丽的华丽战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc6.gif?t=1698913066" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;—趣味的解谜—&lt;/strong&gt;&lt;br&gt;还有更多益智关卡等你来玩！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2103140/extras/Desc7.gif?t=1698913066" /&gt;</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>cuqikk0721</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>2125090</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Tintin Reporter - Cigars of the Pharaoh</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>丁丁历险记：法老的雪茄</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>动作,冒险,自选历险体验,动作冒险,3D</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>2023年11月08日</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>丁丁和他忠实的伙伴雪莉即将开始一段段非凡冒险……在地中海巡航时遇见萨科法格斯教授后，这位久负盛名的记者开始寻找法老基奥斯克的墓穴。&lt;br&gt;&lt;br&gt;法老的坟墓里究竟暗藏何种邪恶之秘？ &lt;br&gt;&lt;br&gt;始于埃及、迈入印度、穿越阿拉伯，丁丁和雪莉终将查清遍及整个东方的庞大毒品贩运网络。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;忠实于原著的多彩冒险之旅&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;这款游戏涵盖丁丁宇宙的方方面面，故事叙说迂回曲折、精彩纷呈，是埃尔热伟大创意遗产的一部分，带您领略神秘埃及和其他极尽绚丽之地的魅力。《法老的雪茄》是该系列的第4段冒险。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;一款充满冒险生活风情的电子游戏&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;和丁丁一道，开始一段振奋人心、发人深省的冒险，谨慎探索东方、墓穴、沙漠、茂密丛林的深处或其他危机四伏之地，尝试解决一起国际毒品走私案件。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;众多精彩游戏玩法尚待掌握&lt;/h2&gt;&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏玩法别出新意，集冒险游戏和调查游戏所有精彩元素为一体。本游戏诚邀您扮演一名侦探或记者：通过搜索和潜入，找寻案件线索，继而藉由扣人心弦的视频场景和丰富的调查对话解决难题。&lt;br&gt;&lt;/li&gt;&lt;li&gt;解谜、搜索及潜入场景，飞机与汽车追逐，调查对话……别具一格的玩法体验，让每个玩家都能化身真正的记者开始奇妙冒险之旅！&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>47587391</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>2136740</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>七度荒域</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>七度荒域：双生树</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>角色扮演,动作,动作冒险,动作类 Rogue,像素图形</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>2023年11月16日</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/1zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;ACT之名打造极致2D像素类战斗体验!&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/2zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;这世界提供多样化武器与技能的搭配，每种搭配都可以带来不同的策略和战斗体验。&lt;br&gt;同时也结合了横版动作游戏的特性，来为这世界创造秘密。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/6z.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;Rogue类刷宝收集是猎人的最爱&lt;br&gt;这世界提供繁多的装备词缀，可以组装成各种不同的属性战术方式。&lt;br&gt;用这样的机制取代来致敬剑与魔法时代的追求。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/3zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;这个世界拥有等级，也拥有重复死亡，这样的前进方式，需要你我的追寻。&lt;br&gt;在致敬也是在前进。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5z.png?t=1704522517" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2136740/extras/5zz.gif?t=1704522517" /&gt;&lt;br&gt;&lt;strong&gt;在这个世界探索与挑战，塔罗牌式收集填满你的战利品&lt;/strong&gt;</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2140250</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Kena: Bridge of Spirits (Original Soundtrack)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Kena: Bridge of Spirits Soundtrack</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2022年09月27日</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>《Kena: Bridge of Spirits》的原声带经过加长和重灌，与凯那冒险旅程中的自然美景、神秘氛围和心灵激荡遥相呼应。来自Theophany的作曲家Jason Gallaty与来自Çudamani的I Dewa Putu Berata通力合作，将电影配乐与丰富的巴厘岛传统风格融为一体，打造了一场动人心魄的独特聆听之旅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>drdxzafztmxc</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>2399830</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>ARK: Survival Ascended</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>方舟：生存飞升</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>抢先体验,生存,开放世界,恐龙,冒险</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>2023年10月26日</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>进入一场全新的恐龙生存体验，这一切将超越您最狂野的幻想……《方舟》采用虚幻引擎 5 重新设计，并融入了下一代电子游戏技术！您会在一个神秘的小岛上醒来，刺眼的阳光和绚丽的色彩将使你目不暇接. 蔚蓝的海水拍打着您赤裸的双脚。迷雾丛林中回荡的低沉吼叫让你猛然惊醒，你站了起来--却不是因为害怕，而是因为好奇。你准备好组建一个部落，驯养和繁殖数百种恐龙和其他原始生物，探索、制作、建造，并一路进发至食物链的顶端了吗？一场新的冒险在等待着你......不要再犹豫了,快来加入这个世界吧！&lt;br&gt;&lt;br&gt;&lt;strong&gt;游戏特色&lt;/strong&gt;&lt;br&gt;&lt;br&gt;●	《方舟：生存飞升》重新构思了ARK的艺术设计和游戏世界，采用了最新的虚幻引擎5游戏技术，包括高端图形功能技术，例如全局动态照明（Lumen），使光线在物体表面形成逼真的反射效果，以及由数亿个三角形组成的高级网格流技术（Nanite），以呈现出极致的细节。&lt;br&gt;&lt;br&gt;●	游戏还采用了全新的物理系统，例如动态水体，使每个生物在液体中移动时都会产生波浪、涟漪、飞溅和气泡，同时还有完全交互式的物理植被，每片草、灌木和树都会对角色、爆炸、抛射物和物理物体做出反应。你甚至可以砍倒一棵树，看着它撞向其他树木，并在砸向下方草地的途中扰乱所有树叶。你甚至可以通过观察草丛的动向来确定偷偷移动的敌人的位置——因为草丛会随着敌人而移动摇摆。当你拆毁一栋建筑时，可以看到碎片更真实地四分五裂，并在落下时与草地和水体发生交互。&lt;br&gt;&lt;br&gt;●	通过《方舟：生存飞升》可以访问所有方舟世界，包括焦土、畸变、灭绝、创世纪1、ARK 创世纪第二部分等等。孤岛地图现已发布，后续扩展地图将定期免费添加。&lt;br&gt;&lt;br&gt;●	这次的终极生存体验将开启更加精彩的新篇章：自定义你的幸存者，组建一个部落，在一个真实的生态系统中驯化、训练、繁衍和驾驭各种恐龙。你需要时刻关注食物、水源、温度和天气变化。在采集、建造建筑、种植农作物、自定义游戏世界的过程中，慢慢扩张领土，探索并揭开孤岛及其他世界的真面目。&lt;br&gt;&lt;br&gt;●	在游戏体验的各个方面都进行了更彻底的改进：重新设计的用户界面，智能生物寻路的动态导航，野生恐龙宝宝，照片模式，新的相机系统，新的地图系统，追踪系统，全新的建筑、物品和生物等等。&lt;br&gt;&lt;br&gt;●	跨平台模组：您可以直接在游戏中通过专门的模组浏览器 下载并畅玩由其他玩家创造的新内容，包括新地图、生物、物品以及游戏模式！随着社群的创造力和才能首次在各个平台上得到充分释放，您将源源不断地享受到有关方舟新玩法！&lt;br&gt;&lt;br&gt;●	跨平台多人游戏：与不同游戏平台上的其他玩家一起组建在线部落，共同在方舟的世界中生存和发展！&lt;br&gt;&lt;br&gt;●	游戏支持多达70名玩家的公共在线多人游戏，最多可容纳8名玩家的私人游戏，以及2至4名玩家的本地分屏模式。</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>drdxzafztmxc</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>2430930</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ARK: Survival Ascended Dedicated Server</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>21823670</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>2436842</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>RoboCop: Rogue City - Digital Artbook</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>RoboCop: Rogue City - Digital Artbook</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>动作,冒险</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>2023年11月03日</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>使用数字版原画集应用，深入《RoboCop: Rogue City》诞生幕后的故事。原画集中包含超过 100 页配有游戏开发者解说的美术插图、概念美术及草稿。为所有半人半机械的英雄警察的粉丝们竭诚奉上。</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2495450</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Winter Memories</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>冬日狂想曲</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>动漫色情,成人,角色扮演,休闲,模拟</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2024年01月06日</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/summer_and_winter_only.png?t=1704773760" /&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?u=https%3A%2F%2Fdiscord.gg%2Fkaguragames" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Steam_Page_Discord-CN_1_.png?t=1704773760" /&gt;&lt;/a&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Header_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter-Memories-Cards_GIF.gif?t=1704773760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Trading_Others_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Description_1_CN.png?t=1704773760" /&gt;&lt;br&gt;光阴似箭，那次令人难忘的夏日回忆转眼间就已经是半年前的事情了。在这个寒假，我们的主人公又回到了乡下，与莉音姐姐，结衣姐姐和美雪姑姑再续前缘，为这个浪漫的故事写下了新的篇章。&lt;br&gt;&lt;br&gt;在回到宁静的海滨小镇后，我们的主人公不光可以尽情地休闲放松，还可以跟家人与朋友们一同玩耍，重拾半年前的牵绊。&lt;br&gt;&lt;br&gt;在这个冬天，您究竟能创造出怎样的难忘回忆呢？让我们拭目以待吧！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Description_3_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Description_Miyuki_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Description_Rio_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Description_Yui_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2495450/extras/Winter_Memories_Description_4_CN.png?t=1704773760" /&gt;&lt;br&gt;&lt;strong&gt;在轻松的氛围中进行角色扮演&lt;strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;探索美丽的海滨小镇&lt;strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;妥善管理各项行动所需的时间&lt;strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;游玩丰富多彩的小游戏&lt;strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;&lt;/strong&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>myfjw39589</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>2548950</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>武林立志傳</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>武林立志传</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>策略,角色扮演,回合战略,策略角色扮演,回合制战术</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>2023年09月26日</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>&lt;h2 class="bb_tag"&gt;STEAM版本加强功能&lt;/h2&gt;&lt;br&gt;● 中级以上成就，由单机个人成就加强为STEAM线上成就，可以和全球玩家一同比较达成进度。&lt;br&gt;● IN-GAME 武学树状图！在游戏中就可以查询各种武学的发展方向，不用再查找攻略本了。&lt;br&gt;● 密笈掉落关卡提示！在武学树状图中，可查询到每种密笈的掉落地点，可锁定目标取得想要的密笈。&lt;br&gt;● 仓库容量由256提升至384！ STEAM版本特别加大仓库容量，打到宝物不怕没地方存放。&lt;h2 class="bb_tag"&gt;巧妙搭配各大派“武功秘笈”，练就独步武林之绝世神功&lt;/h2&gt;&lt;br&gt;只要取得特定的武功秘笈后，就能利用角色升级时所获得的“招式点数”来修练。在这种高自由度的学习模式下，就算是少林寺弟子想学习魔教或者修行两门派的招式技能，将不再是遥不可及的梦想。此外，游戏更高达71位角色可以加入我方队伍中，你可以依照他们本身的属性来分配修练的武学，这也直接影响到各个角色在战斗中所担任职务喔。&lt;h2 class="bb_tag"&gt;创新仇恨值战斗系统，重视团队分工的作战技巧&lt;/h2&gt;&lt;br&gt;游戏的战斗模式加入了“仇恨值”的回合制战斗，敌人发动攻击的目标，不像一般SLG专挑HP低的对象下手，而是对仇恨值较高的角色进行攻击。如此一来玩家必须注意各角色仇恨值的高低，并且在队伍中培养“坦克”、“补师”与“伤害输出”等各种职业。即使是强度不如人，也能够利用战术、走位与巧妙的控场来克敌致胜。&lt;h2 class="bb_tag"&gt;可改变的装备属性的合成系统&lt;/h2&gt;&lt;br&gt;游戏装备除了到商店购买及作战中获得，还可以利用秘炼合成书与各种材料来进行合成，改变武器防具的各种属性。合成后觉得不好用也没关系，只要有足够的材料与合成书，可以再度合成，直接覆盖掉前一次的属性。&lt;h2 class="bb_tag"&gt;网状式的关卡设计与多样化的分歧路线，故事结局由你决定&lt;/h2&gt;&lt;br&gt;游戏打造了三十多个主线任务与多达上百个支线与随机任务，玩家完全可以依照自己的实力及战略需求来选择游戏方向，故事也将会经由玩家的任务选择，与各个女主角产生不同的情愫与发展。</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>sfohv57334</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>2593900</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>[Chilla's Art] The Kidnap | 誘拐事件</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>惊悚,心理恐怖,选择取向,生存恐怖,沉浸式模拟</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>2023年11月01日</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>&lt;strong&gt;The Kidnap | 誘拐事件&lt;/strong&gt; is a Japanese horror game about a kidnapping incident.&lt;br&gt;&lt;br&gt;Key Features:&lt;br&gt;&lt;br&gt;Immersive experience: An atmospheric, believable environment intensifies the horror experience.&lt;br&gt;&lt;br&gt;VHS film aesthetic: VHS aesthetic emulates the look and feel of CRT screens, including phosphor screen trail and bleeding, VHS tape noise, interlacing, and jitter in the analog video signal, adding extra immersion to the horror experience.&lt;br&gt;&lt;br&gt;Psychological horror: The game will drive you insane.&lt;br&gt;&lt;br&gt;Japanese Theme: Environment art inspired by Japanese horror films.&lt;br&gt;&lt;br&gt;AutoSave: Autosaves every chapter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2673200</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Risk of Rain Returns Soundtrack</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Risk of Rain Returns Soundtrack</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2023年11月09日</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>伴随着《Risk of Rain》强势归来，这份特别制作的专辑中包含了所有重制过的原版配乐，除此以外还新增了四首全新曲目！&lt;br /&gt;
+&lt;br /&gt;
+由Chris Christodoulou创作的音乐融合了电子与前卫摇滚，除此以外还夹杂着一丝芯片音乐的独特风味。&lt;br /&gt;
+&lt;br /&gt;
+专辑中包含了来自特邀音乐家们的两首曲目：才华横溢的作曲家Damjan Mravunac带来了一首Surface Tension的灼热改编，唱作通才Maria Papageorgiou则与Chris一起通力合作并为大家带来了向《Risk of Rain》的声乐遗产致敬的一首特别作品。&lt;br /&gt;
+&lt;br /&gt;
+专辑包含22首高品质的MP3 &amp;amp; FLAC格式的曲目，总长约1小时15分钟。</t>
         </is>
       </c>
     </row>
